--- a/quickbook_summary.xlsx
+++ b/quickbook_summary.xlsx
@@ -2308,7 +2308,7 @@
         </is>
       </c>
       <c r="G45" s="3" t="n">
-        <v>-345</v>
+        <v>345</v>
       </c>
     </row>
     <row r="46">
@@ -3373,7 +3373,7 @@
         </is>
       </c>
       <c r="G78" s="3" t="n">
-        <v>-2133.85</v>
+        <v>2133.85</v>
       </c>
     </row>
     <row r="79">
@@ -3633,7 +3633,7 @@
         </is>
       </c>
       <c r="G86" s="3" t="n">
-        <v>-2133.85</v>
+        <v>2133.85</v>
       </c>
     </row>
     <row r="87">
@@ -5403,7 +5403,7 @@
         </is>
       </c>
       <c r="G140" s="3" t="n">
-        <v>-185.57</v>
+        <v>185.57</v>
       </c>
     </row>
     <row r="141">
@@ -5436,7 +5436,7 @@
         </is>
       </c>
       <c r="G141" s="3" t="n">
-        <v>-50</v>
+        <v>50</v>
       </c>
     </row>
     <row r="142">
@@ -5667,7 +5667,7 @@
         </is>
       </c>
       <c r="G148" s="3" t="n">
-        <v>-180</v>
+        <v>180</v>
       </c>
     </row>
     <row r="149">
@@ -9756,7 +9756,7 @@
         </is>
       </c>
       <c r="G273" s="3" t="n">
-        <v>-2573.41</v>
+        <v>2573.41</v>
       </c>
     </row>
     <row r="274">
@@ -9789,7 +9789,7 @@
         </is>
       </c>
       <c r="G274" s="3" t="n">
-        <v>-199.44</v>
+        <v>199.44</v>
       </c>
     </row>
     <row r="275">
@@ -10412,7 +10412,7 @@
         </is>
       </c>
       <c r="G293" s="3" t="n">
-        <v>-265.28</v>
+        <v>265.28</v>
       </c>
     </row>
     <row r="294">
@@ -10445,7 +10445,7 @@
         </is>
       </c>
       <c r="G294" s="3" t="n">
-        <v>-26.46</v>
+        <v>26.46</v>
       </c>
     </row>
     <row r="295">
@@ -10478,7 +10478,7 @@
         </is>
       </c>
       <c r="G295" s="3" t="n">
-        <v>-2.16</v>
+        <v>2.16</v>
       </c>
     </row>
     <row r="296">
@@ -10511,7 +10511,7 @@
         </is>
       </c>
       <c r="G296" s="3" t="n">
-        <v>-22.94</v>
+        <v>22.94</v>
       </c>
     </row>
     <row r="297">
@@ -10544,7 +10544,7 @@
         </is>
       </c>
       <c r="G297" s="3" t="n">
-        <v>-755.66</v>
+        <v>755.66</v>
       </c>
     </row>
     <row r="298">
@@ -10577,7 +10577,7 @@
         </is>
       </c>
       <c r="G298" s="3" t="n">
-        <v>-33.44</v>
+        <v>33.44</v>
       </c>
     </row>
     <row r="299">
@@ -10610,7 +10610,7 @@
         </is>
       </c>
       <c r="G299" s="3" t="n">
-        <v>-7.86</v>
+        <v>7.86</v>
       </c>
     </row>
     <row r="300">
@@ -10643,7 +10643,7 @@
         </is>
       </c>
       <c r="G300" s="3" t="n">
-        <v>-24.97</v>
+        <v>24.97</v>
       </c>
     </row>
     <row r="301">
@@ -10676,7 +10676,7 @@
         </is>
       </c>
       <c r="G301" s="3" t="n">
-        <v>-21.7</v>
+        <v>21.7</v>
       </c>
     </row>
     <row r="302">
@@ -10709,7 +10709,7 @@
         </is>
       </c>
       <c r="G302" s="3" t="n">
-        <v>-10.85</v>
+        <v>10.85</v>
       </c>
     </row>
     <row r="303">
@@ -10742,7 +10742,7 @@
         </is>
       </c>
       <c r="G303" s="3" t="n">
-        <v>-110.68</v>
+        <v>110.68</v>
       </c>
     </row>
     <row r="304">
@@ -10775,7 +10775,7 @@
         </is>
       </c>
       <c r="G304" s="3" t="n">
-        <v>-157.08</v>
+        <v>157.08</v>
       </c>
     </row>
     <row r="305">
@@ -10808,7 +10808,7 @@
         </is>
       </c>
       <c r="G305" s="3" t="n">
-        <v>-178.82</v>
+        <v>178.82</v>
       </c>
     </row>
     <row r="306">
@@ -10841,7 +10841,7 @@
         </is>
       </c>
       <c r="G306" s="3" t="n">
-        <v>-72.93000000000001</v>
+        <v>72.93000000000001</v>
       </c>
     </row>
     <row r="307">
@@ -10874,7 +10874,7 @@
         </is>
       </c>
       <c r="G307" s="3" t="n">
-        <v>-30.29</v>
+        <v>30.29</v>
       </c>
     </row>
     <row r="308">
@@ -10907,7 +10907,7 @@
         </is>
       </c>
       <c r="G308" s="3" t="n">
-        <v>-1838.55</v>
+        <v>1838.55</v>
       </c>
     </row>
     <row r="309">
@@ -10940,7 +10940,7 @@
         </is>
       </c>
       <c r="G309" s="3" t="n">
-        <v>-157.08</v>
+        <v>157.08</v>
       </c>
     </row>
     <row r="310">
@@ -10973,7 +10973,7 @@
         </is>
       </c>
       <c r="G310" s="3" t="n">
-        <v>-134.07</v>
+        <v>134.07</v>
       </c>
     </row>
     <row r="311">
@@ -11006,7 +11006,7 @@
         </is>
       </c>
       <c r="G311" s="3" t="n">
-        <v>-72.93000000000001</v>
+        <v>72.93000000000001</v>
       </c>
     </row>
     <row r="312">
@@ -11039,7 +11039,7 @@
         </is>
       </c>
       <c r="G312" s="3" t="n">
-        <v>-30.29</v>
+        <v>30.29</v>
       </c>
     </row>
     <row r="313">
@@ -11072,7 +11072,7 @@
         </is>
       </c>
       <c r="G313" s="3" t="n">
-        <v>-1313.25</v>
+        <v>1313.25</v>
       </c>
     </row>
     <row r="314">
@@ -11105,7 +11105,7 @@
         </is>
       </c>
       <c r="G314" s="3" t="n">
-        <v>-251.22</v>
+        <v>251.22</v>
       </c>
     </row>
     <row r="315">
@@ -11138,7 +11138,7 @@
         </is>
       </c>
       <c r="G315" s="3" t="n">
-        <v>-72.93000000000001</v>
+        <v>72.93000000000001</v>
       </c>
     </row>
     <row r="316">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="G316" s="3" t="n">
-        <v>-30.29</v>
+        <v>30.29</v>
       </c>
     </row>
     <row r="317">
@@ -11204,7 +11204,7 @@
         </is>
       </c>
       <c r="G317" s="3" t="n">
-        <v>-587.1</v>
+        <v>587.1</v>
       </c>
     </row>
     <row r="318">
@@ -11237,7 +11237,7 @@
         </is>
       </c>
       <c r="G318" s="3" t="n">
-        <v>-2101.2</v>
+        <v>2101.2</v>
       </c>
     </row>
     <row r="319">
@@ -11270,7 +11270,7 @@
         </is>
       </c>
       <c r="G319" s="3" t="n">
-        <v>-157.08</v>
+        <v>157.08</v>
       </c>
     </row>
     <row r="320">
@@ -11303,7 +11303,7 @@
         </is>
       </c>
       <c r="G320" s="3" t="n">
-        <v>-157.08</v>
+        <v>157.08</v>
       </c>
     </row>
     <row r="321">
@@ -11336,7 +11336,7 @@
         </is>
       </c>
       <c r="G321" s="3" t="n">
-        <v>-134.07</v>
+        <v>134.07</v>
       </c>
     </row>
     <row r="322">
@@ -11369,7 +11369,7 @@
         </is>
       </c>
       <c r="G322" s="3" t="n">
-        <v>-72.93000000000001</v>
+        <v>72.93000000000001</v>
       </c>
     </row>
     <row r="323">
@@ -11402,7 +11402,7 @@
         </is>
       </c>
       <c r="G323" s="3" t="n">
-        <v>-30.29</v>
+        <v>30.29</v>
       </c>
     </row>
     <row r="324">
@@ -11435,7 +11435,7 @@
         </is>
       </c>
       <c r="G324" s="3" t="n">
-        <v>-1313.25</v>
+        <v>1313.25</v>
       </c>
     </row>
     <row r="325">

--- a/quickbook_summary.xlsx
+++ b/quickbook_summary.xlsx
@@ -72,14 +72,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -445,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -463,9 +465,10 @@
     <col width="50" customWidth="1" min="5" max="5"/>
     <col width="22" customWidth="1" min="6" max="6"/>
     <col width="11" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Date</t>
@@ -499,6 +502,11 @@
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Amount</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Task</t>
         </is>
       </c>
     </row>
@@ -531,8 +539,11 @@
           <t>1100 · Trade Debtors</t>
         </is>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="G2" s="4" t="n">
         <v>105053.63</v>
+      </c>
+      <c r="H2" s="5" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -564,8 +575,11 @@
           <t>1100 · Trade Debtors</t>
         </is>
       </c>
-      <c r="G3" s="3" t="n">
+      <c r="G3" s="4" t="n">
         <v>284997.05</v>
+      </c>
+      <c r="H3" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="4">
@@ -597,8 +611,11 @@
           <t>1100 · Trade Debtors</t>
         </is>
       </c>
-      <c r="G4" s="3" t="n">
+      <c r="G4" s="4" t="n">
         <v>94558.24000000001</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="5">
@@ -630,8 +647,11 @@
           <t>1100 · Trade Debtors</t>
         </is>
       </c>
-      <c r="G5" s="3" t="n">
+      <c r="G5" s="4" t="n">
         <v>176066.93</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="6">
@@ -663,8 +683,11 @@
           <t>1100 · Trade Debtors</t>
         </is>
       </c>
-      <c r="G6" s="3" t="n">
+      <c r="G6" s="4" t="n">
         <v>192.3</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="7">
@@ -696,8 +719,11 @@
           <t>1100 · Trade Debtors</t>
         </is>
       </c>
-      <c r="G7" s="3" t="n">
+      <c r="G7" s="4" t="n">
         <v>341.65</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="8">
@@ -729,8 +755,11 @@
           <t>1100 · Trade Debtors</t>
         </is>
       </c>
-      <c r="G8" s="3" t="n">
+      <c r="G8" s="4" t="n">
         <v>256.14</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="9">
@@ -762,8 +791,11 @@
           <t>1100 · Trade Debtors</t>
         </is>
       </c>
-      <c r="G9" s="3" t="n">
+      <c r="G9" s="4" t="n">
         <v>479.97</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="10">
@@ -795,8 +827,11 @@
           <t>1100 · Trade Debtors</t>
         </is>
       </c>
-      <c r="G10" s="3" t="n">
+      <c r="G10" s="4" t="n">
         <v>256.14</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -810,7 +845,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G413"/>
+  <dimension ref="A1:H404"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -828,9 +863,10 @@
     <col width="50" customWidth="1" min="5" max="5"/>
     <col width="40" customWidth="1" min="6" max="6"/>
     <col width="10" customWidth="1" min="7" max="7"/>
+    <col width="7" customWidth="1" min="8" max="8"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" customHeight="1">
+    <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Date</t>
@@ -864,6 +900,11 @@
       <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Amount</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Task</t>
         </is>
       </c>
     </row>
@@ -896,8 +937,11 @@
           <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="G2" s="4" t="n">
         <v>33.72</v>
+      </c>
+      <c r="H2" s="5" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="3">
@@ -929,8 +973,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G3" s="3" t="n">
+      <c r="G3" s="4" t="n">
         <v>5775.85</v>
+      </c>
+      <c r="H3" s="5" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="4">
@@ -962,8 +1009,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G4" s="3" t="n">
+      <c r="G4" s="4" t="n">
         <v>317.67</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="5">
@@ -995,8 +1045,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G5" s="3" t="n">
+      <c r="G5" s="4" t="n">
         <v>995</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="6">
@@ -1028,8 +1081,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G6" s="3" t="n">
+      <c r="G6" s="4" t="n">
         <v>54.72</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>100</v>
       </c>
     </row>
     <row r="7">
@@ -1061,8 +1117,11 @@
           <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
-      <c r="G7" s="3" t="n">
+      <c r="G7" s="4" t="n">
         <v>19.92</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="8">
@@ -1094,8 +1153,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G8" s="3" t="n">
+      <c r="G8" s="4" t="n">
         <v>2812.72</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="9">
@@ -1127,8 +1189,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G9" s="3" t="n">
+      <c r="G9" s="4" t="n">
         <v>5188.31</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="10">
@@ -1160,8 +1225,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G10" s="3" t="n">
+      <c r="G10" s="4" t="n">
         <v>147</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="11">
@@ -1193,8 +1261,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G11" s="3" t="n">
+      <c r="G11" s="4" t="n">
         <v>425</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="12">
@@ -1226,8 +1297,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G12" s="3" t="n">
+      <c r="G12" s="4" t="n">
         <v>1329.48</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="13">
@@ -1259,8 +1333,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G13" s="3" t="n">
+      <c r="G13" s="4" t="n">
         <v>378.54</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="14">
@@ -1292,8 +1369,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G14" s="3" t="n">
+      <c r="G14" s="4" t="n">
         <v>507</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="15">
@@ -1325,8 +1405,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G15" s="3" t="n">
+      <c r="G15" s="4" t="n">
         <v>639.98</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="16">
@@ -1358,8 +1441,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G16" s="3" t="n">
+      <c r="G16" s="4" t="n">
         <v>7728.3</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="17">
@@ -1391,8 +1477,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G17" s="3" t="n">
+      <c r="G17" s="4" t="n">
         <v>2323.13</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="18">
@@ -1424,8 +1513,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G18" s="3" t="n">
+      <c r="G18" s="4" t="n">
         <v>1050.24</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="19">
@@ -1457,8 +1549,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G19" s="3" t="n">
+      <c r="G19" s="4" t="n">
         <v>921.78</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="20">
@@ -1490,8 +1585,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G20" s="3" t="n">
+      <c r="G20" s="4" t="n">
         <v>374.76</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="21">
@@ -1523,8 +1621,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G21" s="3" t="n">
+      <c r="G21" s="4" t="n">
         <v>995</v>
+      </c>
+      <c r="H21" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="22">
@@ -1556,8 +1657,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G22" s="3" t="n">
+      <c r="G22" s="4" t="n">
         <v>76.59999999999999</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="23">
@@ -1589,8 +1693,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G23" s="3" t="n">
+      <c r="G23" s="4" t="n">
         <v>740.84</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="24">
@@ -1622,8 +1729,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G24" s="3" t="n">
+      <c r="G24" s="4" t="n">
         <v>848</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="25">
@@ -1655,8 +1765,11 @@
           <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
-      <c r="G25" s="3" t="n">
+      <c r="G25" s="4" t="n">
         <v>345</v>
+      </c>
+      <c r="H25" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="26">
@@ -1688,8 +1801,11 @@
           <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
-      <c r="G26" s="3" t="n">
+      <c r="G26" s="4" t="n">
         <v>237.5</v>
+      </c>
+      <c r="H26" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="27">
@@ -1721,8 +1837,11 @@
           <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
-      <c r="G27" s="3" t="n">
+      <c r="G27" s="4" t="n">
         <v>312.76</v>
+      </c>
+      <c r="H27" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="28">
@@ -1754,8 +1873,11 @@
           <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
-      <c r="G28" s="3" t="n">
+      <c r="G28" s="4" t="n">
         <v>247</v>
+      </c>
+      <c r="H28" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="29">
@@ -1787,8 +1909,11 @@
           <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
-      <c r="G29" s="3" t="n">
+      <c r="G29" s="4" t="n">
         <v>367.1</v>
+      </c>
+      <c r="H29" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="30">
@@ -1820,8 +1945,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G30" s="3" t="n">
+      <c r="G30" s="4" t="n">
         <v>368.15</v>
+      </c>
+      <c r="H30" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="31">
@@ -1853,8 +1981,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G31" s="3" t="n">
+      <c r="G31" s="4" t="n">
         <v>20.25</v>
+      </c>
+      <c r="H31" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="32">
@@ -1886,8 +2017,11 @@
           <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
-      <c r="G32" s="3" t="n">
+      <c r="G32" s="4" t="n">
         <v>112.27</v>
+      </c>
+      <c r="H32" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="33">
@@ -1919,8 +2053,11 @@
           <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
-      <c r="G33" s="3" t="n">
+      <c r="G33" s="4" t="n">
         <v>20</v>
+      </c>
+      <c r="H33" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="34">
@@ -1952,8 +2089,11 @@
           <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
-      <c r="G34" s="3" t="n">
+      <c r="G34" s="4" t="n">
         <v>128.75</v>
+      </c>
+      <c r="H34" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="35">
@@ -1981,8 +2121,11 @@
           <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
-      <c r="G35" s="3" t="n">
+      <c r="G35" s="4" t="n">
         <v>119.38</v>
+      </c>
+      <c r="H35" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="36">
@@ -2014,8 +2157,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G36" s="3" t="n">
+      <c r="G36" s="4" t="n">
         <v>8518.129999999999</v>
+      </c>
+      <c r="H36" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="37">
@@ -2047,8 +2193,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G37" s="3" t="n">
+      <c r="G37" s="4" t="n">
         <v>18449.95</v>
+      </c>
+      <c r="H37" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="38">
@@ -2080,8 +2229,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G38" s="3" t="n">
+      <c r="G38" s="4" t="n">
         <v>5062.89</v>
+      </c>
+      <c r="H38" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="39">
@@ -2113,8 +2265,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G39" s="3" t="n">
+      <c r="G39" s="4" t="n">
         <v>1537.5</v>
+      </c>
+      <c r="H39" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="40">
@@ -2146,8 +2301,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G40" s="3" t="n">
+      <c r="G40" s="4" t="n">
         <v>3124.23</v>
+      </c>
+      <c r="H40" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="41">
@@ -2179,8 +2337,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G41" s="3" t="n">
+      <c r="G41" s="4" t="n">
         <v>534.87</v>
+      </c>
+      <c r="H41" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="42">
@@ -2212,8 +2373,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G42" s="3" t="n">
+      <c r="G42" s="4" t="n">
         <v>468.5</v>
+      </c>
+      <c r="H42" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="43">
@@ -2245,8 +2409,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G43" s="3" t="n">
+      <c r="G43" s="4" t="n">
         <v>1014.75</v>
+      </c>
+      <c r="H43" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="44">
@@ -2278,8 +2445,11 @@
           <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
-      <c r="G44" s="3" t="n">
+      <c r="G44" s="4" t="n">
         <v>109.15</v>
+      </c>
+      <c r="H44" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="45">
@@ -2307,8 +2477,11 @@
           <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
-      <c r="G45" s="3" t="n">
+      <c r="G45" s="4" t="n">
         <v>345</v>
+      </c>
+      <c r="H45" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="46">
@@ -2340,8 +2513,11 @@
           <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
-      <c r="G46" s="3" t="n">
+      <c r="G46" s="4" t="n">
         <v>82.58</v>
+      </c>
+      <c r="H46" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="47">
@@ -2373,8 +2549,11 @@
           <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
-      <c r="G47" s="3" t="n">
+      <c r="G47" s="4" t="n">
         <v>213</v>
+      </c>
+      <c r="H47" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="48">
@@ -2406,8 +2585,11 @@
           <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
-      <c r="G48" s="3" t="n">
+      <c r="G48" s="4" t="n">
         <v>73.62</v>
+      </c>
+      <c r="H48" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="49">
@@ -2439,8 +2621,11 @@
           <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
-      <c r="G49" s="3" t="n">
+      <c r="G49" s="4" t="n">
         <v>450</v>
+      </c>
+      <c r="H49" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="50">
@@ -2472,8 +2657,11 @@
           <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
-      <c r="G50" s="3" t="n">
+      <c r="G50" s="4" t="n">
         <v>50.25</v>
+      </c>
+      <c r="H50" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="51">
@@ -2505,8 +2693,11 @@
           <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
-      <c r="G51" s="3" t="n">
+      <c r="G51" s="4" t="n">
         <v>112.56</v>
+      </c>
+      <c r="H51" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="52">
@@ -2538,8 +2729,11 @@
           <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
-      <c r="G52" s="3" t="n">
+      <c r="G52" s="4" t="n">
         <v>68.54000000000001</v>
+      </c>
+      <c r="H52" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="53">
@@ -2571,8 +2765,11 @@
           <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
-      <c r="G53" s="3" t="n">
+      <c r="G53" s="4" t="n">
         <v>500</v>
+      </c>
+      <c r="H53" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="54">
@@ -2604,8 +2801,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G54" s="3" t="n">
+      <c r="G54" s="4" t="n">
         <v>626.85</v>
+      </c>
+      <c r="H54" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="55">
@@ -2633,8 +2833,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G55" s="3" t="n">
+      <c r="G55" s="4" t="n">
         <v>34.48</v>
+      </c>
+      <c r="H55" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="56">
@@ -2666,8 +2869,11 @@
           <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
-      <c r="G56" s="3" t="n">
+      <c r="G56" s="4" t="n">
         <v>31.24</v>
+      </c>
+      <c r="H56" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="57">
@@ -2699,8 +2905,11 @@
           <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
-      <c r="G57" s="3" t="n">
+      <c r="G57" s="4" t="n">
         <v>50.88</v>
+      </c>
+      <c r="H57" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="58">
@@ -2732,8 +2941,11 @@
           <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
-      <c r="G58" s="3" t="n">
+      <c r="G58" s="4" t="n">
         <v>10.58</v>
+      </c>
+      <c r="H58" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="59">
@@ -2765,8 +2977,11 @@
           <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
-      <c r="G59" s="3" t="n">
+      <c r="G59" s="4" t="n">
         <v>57.89</v>
+      </c>
+      <c r="H59" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="60">
@@ -2798,8 +3013,11 @@
           <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
-      <c r="G60" s="3" t="n">
+      <c r="G60" s="4" t="n">
         <v>194.62</v>
+      </c>
+      <c r="H60" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="61">
@@ -2831,8 +3049,11 @@
           <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
-      <c r="G61" s="3" t="n">
+      <c r="G61" s="4" t="n">
         <v>106.5</v>
+      </c>
+      <c r="H61" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="62">
@@ -2864,8 +3085,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G62" s="3" t="n">
+      <c r="G62" s="4" t="n">
         <v>374.4</v>
+      </c>
+      <c r="H62" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="63">
@@ -2897,8 +3121,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G63" s="3" t="n">
+      <c r="G63" s="4" t="n">
         <v>886.08</v>
+      </c>
+      <c r="H63" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="64">
@@ -2930,8 +3157,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G64" s="3" t="n">
+      <c r="G64" s="4" t="n">
         <v>69.33</v>
+      </c>
+      <c r="H64" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="65">
@@ -2963,8 +3193,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G65" s="3" t="n">
+      <c r="G65" s="4" t="n">
         <v>258.3</v>
+      </c>
+      <c r="H65" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="66">
@@ -2996,8 +3229,11 @@
           <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
-      <c r="G66" s="3" t="n">
+      <c r="G66" s="4" t="n">
         <v>204.84</v>
+      </c>
+      <c r="H66" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="67">
@@ -3029,8 +3265,11 @@
           <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
-      <c r="G67" s="3" t="n">
+      <c r="G67" s="4" t="n">
         <v>83.37</v>
+      </c>
+      <c r="H67" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="68">
@@ -3062,8 +3301,11 @@
           <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
-      <c r="G68" s="3" t="n">
+      <c r="G68" s="4" t="n">
         <v>77.78</v>
+      </c>
+      <c r="H68" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="69">
@@ -3095,8 +3337,11 @@
           <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
-      <c r="G69" s="3" t="n">
+      <c r="G69" s="4" t="n">
         <v>68.13</v>
+      </c>
+      <c r="H69" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="70">
@@ -3124,8 +3369,11 @@
           <t>2310 · American Express Delta</t>
         </is>
       </c>
-      <c r="G70" s="3" t="n">
+      <c r="G70" s="4" t="n">
         <v>2396.58</v>
+      </c>
+      <c r="H70" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="71">
@@ -3153,8 +3401,11 @@
           <t>2310 · American Express Delta</t>
         </is>
       </c>
-      <c r="G71" s="3" t="n">
+      <c r="G71" s="4" t="n">
         <v>2396.58</v>
+      </c>
+      <c r="H71" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="72">
@@ -3186,8 +3437,11 @@
           <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
-      <c r="G72" s="3" t="n">
+      <c r="G72" s="4" t="n">
         <v>188.47</v>
+      </c>
+      <c r="H72" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="73">
@@ -3219,8 +3473,11 @@
           <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
-      <c r="G73" s="3" t="n">
+      <c r="G73" s="4" t="n">
         <v>44.4</v>
+      </c>
+      <c r="H73" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="74">
@@ -3252,8 +3509,11 @@
           <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
-      <c r="G74" s="3" t="n">
+      <c r="G74" s="4" t="n">
         <v>121.78</v>
+      </c>
+      <c r="H74" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="75">
@@ -3281,8 +3541,11 @@
           <t>2310 · American Express Delta</t>
         </is>
       </c>
-      <c r="G75" s="3" t="n">
+      <c r="G75" s="4" t="n">
         <v>1292.68</v>
+      </c>
+      <c r="H75" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="76">
@@ -3310,8 +3573,11 @@
           <t>2310 · American Express Delta</t>
         </is>
       </c>
-      <c r="G76" s="3" t="n">
+      <c r="G76" s="4" t="n">
         <v>1292.68</v>
+      </c>
+      <c r="H76" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="77">
@@ -3343,8 +3609,11 @@
           <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
-      <c r="G77" s="3" t="n">
+      <c r="G77" s="4" t="n">
         <v>126.9</v>
+      </c>
+      <c r="H77" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="78">
@@ -3372,8 +3641,11 @@
           <t>2310 · American Express Delta</t>
         </is>
       </c>
-      <c r="G78" s="3" t="n">
+      <c r="G78" s="4" t="n">
         <v>2133.85</v>
+      </c>
+      <c r="H78" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="79">
@@ -3405,8 +3677,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G79" s="3" t="n">
+      <c r="G79" s="4" t="n">
         <v>3474</v>
+      </c>
+      <c r="H79" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="80">
@@ -3438,8 +3713,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G80" s="3" t="n">
+      <c r="G80" s="4" t="n">
         <v>1176</v>
+      </c>
+      <c r="H80" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="81">
@@ -3471,8 +3749,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G81" s="3" t="n">
+      <c r="G81" s="4" t="n">
         <v>360.38</v>
+      </c>
+      <c r="H81" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="82">
@@ -3504,8 +3785,11 @@
           <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
-      <c r="G82" s="3" t="n">
+      <c r="G82" s="4" t="n">
         <v>242.9</v>
+      </c>
+      <c r="H82" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="83">
@@ -3537,8 +3821,11 @@
           <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
-      <c r="G83" s="3" t="n">
+      <c r="G83" s="4" t="n">
         <v>70.14</v>
+      </c>
+      <c r="H83" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="84">
@@ -3570,8 +3857,11 @@
           <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
-      <c r="G84" s="3" t="n">
+      <c r="G84" s="4" t="n">
         <v>30.24</v>
+      </c>
+      <c r="H84" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="85">
@@ -3603,8 +3893,11 @@
           <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
-      <c r="G85" s="3" t="n">
+      <c r="G85" s="4" t="n">
         <v>368.26</v>
+      </c>
+      <c r="H85" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="86">
@@ -3632,8 +3925,11 @@
           <t>2310 · American Express Delta</t>
         </is>
       </c>
-      <c r="G86" s="3" t="n">
+      <c r="G86" s="4" t="n">
         <v>2133.85</v>
+      </c>
+      <c r="H86" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="87">
@@ -3665,8 +3961,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G87" s="3" t="n">
+      <c r="G87" s="4" t="n">
         <v>249.98</v>
+      </c>
+      <c r="H87" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="88">
@@ -3698,8 +3997,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G88" s="3" t="n">
+      <c r="G88" s="4" t="n">
         <v>21.96</v>
+      </c>
+      <c r="H88" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="89">
@@ -3731,8 +4033,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G89" s="3" t="n">
+      <c r="G89" s="4" t="n">
         <v>23.71</v>
+      </c>
+      <c r="H89" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="90">
@@ -3764,8 +4069,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G90" s="3" t="n">
+      <c r="G90" s="4" t="n">
         <v>23.05</v>
+      </c>
+      <c r="H90" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="91">
@@ -3797,8 +4105,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G91" s="3" t="n">
+      <c r="G91" s="4" t="n">
         <v>22.78</v>
+      </c>
+      <c r="H91" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="92">
@@ -3830,8 +4141,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G92" s="3" t="n">
+      <c r="G92" s="4" t="n">
         <v>2.18</v>
+      </c>
+      <c r="H92" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="93">
@@ -3863,8 +4177,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G93" s="3" t="n">
+      <c r="G93" s="4" t="n">
         <v>9.880000000000001</v>
+      </c>
+      <c r="H93" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="94">
@@ -3896,8 +4213,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G94" s="3" t="n">
+      <c r="G94" s="4" t="n">
         <v>18.07</v>
+      </c>
+      <c r="H94" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="95">
@@ -3929,8 +4249,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G95" s="3" t="n">
+      <c r="G95" s="4" t="n">
         <v>199.69</v>
+      </c>
+      <c r="H95" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="96">
@@ -3962,8 +4285,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G96" s="3" t="n">
+      <c r="G96" s="4" t="n">
         <v>2.3</v>
+      </c>
+      <c r="H96" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="97">
@@ -3995,8 +4321,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G97" s="3" t="n">
+      <c r="G97" s="4" t="n">
         <v>39.69</v>
+      </c>
+      <c r="H97" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="98">
@@ -4028,8 +4357,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G98" s="3" t="n">
+      <c r="G98" s="4" t="n">
         <v>138.67</v>
+      </c>
+      <c r="H98" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="99">
@@ -4061,8 +4393,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G99" s="3" t="n">
+      <c r="G99" s="4" t="n">
         <v>12.02</v>
+      </c>
+      <c r="H99" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="100">
@@ -4094,8 +4429,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G100" s="3" t="n">
+      <c r="G100" s="4" t="n">
         <v>43.04</v>
+      </c>
+      <c r="H100" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="101">
@@ -4127,8 +4465,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G101" s="3" t="n">
+      <c r="G101" s="4" t="n">
         <v>38.09</v>
+      </c>
+      <c r="H101" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="102">
@@ -4160,8 +4501,11 @@
           <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
-      <c r="G102" s="3" t="n">
+      <c r="G102" s="4" t="n">
         <v>577.15</v>
+      </c>
+      <c r="H102" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="103">
@@ -4193,8 +4537,11 @@
           <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
-      <c r="G103" s="3" t="n">
+      <c r="G103" s="4" t="n">
         <v>121.95</v>
+      </c>
+      <c r="H103" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="104">
@@ -4226,8 +4573,11 @@
           <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
-      <c r="G104" s="3" t="n">
+      <c r="G104" s="4" t="n">
         <v>350</v>
+      </c>
+      <c r="H104" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="105">
@@ -4259,8 +4609,11 @@
           <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
-      <c r="G105" s="3" t="n">
+      <c r="G105" s="4" t="n">
         <v>758.05</v>
+      </c>
+      <c r="H105" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="106">
@@ -4292,8 +4645,11 @@
           <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
-      <c r="G106" s="3" t="n">
+      <c r="G106" s="4" t="n">
         <v>59.5</v>
+      </c>
+      <c r="H106" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="107">
@@ -4325,8 +4681,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G107" s="3" t="n">
+      <c r="G107" s="4" t="n">
         <v>3150</v>
+      </c>
+      <c r="H107" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="108">
@@ -4358,8 +4717,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G108" s="3" t="n">
+      <c r="G108" s="4" t="n">
         <v>3150</v>
+      </c>
+      <c r="H108" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="109">
@@ -4387,8 +4749,11 @@
           <t>2310 · American Express Delta</t>
         </is>
       </c>
-      <c r="G109" s="3" t="n">
+      <c r="G109" s="4" t="n">
         <v>185.57</v>
+      </c>
+      <c r="H109" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="110">
@@ -4420,8 +4785,11 @@
           <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
-      <c r="G110" s="3" t="n">
+      <c r="G110" s="4" t="n">
         <v>210.64</v>
+      </c>
+      <c r="H110" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="111">
@@ -4453,8 +4821,11 @@
           <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
-      <c r="G111" s="3" t="n">
+      <c r="G111" s="4" t="n">
         <v>45.86</v>
+      </c>
+      <c r="H111" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="112">
@@ -4486,8 +4857,11 @@
           <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
-      <c r="G112" s="3" t="n">
+      <c r="G112" s="4" t="n">
         <v>44.62</v>
+      </c>
+      <c r="H112" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="113">
@@ -4519,8 +4893,11 @@
           <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
-      <c r="G113" s="3" t="n">
+      <c r="G113" s="4" t="n">
         <v>89.62</v>
+      </c>
+      <c r="H113" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="114">
@@ -4552,8 +4929,11 @@
           <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
-      <c r="G114" s="3" t="n">
+      <c r="G114" s="4" t="n">
         <v>245.61</v>
+      </c>
+      <c r="H114" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="115">
@@ -4585,8 +4965,11 @@
           <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
-      <c r="G115" s="3" t="n">
+      <c r="G115" s="4" t="n">
         <v>16.88</v>
+      </c>
+      <c r="H115" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="116">
@@ -4618,8 +5001,11 @@
           <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
-      <c r="G116" s="3" t="n">
+      <c r="G116" s="4" t="n">
         <v>360</v>
+      </c>
+      <c r="H116" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="117">
@@ -4651,8 +5037,11 @@
           <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
-      <c r="G117" s="3" t="n">
+      <c r="G117" s="4" t="n">
         <v>350</v>
+      </c>
+      <c r="H117" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="118">
@@ -4684,8 +5073,11 @@
           <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
-      <c r="G118" s="3" t="n">
+      <c r="G118" s="4" t="n">
         <v>250</v>
+      </c>
+      <c r="H118" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="119">
@@ -4717,8 +5109,11 @@
           <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
-      <c r="G119" s="3" t="n">
+      <c r="G119" s="4" t="n">
         <v>850</v>
+      </c>
+      <c r="H119" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="120">
@@ -4750,8 +5145,11 @@
           <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
-      <c r="G120" s="3" t="n">
+      <c r="G120" s="4" t="n">
         <v>350</v>
+      </c>
+      <c r="H120" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="121">
@@ -4783,8 +5181,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G121" s="3" t="n">
+      <c r="G121" s="4" t="n">
         <v>1282.4</v>
+      </c>
+      <c r="H121" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="122">
@@ -4816,8 +5217,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G122" s="3" t="n">
+      <c r="G122" s="4" t="n">
         <v>117.58</v>
+      </c>
+      <c r="H122" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="123">
@@ -4849,8 +5253,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G123" s="3" t="n">
+      <c r="G123" s="4" t="n">
         <v>3686.9</v>
+      </c>
+      <c r="H123" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="124">
@@ -4882,8 +5289,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G124" s="3" t="n">
+      <c r="G124" s="4" t="n">
         <v>305.13</v>
+      </c>
+      <c r="H124" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="125">
@@ -4915,8 +5325,11 @@
           <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
-      <c r="G125" s="3" t="n">
+      <c r="G125" s="4" t="n">
         <v>501.66</v>
+      </c>
+      <c r="H125" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="126">
@@ -4948,8 +5361,11 @@
           <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
-      <c r="G126" s="3" t="n">
+      <c r="G126" s="4" t="n">
         <v>13.99</v>
+      </c>
+      <c r="H126" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="127">
@@ -4981,8 +5397,11 @@
           <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
-      <c r="G127" s="3" t="n">
+      <c r="G127" s="4" t="n">
         <v>24.07</v>
+      </c>
+      <c r="H127" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="128">
@@ -5014,8 +5433,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G128" s="3" t="n">
+      <c r="G128" s="4" t="n">
         <v>225</v>
+      </c>
+      <c r="H128" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="129">
@@ -5047,8 +5469,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G129" s="3" t="n">
+      <c r="G129" s="4" t="n">
         <v>225</v>
+      </c>
+      <c r="H129" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="130">
@@ -5080,8 +5505,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G130" s="3" t="n">
+      <c r="G130" s="4" t="n">
         <v>49.37</v>
+      </c>
+      <c r="H130" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="131">
@@ -5113,8 +5541,11 @@
           <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
-      <c r="G131" s="3" t="n">
+      <c r="G131" s="4" t="n">
         <v>28.11</v>
+      </c>
+      <c r="H131" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="132">
@@ -5146,8 +5577,11 @@
           <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
-      <c r="G132" s="3" t="n">
+      <c r="G132" s="4" t="n">
         <v>12.98</v>
+      </c>
+      <c r="H132" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="133">
@@ -5179,8 +5613,11 @@
           <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
-      <c r="G133" s="3" t="n">
+      <c r="G133" s="4" t="n">
         <v>43.3</v>
+      </c>
+      <c r="H133" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="134">
@@ -5212,8 +5649,11 @@
           <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
-      <c r="G134" s="3" t="n">
+      <c r="G134" s="4" t="n">
         <v>560.5599999999999</v>
+      </c>
+      <c r="H134" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="135">
@@ -5245,8 +5685,11 @@
           <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
-      <c r="G135" s="3" t="n">
+      <c r="G135" s="4" t="n">
         <v>68.81999999999999</v>
+      </c>
+      <c r="H135" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="136">
@@ -5278,8 +5721,11 @@
           <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
-      <c r="G136" s="3" t="n">
+      <c r="G136" s="4" t="n">
         <v>59.27</v>
+      </c>
+      <c r="H136" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="137">
@@ -5311,8 +5757,11 @@
           <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
-      <c r="G137" s="3" t="n">
+      <c r="G137" s="4" t="n">
         <v>103.04</v>
+      </c>
+      <c r="H137" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="138">
@@ -5340,8 +5789,11 @@
           <t>2310 · American Express Delta</t>
         </is>
       </c>
-      <c r="G138" s="3" t="n">
+      <c r="G138" s="4" t="n">
         <v>1250</v>
+      </c>
+      <c r="H138" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="139">
@@ -5373,8 +5825,11 @@
           <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
-      <c r="G139" s="3" t="n">
+      <c r="G139" s="4" t="n">
         <v>40</v>
+      </c>
+      <c r="H139" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="140">
@@ -5402,8 +5857,11 @@
           <t>2310 · American Express Delta</t>
         </is>
       </c>
-      <c r="G140" s="3" t="n">
+      <c r="G140" s="4" t="n">
         <v>185.57</v>
+      </c>
+      <c r="H140" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="141">
@@ -5435,8 +5893,11 @@
           <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
-      <c r="G141" s="3" t="n">
+      <c r="G141" s="4" t="n">
         <v>50</v>
+      </c>
+      <c r="H141" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="142">
@@ -5468,8 +5929,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G142" s="3" t="n">
+      <c r="G142" s="4" t="n">
         <v>156.48</v>
+      </c>
+      <c r="H142" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="143">
@@ -5501,8 +5965,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G143" s="3" t="n">
+      <c r="G143" s="4" t="n">
         <v>12.52</v>
+      </c>
+      <c r="H143" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="144">
@@ -5534,8 +6001,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G144" s="3" t="n">
+      <c r="G144" s="4" t="n">
         <v>10075.59</v>
+      </c>
+      <c r="H144" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="145">
@@ -5567,8 +6037,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G145" s="3" t="n">
+      <c r="G145" s="4" t="n">
         <v>4029.9</v>
+      </c>
+      <c r="H145" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="146">
@@ -5600,8 +6073,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G146" s="3" t="n">
+      <c r="G146" s="4" t="n">
         <v>1128.44</v>
+      </c>
+      <c r="H146" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="147">
@@ -5633,8 +6109,11 @@
           <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
-      <c r="G147" s="3" t="n">
+      <c r="G147" s="4" t="n">
         <v>101.25</v>
+      </c>
+      <c r="H147" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="148">
@@ -5666,8 +6145,11 @@
           <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
-      <c r="G148" s="3" t="n">
+      <c r="G148" s="4" t="n">
         <v>180</v>
+      </c>
+      <c r="H148" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="149">
@@ -5699,8 +6181,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G149" s="3" t="n">
+      <c r="G149" s="4" t="n">
         <v>2573.41</v>
+      </c>
+      <c r="H149" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="150">
@@ -5732,8 +6217,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G150" s="3" t="n">
+      <c r="G150" s="4" t="n">
         <v>199.44</v>
+      </c>
+      <c r="H150" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="151">
@@ -5765,8 +6253,11 @@
           <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
-      <c r="G151" s="3" t="n">
+      <c r="G151" s="4" t="n">
         <v>100.07</v>
+      </c>
+      <c r="H151" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="152">
@@ -5798,8 +6289,11 @@
           <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
-      <c r="G152" s="3" t="n">
+      <c r="G152" s="4" t="n">
         <v>19.78</v>
+      </c>
+      <c r="H152" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="153">
@@ -5831,8 +6325,11 @@
           <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
-      <c r="G153" s="3" t="n">
+      <c r="G153" s="4" t="n">
         <v>60.35</v>
+      </c>
+      <c r="H153" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="154">
@@ -5864,8 +6361,11 @@
           <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
-      <c r="G154" s="3" t="n">
+      <c r="G154" s="4" t="n">
         <v>91.14</v>
+      </c>
+      <c r="H154" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="155">
@@ -5897,8 +6397,11 @@
           <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
-      <c r="G155" s="3" t="n">
+      <c r="G155" s="4" t="n">
         <v>23.22</v>
+      </c>
+      <c r="H155" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="156">
@@ -5930,8 +6433,11 @@
           <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
-      <c r="G156" s="3" t="n">
+      <c r="G156" s="4" t="n">
         <v>89.36</v>
+      </c>
+      <c r="H156" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="157">
@@ -5963,8 +6469,11 @@
           <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
-      <c r="G157" s="3" t="n">
+      <c r="G157" s="4" t="n">
         <v>30.53</v>
+      </c>
+      <c r="H157" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="158">
@@ -5996,8 +6505,11 @@
           <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
-      <c r="G158" s="3" t="n">
+      <c r="G158" s="4" t="n">
         <v>60</v>
+      </c>
+      <c r="H158" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="159">
@@ -6029,8 +6541,11 @@
           <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
-      <c r="G159" s="3" t="n">
+      <c r="G159" s="4" t="n">
         <v>350</v>
+      </c>
+      <c r="H159" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="160">
@@ -6062,8 +6577,11 @@
           <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
-      <c r="G160" s="3" t="n">
+      <c r="G160" s="4" t="n">
         <v>100</v>
+      </c>
+      <c r="H160" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="161">
@@ -6095,8 +6613,11 @@
           <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
-      <c r="G161" s="3" t="n">
+      <c r="G161" s="4" t="n">
         <v>350</v>
+      </c>
+      <c r="H161" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="162">
@@ -6128,8 +6649,11 @@
           <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
-      <c r="G162" s="3" t="n">
+      <c r="G162" s="4" t="n">
         <v>350</v>
+      </c>
+      <c r="H162" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="163">
@@ -6161,8 +6685,11 @@
           <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
-      <c r="G163" s="3" t="n">
+      <c r="G163" s="4" t="n">
         <v>319.18</v>
+      </c>
+      <c r="H163" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="164">
@@ -6194,8 +6721,11 @@
           <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
-      <c r="G164" s="3" t="n">
+      <c r="G164" s="4" t="n">
         <v>45.59</v>
+      </c>
+      <c r="H164" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="165">
@@ -6227,8 +6757,11 @@
           <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
-      <c r="G165" s="3" t="n">
+      <c r="G165" s="4" t="n">
         <v>16.13</v>
+      </c>
+      <c r="H165" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="166">
@@ -6260,8 +6793,11 @@
           <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
-      <c r="G166" s="3" t="n">
+      <c r="G166" s="4" t="n">
         <v>14.62</v>
+      </c>
+      <c r="H166" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="167">
@@ -6293,8 +6829,11 @@
           <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
-      <c r="G167" s="3" t="n">
+      <c r="G167" s="4" t="n">
         <v>15.41</v>
+      </c>
+      <c r="H167" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="168">
@@ -6326,8 +6865,11 @@
           <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
-      <c r="G168" s="3" t="n">
+      <c r="G168" s="4" t="n">
         <v>77.03</v>
+      </c>
+      <c r="H168" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="169">
@@ -6359,8 +6901,11 @@
           <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
-      <c r="G169" s="3" t="n">
+      <c r="G169" s="4" t="n">
         <v>60</v>
+      </c>
+      <c r="H169" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="170">
@@ -6392,8 +6937,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G170" s="3" t="n">
+      <c r="G170" s="4" t="n">
         <v>265.28</v>
+      </c>
+      <c r="H170" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="171">
@@ -6425,8 +6973,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G171" s="3" t="n">
+      <c r="G171" s="4" t="n">
         <v>26.46</v>
+      </c>
+      <c r="H171" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="172">
@@ -6458,8 +7009,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G172" s="3" t="n">
+      <c r="G172" s="4" t="n">
         <v>2.16</v>
+      </c>
+      <c r="H172" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="173">
@@ -6491,8 +7045,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G173" s="3" t="n">
+      <c r="G173" s="4" t="n">
         <v>22.94</v>
+      </c>
+      <c r="H173" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="174">
@@ -6524,8 +7081,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G174" s="3" t="n">
+      <c r="G174" s="4" t="n">
         <v>755.66</v>
+      </c>
+      <c r="H174" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="175">
@@ -6557,8 +7117,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G175" s="3" t="n">
+      <c r="G175" s="4" t="n">
         <v>33.44</v>
+      </c>
+      <c r="H175" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="176">
@@ -6590,8 +7153,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G176" s="3" t="n">
+      <c r="G176" s="4" t="n">
         <v>7.86</v>
+      </c>
+      <c r="H176" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="177">
@@ -6623,8 +7189,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G177" s="3" t="n">
+      <c r="G177" s="4" t="n">
         <v>24.97</v>
+      </c>
+      <c r="H177" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="178">
@@ -6656,8 +7225,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G178" s="3" t="n">
+      <c r="G178" s="4" t="n">
         <v>21.7</v>
+      </c>
+      <c r="H178" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="179">
@@ -6689,8 +7261,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G179" s="3" t="n">
+      <c r="G179" s="4" t="n">
         <v>10.85</v>
+      </c>
+      <c r="H179" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="180">
@@ -6722,8 +7297,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G180" s="3" t="n">
+      <c r="G180" s="4" t="n">
         <v>110.68</v>
+      </c>
+      <c r="H180" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="181">
@@ -6755,8 +7333,11 @@
           <t>Credit Card at Wells Fargo Ban</t>
         </is>
       </c>
-      <c r="G181" s="3" t="n">
+      <c r="G181" s="4" t="n">
         <v>139.06</v>
+      </c>
+      <c r="H181" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="182">
@@ -6788,8 +7369,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G182" s="3" t="n">
+      <c r="G182" s="4" t="n">
         <v>4639</v>
+      </c>
+      <c r="H182" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="183">
@@ -6821,8 +7405,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G183" s="3" t="n">
+      <c r="G183" s="4" t="n">
         <v>529.0599999999999</v>
+      </c>
+      <c r="H183" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="184">
@@ -6854,8 +7441,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G184" s="3" t="n">
+      <c r="G184" s="4" t="n">
         <v>503.12</v>
+      </c>
+      <c r="H184" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="185">
@@ -6887,8 +7477,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G185" s="3" t="n">
+      <c r="G185" s="4" t="n">
         <v>23367.75</v>
+      </c>
+      <c r="H185" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="186">
@@ -6916,8 +7509,11 @@
           <t>2310 · American Express Delta</t>
         </is>
       </c>
-      <c r="G186" s="3" t="n">
+      <c r="G186" s="4" t="n">
         <v>210.58</v>
+      </c>
+      <c r="H186" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="187">
@@ -6945,8 +7541,11 @@
           <t>2310 · American Express Delta</t>
         </is>
       </c>
-      <c r="G187" s="3" t="n">
+      <c r="G187" s="4" t="n">
         <v>210.58</v>
+      </c>
+      <c r="H187" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="188">
@@ -6978,8 +7577,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G188" s="3" t="n">
+      <c r="G188" s="4" t="n">
         <v>157.08</v>
+      </c>
+      <c r="H188" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="189">
@@ -7011,8 +7613,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G189" s="3" t="n">
+      <c r="G189" s="4" t="n">
         <v>178.82</v>
+      </c>
+      <c r="H189" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="190">
@@ -7044,8 +7649,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G190" s="3" t="n">
+      <c r="G190" s="4" t="n">
         <v>72.93000000000001</v>
+      </c>
+      <c r="H190" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="191">
@@ -7077,8 +7685,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G191" s="3" t="n">
+      <c r="G191" s="4" t="n">
         <v>30.29</v>
+      </c>
+      <c r="H191" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="192">
@@ -7110,8 +7721,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G192" s="3" t="n">
+      <c r="G192" s="4" t="n">
         <v>1838.55</v>
+      </c>
+      <c r="H192" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="193">
@@ -7143,8 +7757,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G193" s="3" t="n">
+      <c r="G193" s="4" t="n">
         <v>20.6</v>
+      </c>
+      <c r="H193" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="194">
@@ -7176,8 +7793,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G194" s="3" t="n">
+      <c r="G194" s="4" t="n">
         <v>1.6</v>
+      </c>
+      <c r="H194" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="195">
@@ -7209,8 +7829,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G195" s="3" t="n">
+      <c r="G195" s="4" t="n">
         <v>153.25</v>
+      </c>
+      <c r="H195" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="196">
@@ -7242,8 +7865,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G196" s="3" t="n">
+      <c r="G196" s="4" t="n">
         <v>100.18</v>
+      </c>
+      <c r="H196" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="197">
@@ -7275,8 +7901,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G197" s="3" t="n">
+      <c r="G197" s="4" t="n">
         <v>19.77</v>
+      </c>
+      <c r="H197" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="198">
@@ -7308,8 +7937,11 @@
           <t>2321 · Commerce Bank - Enterprise Acct</t>
         </is>
       </c>
-      <c r="G198" s="3" t="n">
+      <c r="G198" s="4" t="n">
         <v>312.87</v>
+      </c>
+      <c r="H198" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="199">
@@ -7341,8 +7973,11 @@
           <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
-      <c r="G199" s="3" t="n">
+      <c r="G199" s="4" t="n">
         <v>350</v>
+      </c>
+      <c r="H199" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="200">
@@ -7374,8 +8009,11 @@
           <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
-      <c r="G200" s="3" t="n">
+      <c r="G200" s="4" t="n">
         <v>350</v>
+      </c>
+      <c r="H200" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="201">
@@ -7407,8 +8045,11 @@
           <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
-      <c r="G201" s="3" t="n">
+      <c r="G201" s="4" t="n">
         <v>350</v>
+      </c>
+      <c r="H201" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="202">
@@ -7440,8 +8081,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G202" s="3" t="n">
+      <c r="G202" s="4" t="n">
         <v>12.96</v>
+      </c>
+      <c r="H202" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="203">
@@ -7473,8 +8117,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G203" s="3" t="n">
+      <c r="G203" s="4" t="n">
         <v>47.03</v>
+      </c>
+      <c r="H203" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="204">
@@ -7506,8 +8153,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G204" s="3" t="n">
+      <c r="G204" s="4" t="n">
         <v>4.64</v>
+      </c>
+      <c r="H204" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="205">
@@ -7539,8 +8189,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G205" s="3" t="n">
+      <c r="G205" s="4" t="n">
         <v>111</v>
+      </c>
+      <c r="H205" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="206">
@@ -7572,8 +8225,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G206" s="3" t="n">
+      <c r="G206" s="4" t="n">
         <v>8.6</v>
+      </c>
+      <c r="H206" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="207">
@@ -7601,8 +8257,11 @@
           <t>2310 · American Express Delta</t>
         </is>
       </c>
-      <c r="G207" s="3" t="n">
+      <c r="G207" s="4" t="n">
         <v>538.3</v>
+      </c>
+      <c r="H207" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="208">
@@ -7630,8 +8289,11 @@
           <t>2310 · American Express Delta</t>
         </is>
       </c>
-      <c r="G208" s="3" t="n">
+      <c r="G208" s="4" t="n">
         <v>538.3</v>
+      </c>
+      <c r="H208" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="209">
@@ -7659,8 +8321,11 @@
           <t>2310 · American Express Delta</t>
         </is>
       </c>
-      <c r="G209" s="3" t="n">
+      <c r="G209" s="4" t="n">
         <v>538.3</v>
+      </c>
+      <c r="H209" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="210">
@@ -7688,8 +8353,11 @@
           <t>2310 · American Express Delta</t>
         </is>
       </c>
-      <c r="G210" s="3" t="n">
+      <c r="G210" s="4" t="n">
         <v>538.3</v>
+      </c>
+      <c r="H210" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="211">
@@ -7717,8 +8385,11 @@
           <t>2310 · American Express Delta</t>
         </is>
       </c>
-      <c r="G211" s="3" t="n">
+      <c r="G211" s="4" t="n">
         <v>954.95</v>
+      </c>
+      <c r="H211" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="212">
@@ -7750,8 +8421,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G212" s="3" t="n">
+      <c r="G212" s="4" t="n">
         <v>76.43000000000001</v>
+      </c>
+      <c r="H212" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="213">
@@ -7783,8 +8457,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G213" s="3" t="n">
+      <c r="G213" s="4" t="n">
         <v>5.92</v>
+      </c>
+      <c r="H213" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="214">
@@ -7816,8 +8493,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G214" s="3" t="n">
+      <c r="G214" s="4" t="n">
         <v>2431</v>
+      </c>
+      <c r="H214" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="215">
@@ -7849,8 +8529,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G215" s="3" t="n">
+      <c r="G215" s="4" t="n">
         <v>400</v>
+      </c>
+      <c r="H215" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="216">
@@ -7882,8 +8565,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G216" s="3" t="n">
+      <c r="G216" s="4" t="n">
         <v>273.23</v>
+      </c>
+      <c r="H216" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="217">
@@ -7915,8 +8601,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G217" s="3" t="n">
+      <c r="G217" s="4" t="n">
         <v>251.22</v>
+      </c>
+      <c r="H217" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="218">
@@ -7948,8 +8637,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G218" s="3" t="n">
+      <c r="G218" s="4" t="n">
         <v>72.93000000000001</v>
+      </c>
+      <c r="H218" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="219">
@@ -7981,8 +8673,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G219" s="3" t="n">
+      <c r="G219" s="4" t="n">
         <v>30.29</v>
+      </c>
+      <c r="H219" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="220">
@@ -8014,8 +8709,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G220" s="3" t="n">
+      <c r="G220" s="4" t="n">
         <v>587.1</v>
+      </c>
+      <c r="H220" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="221">
@@ -8047,8 +8745,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G221" s="3" t="n">
+      <c r="G221" s="4" t="n">
         <v>2101.2</v>
+      </c>
+      <c r="H221" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="222">
@@ -8080,8 +8781,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G222" s="3" t="n">
+      <c r="G222" s="4" t="n">
         <v>157.08</v>
+      </c>
+      <c r="H222" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="223">
@@ -8113,8 +8817,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G223" s="3" t="n">
+      <c r="G223" s="4" t="n">
         <v>157.08</v>
+      </c>
+      <c r="H223" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="224">
@@ -8146,8 +8853,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G224" s="3" t="n">
+      <c r="G224" s="4" t="n">
         <v>134.07</v>
+      </c>
+      <c r="H224" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="225">
@@ -8179,8 +8889,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G225" s="3" t="n">
+      <c r="G225" s="4" t="n">
         <v>72.93000000000001</v>
+      </c>
+      <c r="H225" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="226">
@@ -8212,8 +8925,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G226" s="3" t="n">
+      <c r="G226" s="4" t="n">
         <v>30.29</v>
+      </c>
+      <c r="H226" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="227">
@@ -8245,8 +8961,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G227" s="3" t="n">
+      <c r="G227" s="4" t="n">
         <v>1313.25</v>
+      </c>
+      <c r="H227" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="228">
@@ -8278,8 +8997,11 @@
           <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
-      <c r="G228" s="3" t="n">
+      <c r="G228" s="4" t="n">
         <v>350</v>
+      </c>
+      <c r="H228" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="229">
@@ -8311,8 +9033,11 @@
           <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
-      <c r="G229" s="3" t="n">
+      <c r="G229" s="4" t="n">
         <v>350</v>
+      </c>
+      <c r="H229" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="230">
@@ -8344,8 +9069,11 @@
           <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
-      <c r="G230" s="3" t="n">
+      <c r="G230" s="4" t="n">
         <v>350</v>
+      </c>
+      <c r="H230" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="231">
@@ -8377,8 +9105,11 @@
           <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
-      <c r="G231" s="3" t="n">
+      <c r="G231" s="4" t="n">
         <v>350</v>
+      </c>
+      <c r="H231" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="232">
@@ -8410,8 +9141,11 @@
           <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
-      <c r="G232" s="3" t="n">
+      <c r="G232" s="4" t="n">
         <v>350</v>
+      </c>
+      <c r="H232" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="233">
@@ -8439,8 +9173,11 @@
           <t>2310 · American Express Delta</t>
         </is>
       </c>
-      <c r="G233" s="3" t="n">
+      <c r="G233" s="4" t="n">
         <v>538.3</v>
+      </c>
+      <c r="H233" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="234">
@@ -8468,8 +9205,11 @@
           <t>2310 · American Express Delta</t>
         </is>
       </c>
-      <c r="G234" s="3" t="n">
+      <c r="G234" s="4" t="n">
         <v>845.9</v>
+      </c>
+      <c r="H234" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="235">
@@ -8501,8 +9241,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G235" s="3" t="n">
+      <c r="G235" s="4" t="n">
         <v>157.08</v>
+      </c>
+      <c r="H235" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="236">
@@ -8534,8 +9277,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G236" s="3" t="n">
+      <c r="G236" s="4" t="n">
         <v>134.07</v>
+      </c>
+      <c r="H236" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="237">
@@ -8567,8 +9313,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G237" s="3" t="n">
+      <c r="G237" s="4" t="n">
         <v>72.93000000000001</v>
+      </c>
+      <c r="H237" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="238">
@@ -8600,8 +9349,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G238" s="3" t="n">
+      <c r="G238" s="4" t="n">
         <v>30.29</v>
+      </c>
+      <c r="H238" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="239">
@@ -8633,8 +9385,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G239" s="3" t="n">
+      <c r="G239" s="4" t="n">
         <v>1313.25</v>
+      </c>
+      <c r="H239" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="240">
@@ -8666,8 +9421,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G240" s="3" t="n">
+      <c r="G240" s="4" t="n">
         <v>103.9</v>
+      </c>
+      <c r="H240" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="241">
@@ -8699,8 +9457,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G241" s="3" t="n">
+      <c r="G241" s="4" t="n">
         <v>8.050000000000001</v>
+      </c>
+      <c r="H241" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="242">
@@ -8732,8 +9493,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G242" s="3" t="n">
+      <c r="G242" s="4" t="n">
         <v>1300</v>
+      </c>
+      <c r="H242" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="243">
@@ -8765,8 +9529,11 @@
           <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
-      <c r="G243" s="3" t="n">
+      <c r="G243" s="4" t="n">
         <v>350</v>
+      </c>
+      <c r="H243" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="244">
@@ -8798,8 +9565,11 @@
           <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
-      <c r="G244" s="3" t="n">
+      <c r="G244" s="4" t="n">
         <v>350</v>
+      </c>
+      <c r="H244" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="245">
@@ -8831,8 +9601,11 @@
           <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
-      <c r="G245" s="3" t="n">
+      <c r="G245" s="4" t="n">
         <v>350</v>
+      </c>
+      <c r="H245" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="246">
@@ -8864,8 +9637,11 @@
           <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
-      <c r="G246" s="3" t="n">
+      <c r="G246" s="4" t="n">
         <v>350</v>
+      </c>
+      <c r="H246" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="247">
@@ -8897,8 +9673,11 @@
           <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
-      <c r="G247" s="3" t="n">
+      <c r="G247" s="4" t="n">
         <v>350</v>
+      </c>
+      <c r="H247" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="248">
@@ -8930,8 +9709,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G248" s="3" t="n">
+      <c r="G248" s="4" t="n">
         <v>82.98999999999999</v>
+      </c>
+      <c r="H248" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="249">
@@ -8963,8 +9745,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G249" s="3" t="n">
+      <c r="G249" s="4" t="n">
         <v>1064</v>
+      </c>
+      <c r="H249" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="250">
@@ -8996,8 +9781,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G250" s="3" t="n">
+      <c r="G250" s="4" t="n">
         <v>31.92</v>
+      </c>
+      <c r="H250" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="251">
@@ -9029,8 +9817,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G251" s="3" t="n">
+      <c r="G251" s="4" t="n">
         <v>2375</v>
+      </c>
+      <c r="H251" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="252">
@@ -9062,8 +9853,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G252" s="3" t="n">
+      <c r="G252" s="4" t="n">
         <v>184.06</v>
+      </c>
+      <c r="H252" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="253">
@@ -9095,8 +9889,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G253" s="3" t="n">
+      <c r="G253" s="4" t="n">
         <v>480</v>
+      </c>
+      <c r="H253" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="254">
@@ -9128,8 +9925,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G254" s="3" t="n">
+      <c r="G254" s="4" t="n">
         <v>720</v>
+      </c>
+      <c r="H254" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="255">
@@ -9161,8 +9961,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G255" s="3" t="n">
+      <c r="G255" s="4" t="n">
         <v>2041.88</v>
+      </c>
+      <c r="H255" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="256">
@@ -9194,8 +9997,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G256" s="3" t="n">
+      <c r="G256" s="4" t="n">
         <v>564.41</v>
+      </c>
+      <c r="H256" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="257">
@@ -9227,8 +10033,11 @@
           <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
-      <c r="G257" s="3" t="n">
+      <c r="G257" s="4" t="n">
         <v>150</v>
+      </c>
+      <c r="H257" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="258">
@@ -9260,8 +10069,11 @@
           <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
-      <c r="G258" s="3" t="n">
+      <c r="G258" s="4" t="n">
         <v>350</v>
+      </c>
+      <c r="H258" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="259">
@@ -9293,8 +10105,11 @@
           <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
-      <c r="G259" s="3" t="n">
+      <c r="G259" s="4" t="n">
         <v>350</v>
+      </c>
+      <c r="H259" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="260">
@@ -9326,8 +10141,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G260" s="3" t="n">
+      <c r="G260" s="4" t="n">
         <v>1531.8</v>
+      </c>
+      <c r="H260" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="261">
@@ -9359,8 +10177,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G261" s="3" t="n">
+      <c r="G261" s="4" t="n">
         <v>1426.28</v>
+      </c>
+      <c r="H261" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="262">
@@ -9392,8 +10213,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G262" s="3" t="n">
+      <c r="G262" s="4" t="n">
         <v>635.3099999999999</v>
+      </c>
+      <c r="H262" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="263">
@@ -9425,8 +10249,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G263" s="3" t="n">
+      <c r="G263" s="4" t="n">
         <v>549.9</v>
+      </c>
+      <c r="H263" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="264">
@@ -9458,8 +10285,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G264" s="3" t="n">
+      <c r="G264" s="4" t="n">
         <v>230</v>
+      </c>
+      <c r="H264" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="265">
@@ -9491,8 +10321,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G265" s="3" t="n">
+      <c r="G265" s="4" t="n">
         <v>654.12</v>
+      </c>
+      <c r="H265" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="266">
@@ -9524,8 +10357,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G266" s="3" t="n">
+      <c r="G266" s="4" t="n">
         <v>5286.82</v>
+      </c>
+      <c r="H266" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="267">
@@ -9557,8 +10393,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G267" s="3" t="n">
+      <c r="G267" s="4" t="n">
         <v>1944.72</v>
+      </c>
+      <c r="H267" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="268">
@@ -9590,8 +10429,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G268" s="3" t="n">
+      <c r="G268" s="4" t="n">
         <v>674.24</v>
+      </c>
+      <c r="H268" s="5" t="n">
+        <v>200</v>
       </c>
     </row>
     <row r="269">
@@ -9623,8 +10465,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G269" s="3" t="n">
+      <c r="G269" s="4" t="n">
         <v>53942.5</v>
+      </c>
+      <c r="H269" s="5" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="270">
@@ -9656,8 +10501,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G270" s="3" t="n">
+      <c r="G270" s="4" t="n">
         <v>3150</v>
+      </c>
+      <c r="H270" s="5" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="271">
@@ -9689,8 +10537,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G271" s="3" t="n">
+      <c r="G271" s="4" t="n">
         <v>2399.99</v>
+      </c>
+      <c r="H271" s="5" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="272">
@@ -9722,8 +10573,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G272" s="3" t="n">
+      <c r="G272" s="4" t="n">
         <v>186</v>
+      </c>
+      <c r="H272" s="5" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="273">
@@ -9755,8 +10609,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G273" s="3" t="n">
+      <c r="G273" s="4" t="n">
         <v>2573.41</v>
+      </c>
+      <c r="H273" s="5" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="274">
@@ -9788,8 +10645,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G274" s="3" t="n">
+      <c r="G274" s="4" t="n">
         <v>199.44</v>
+      </c>
+      <c r="H274" s="5" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="275">
@@ -9821,8 +10681,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G275" s="3" t="n">
+      <c r="G275" s="4" t="n">
         <v>293.55</v>
+      </c>
+      <c r="H275" s="5" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="276">
@@ -9854,8 +10717,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G276" s="3" t="n">
+      <c r="G276" s="4" t="n">
         <v>399.6</v>
+      </c>
+      <c r="H276" s="5" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="277">
@@ -9883,8 +10749,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G277" s="3" t="n">
+      <c r="G277" s="4" t="n">
         <v>21.98</v>
+      </c>
+      <c r="H277" s="5" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="278">
@@ -9916,8 +10785,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G278" s="3" t="n">
+      <c r="G278" s="4" t="n">
         <v>4639</v>
+      </c>
+      <c r="H278" s="5" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="279">
@@ -9949,8 +10821,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G279" s="4" t="n">
+      <c r="G279" s="3" t="n">
         <v>0</v>
+      </c>
+      <c r="H279" s="5" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="280">
@@ -9982,8 +10857,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G280" s="3" t="n">
+      <c r="G280" s="4" t="n">
         <v>461.86</v>
+      </c>
+      <c r="H280" s="5" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="281">
@@ -10015,8 +10893,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G281" s="3" t="n">
+      <c r="G281" s="4" t="n">
         <v>217.18</v>
+      </c>
+      <c r="H281" s="5" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="282">
@@ -10048,8 +10929,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G282" s="3" t="n">
+      <c r="G282" s="4" t="n">
         <v>72.93000000000001</v>
+      </c>
+      <c r="H282" s="5" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="283">
@@ -10081,8 +10965,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G283" s="3" t="n">
+      <c r="G283" s="4" t="n">
         <v>30.29</v>
+      </c>
+      <c r="H283" s="5" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="284">
@@ -10114,8 +11001,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G284" s="3" t="n">
+      <c r="G284" s="4" t="n">
         <v>2101.2</v>
+      </c>
+      <c r="H284" s="5" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="285">
@@ -10147,8 +11037,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G285" s="3" t="n">
+      <c r="G285" s="4" t="n">
         <v>157.08</v>
+      </c>
+      <c r="H285" s="5" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="286">
@@ -10180,8 +11073,11 @@
           <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
-      <c r="G286" s="3" t="n">
+      <c r="G286" s="4" t="n">
         <v>350</v>
+      </c>
+      <c r="H286" s="5" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="287">
@@ -10213,8 +11109,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G287" s="3" t="n">
+      <c r="G287" s="4" t="n">
         <v>293.55</v>
+      </c>
+      <c r="H287" s="5" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="288">
@@ -10246,8 +11145,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G288" s="3" t="n">
+      <c r="G288" s="4" t="n">
         <v>217.18</v>
+      </c>
+      <c r="H288" s="5" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="289">
@@ -10279,8 +11181,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G289" s="3" t="n">
+      <c r="G289" s="4" t="n">
         <v>72.93000000000001</v>
+      </c>
+      <c r="H289" s="5" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="290">
@@ -10312,8 +11217,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G290" s="3" t="n">
+      <c r="G290" s="4" t="n">
         <v>30.29</v>
+      </c>
+      <c r="H290" s="5" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="291">
@@ -10345,8 +11253,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G291" s="3" t="n">
+      <c r="G291" s="4" t="n">
         <v>2101.2</v>
+      </c>
+      <c r="H291" s="5" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="292">
@@ -10378,8 +11289,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G292" s="3" t="n">
+      <c r="G292" s="4" t="n">
         <v>157.08</v>
+      </c>
+      <c r="H292" s="5" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="293">
@@ -10411,8 +11325,11 @@
           <t>1100 · Trade Debtors</t>
         </is>
       </c>
-      <c r="G293" s="3" t="n">
+      <c r="G293" s="4" t="n">
         <v>265.28</v>
+      </c>
+      <c r="H293" s="5" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="294">
@@ -10444,8 +11361,11 @@
           <t>1100 · Trade Debtors</t>
         </is>
       </c>
-      <c r="G294" s="3" t="n">
+      <c r="G294" s="4" t="n">
         <v>26.46</v>
+      </c>
+      <c r="H294" s="5" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="295">
@@ -10477,8 +11397,11 @@
           <t>1100 · Trade Debtors</t>
         </is>
       </c>
-      <c r="G295" s="3" t="n">
+      <c r="G295" s="4" t="n">
         <v>2.16</v>
+      </c>
+      <c r="H295" s="5" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="296">
@@ -10510,8 +11433,11 @@
           <t>1100 · Trade Debtors</t>
         </is>
       </c>
-      <c r="G296" s="3" t="n">
+      <c r="G296" s="4" t="n">
         <v>22.94</v>
+      </c>
+      <c r="H296" s="5" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="297">
@@ -10543,8 +11469,11 @@
           <t>1100 · Trade Debtors</t>
         </is>
       </c>
-      <c r="G297" s="3" t="n">
+      <c r="G297" s="4" t="n">
         <v>755.66</v>
+      </c>
+      <c r="H297" s="5" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="298">
@@ -10576,8 +11505,11 @@
           <t>1100 · Trade Debtors</t>
         </is>
       </c>
-      <c r="G298" s="3" t="n">
+      <c r="G298" s="4" t="n">
         <v>33.44</v>
+      </c>
+      <c r="H298" s="5" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="299">
@@ -10609,8 +11541,11 @@
           <t>1100 · Trade Debtors</t>
         </is>
       </c>
-      <c r="G299" s="3" t="n">
+      <c r="G299" s="4" t="n">
         <v>7.86</v>
+      </c>
+      <c r="H299" s="5" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="300">
@@ -10642,8 +11577,11 @@
           <t>1100 · Trade Debtors</t>
         </is>
       </c>
-      <c r="G300" s="3" t="n">
+      <c r="G300" s="4" t="n">
         <v>24.97</v>
+      </c>
+      <c r="H300" s="5" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="301">
@@ -10675,8 +11613,11 @@
           <t>1100 · Trade Debtors</t>
         </is>
       </c>
-      <c r="G301" s="3" t="n">
+      <c r="G301" s="4" t="n">
         <v>21.7</v>
+      </c>
+      <c r="H301" s="5" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="302">
@@ -10708,8 +11649,11 @@
           <t>1100 · Trade Debtors</t>
         </is>
       </c>
-      <c r="G302" s="3" t="n">
+      <c r="G302" s="4" t="n">
         <v>10.85</v>
+      </c>
+      <c r="H302" s="5" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="303">
@@ -10741,8 +11685,11 @@
           <t>1100 · Trade Debtors</t>
         </is>
       </c>
-      <c r="G303" s="3" t="n">
+      <c r="G303" s="4" t="n">
         <v>110.68</v>
+      </c>
+      <c r="H303" s="5" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="304">
@@ -10774,8 +11721,11 @@
           <t>1100 · Trade Debtors</t>
         </is>
       </c>
-      <c r="G304" s="3" t="n">
+      <c r="G304" s="4" t="n">
         <v>157.08</v>
+      </c>
+      <c r="H304" s="5" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="305">
@@ -10807,8 +11757,11 @@
           <t>1100 · Trade Debtors</t>
         </is>
       </c>
-      <c r="G305" s="3" t="n">
+      <c r="G305" s="4" t="n">
         <v>178.82</v>
+      </c>
+      <c r="H305" s="5" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="306">
@@ -10840,8 +11793,11 @@
           <t>1100 · Trade Debtors</t>
         </is>
       </c>
-      <c r="G306" s="3" t="n">
+      <c r="G306" s="4" t="n">
         <v>72.93000000000001</v>
+      </c>
+      <c r="H306" s="5" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="307">
@@ -10873,8 +11829,11 @@
           <t>1100 · Trade Debtors</t>
         </is>
       </c>
-      <c r="G307" s="3" t="n">
+      <c r="G307" s="4" t="n">
         <v>30.29</v>
+      </c>
+      <c r="H307" s="5" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="308">
@@ -10906,8 +11865,11 @@
           <t>1100 · Trade Debtors</t>
         </is>
       </c>
-      <c r="G308" s="3" t="n">
+      <c r="G308" s="4" t="n">
         <v>1838.55</v>
+      </c>
+      <c r="H308" s="5" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="309">
@@ -10939,8 +11901,11 @@
           <t>1100 · Trade Debtors</t>
         </is>
       </c>
-      <c r="G309" s="3" t="n">
+      <c r="G309" s="4" t="n">
         <v>157.08</v>
+      </c>
+      <c r="H309" s="5" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="310">
@@ -10972,8 +11937,11 @@
           <t>1100 · Trade Debtors</t>
         </is>
       </c>
-      <c r="G310" s="3" t="n">
+      <c r="G310" s="4" t="n">
         <v>134.07</v>
+      </c>
+      <c r="H310" s="5" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="311">
@@ -10987,26 +11955,29 @@
       </c>
       <c r="C311" s="3" t="inlineStr">
         <is>
-          <t>Invoice</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D311" s="3" t="inlineStr">
         <is>
-          <t>CIN25-002</t>
+          <t>2918076</t>
         </is>
       </c>
       <c r="E311" s="3" t="inlineStr">
         <is>
-          <t>Supply Water</t>
+          <t>Fluctuating Fuel Recovery</t>
         </is>
       </c>
       <c r="F311" s="3" t="inlineStr">
         <is>
-          <t>1100 · Trade Debtors</t>
-        </is>
-      </c>
-      <c r="G311" s="3" t="n">
-        <v>72.93000000000001</v>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G311" s="4" t="n">
+        <v>217.18</v>
+      </c>
+      <c r="H311" s="5" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="312">
@@ -11020,26 +11991,29 @@
       </c>
       <c r="C312" s="3" t="inlineStr">
         <is>
-          <t>Invoice</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D312" s="3" t="inlineStr">
         <is>
-          <t>CIN25-002</t>
+          <t>2918076</t>
         </is>
       </c>
       <c r="E312" s="3" t="inlineStr">
         <is>
-          <t>Consumable Materials</t>
+          <t>Supply Water</t>
         </is>
       </c>
       <c r="F312" s="3" t="inlineStr">
         <is>
-          <t>1100 · Trade Debtors</t>
-        </is>
-      </c>
-      <c r="G312" s="3" t="n">
-        <v>30.29</v>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G312" s="4" t="n">
+        <v>218.79</v>
+      </c>
+      <c r="H312" s="5" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="313">
@@ -11053,26 +12027,29 @@
       </c>
       <c r="C313" s="3" t="inlineStr">
         <is>
-          <t>Invoice</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D313" s="3" t="inlineStr">
         <is>
-          <t>CIN25-002</t>
+          <t>2918076</t>
         </is>
       </c>
       <c r="E313" s="3" t="inlineStr">
         <is>
-          <t>Badger Hydrovac With Operator</t>
+          <t>Consumable Materials</t>
         </is>
       </c>
       <c r="F313" s="3" t="inlineStr">
         <is>
-          <t>1100 · Trade Debtors</t>
-        </is>
-      </c>
-      <c r="G313" s="3" t="n">
-        <v>1313.25</v>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G313" s="4" t="n">
+        <v>90.87</v>
+      </c>
+      <c r="H313" s="5" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="314">
@@ -11086,26 +12063,29 @@
       </c>
       <c r="C314" s="3" t="inlineStr">
         <is>
-          <t>Invoice</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D314" s="3" t="inlineStr">
         <is>
-          <t>CIN25-002</t>
+          <t>2918076</t>
         </is>
       </c>
       <c r="E314" s="3" t="inlineStr">
         <is>
-          <t>Fluctuating Fuel Recovery</t>
+          <t>Badger Hydrovac With Operator</t>
         </is>
       </c>
       <c r="F314" s="3" t="inlineStr">
         <is>
-          <t>1100 · Trade Debtors</t>
-        </is>
-      </c>
-      <c r="G314" s="3" t="n">
-        <v>251.22</v>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G314" s="4" t="n">
+        <v>6303.6</v>
+      </c>
+      <c r="H314" s="5" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="315">
@@ -11119,26 +12099,29 @@
       </c>
       <c r="C315" s="3" t="inlineStr">
         <is>
-          <t>Invoice</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D315" s="3" t="inlineStr">
         <is>
-          <t>CIN25-002</t>
+          <t>2918076</t>
         </is>
       </c>
       <c r="E315" s="3" t="inlineStr">
         <is>
-          <t>Supply Water</t>
+          <t>Disposition</t>
         </is>
       </c>
       <c r="F315" s="3" t="inlineStr">
         <is>
-          <t>1100 · Trade Debtors</t>
-        </is>
-      </c>
-      <c r="G315" s="3" t="n">
-        <v>72.93000000000001</v>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G315" s="4" t="n">
+        <v>471.24</v>
+      </c>
+      <c r="H315" s="5" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="316">
@@ -11152,26 +12135,29 @@
       </c>
       <c r="C316" s="3" t="inlineStr">
         <is>
-          <t>Invoice</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D316" s="3" t="inlineStr">
         <is>
-          <t>CIN25-002</t>
+          <t>2918076</t>
         </is>
       </c>
       <c r="E316" s="3" t="inlineStr">
         <is>
-          <t>Consumable Materials</t>
+          <t>Badger Hydrovac With Operator - Overtime</t>
         </is>
       </c>
       <c r="F316" s="3" t="inlineStr">
         <is>
-          <t>1100 · Trade Debtors</t>
-        </is>
-      </c>
-      <c r="G316" s="3" t="n">
-        <v>30.29</v>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G316" s="4" t="n">
+        <v>440.33</v>
+      </c>
+      <c r="H316" s="5" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="317">
@@ -11185,26 +12171,29 @@
       </c>
       <c r="C317" s="3" t="inlineStr">
         <is>
-          <t>Invoice</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D317" s="3" t="inlineStr">
         <is>
-          <t>CIN25-002</t>
+          <t>2918076</t>
         </is>
       </c>
       <c r="E317" s="3" t="inlineStr">
         <is>
-          <t>Badger Hydrovac With Operator - Overtime</t>
+          <t>Fluctuating Fuel Recovery</t>
         </is>
       </c>
       <c r="F317" s="3" t="inlineStr">
         <is>
-          <t>1100 · Trade Debtors</t>
-        </is>
-      </c>
-      <c r="G317" s="3" t="n">
-        <v>587.1</v>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G317" s="4" t="n">
+        <v>398.35</v>
+      </c>
+      <c r="H317" s="5" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="318">
@@ -11236,8 +12225,11 @@
           <t>1100 · Trade Debtors</t>
         </is>
       </c>
-      <c r="G318" s="3" t="n">
-        <v>2101.2</v>
+      <c r="G318" s="4" t="n">
+        <v>1313.25</v>
+      </c>
+      <c r="H318" s="5" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="319">
@@ -11261,7 +12253,7 @@
       </c>
       <c r="E319" s="3" t="inlineStr">
         <is>
-          <t>Disposition</t>
+          <t>Fluctuating Fuel Recovery</t>
         </is>
       </c>
       <c r="F319" s="3" t="inlineStr">
@@ -11269,8 +12261,11 @@
           <t>1100 · Trade Debtors</t>
         </is>
       </c>
-      <c r="G319" s="3" t="n">
-        <v>157.08</v>
+      <c r="G319" s="4" t="n">
+        <v>251.22</v>
+      </c>
+      <c r="H319" s="5" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="320">
@@ -11294,7 +12289,7 @@
       </c>
       <c r="E320" s="3" t="inlineStr">
         <is>
-          <t>Disposition</t>
+          <t>Badger Hydrovac With Operator - Overtime</t>
         </is>
       </c>
       <c r="F320" s="3" t="inlineStr">
@@ -11302,8 +12297,11 @@
           <t>1100 · Trade Debtors</t>
         </is>
       </c>
-      <c r="G320" s="3" t="n">
-        <v>157.08</v>
+      <c r="G320" s="4" t="n">
+        <v>587.1</v>
+      </c>
+      <c r="H320" s="5" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="321">
@@ -11327,7 +12325,7 @@
       </c>
       <c r="E321" s="3" t="inlineStr">
         <is>
-          <t>Fluctuating Fuel Recovery</t>
+          <t>Badger Hydrovac With Operator</t>
         </is>
       </c>
       <c r="F321" s="3" t="inlineStr">
@@ -11335,8 +12333,11 @@
           <t>1100 · Trade Debtors</t>
         </is>
       </c>
-      <c r="G321" s="3" t="n">
-        <v>134.07</v>
+      <c r="G321" s="4" t="n">
+        <v>2101.2</v>
+      </c>
+      <c r="H321" s="5" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="322">
@@ -11360,7 +12361,7 @@
       </c>
       <c r="E322" s="3" t="inlineStr">
         <is>
-          <t>Supply Water</t>
+          <t>Badger Hydrovac With Operator</t>
         </is>
       </c>
       <c r="F322" s="3" t="inlineStr">
@@ -11368,83 +12369,92 @@
           <t>1100 · Trade Debtors</t>
         </is>
       </c>
-      <c r="G322" s="3" t="n">
-        <v>72.93000000000001</v>
+      <c r="G322" s="4" t="n">
+        <v>1313.25</v>
+      </c>
+      <c r="H322" s="5" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="B323" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C323" s="3" t="inlineStr">
         <is>
-          <t>Invoice</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D323" s="3" t="inlineStr">
         <is>
-          <t>CIN25-002</t>
+          <t>9627240501</t>
         </is>
       </c>
       <c r="E323" s="3" t="inlineStr">
         <is>
-          <t>Consumable Materials</t>
+          <t xml:space="preserve"> FOIL TAPE,2 1/2 IN X 50 YD,ALUMINUM</t>
         </is>
       </c>
       <c r="F323" s="3" t="inlineStr">
         <is>
-          <t>1100 · Trade Debtors</t>
-        </is>
-      </c>
-      <c r="G323" s="3" t="n">
-        <v>30.29</v>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G323" s="4" t="n">
+        <v>259.9</v>
+      </c>
+      <c r="H323" s="5" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="B324" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C324" s="3" t="inlineStr">
         <is>
-          <t>Invoice</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D324" s="3" t="inlineStr">
         <is>
-          <t>CIN25-002</t>
+          <t>9627240501</t>
         </is>
       </c>
       <c r="E324" s="3" t="inlineStr">
         <is>
-          <t>Badger Hydrovac With Operator</t>
+          <t>TAx</t>
         </is>
       </c>
       <c r="F324" s="3" t="inlineStr">
         <is>
-          <t>1100 · Trade Debtors</t>
-        </is>
-      </c>
-      <c r="G324" s="3" t="n">
-        <v>1313.25</v>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G324" s="4" t="n">
+        <v>20.27</v>
+      </c>
+      <c r="H324" s="5" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="B325" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5115 · Rent - Equipment (direct)</t>
         </is>
       </c>
       <c r="C325" s="3" t="inlineStr">
@@ -11454,12 +12464,12 @@
       </c>
       <c r="D325" s="3" t="inlineStr">
         <is>
-          <t>2918076</t>
+          <t>250645966-002</t>
         </is>
       </c>
       <c r="E325" s="3" t="inlineStr">
         <is>
-          <t>Fluctuating Fuel Recovery</t>
+          <t>SKID STEER TRACK LOADER 1700-1999#</t>
         </is>
       </c>
       <c r="F325" s="3" t="inlineStr">
@@ -11467,17 +12477,20 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G325" s="3" t="n">
-        <v>217.18</v>
+      <c r="G325" s="4" t="n">
+        <v>2431</v>
+      </c>
+      <c r="H325" s="5" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="B326" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5115 · Rent - Equipment (direct)</t>
         </is>
       </c>
       <c r="C326" s="3" t="inlineStr">
@@ -11487,12 +12500,12 @@
       </c>
       <c r="D326" s="3" t="inlineStr">
         <is>
-          <t>2918076</t>
+          <t>250645966-002</t>
         </is>
       </c>
       <c r="E326" s="3" t="inlineStr">
         <is>
-          <t>Supply Water</t>
+          <t>Delivery &amp; Pick Up</t>
         </is>
       </c>
       <c r="F326" s="3" t="inlineStr">
@@ -11501,16 +12514,19 @@
         </is>
       </c>
       <c r="G326" s="3" t="n">
-        <v>218.79</v>
+        <v>0</v>
+      </c>
+      <c r="H326" s="5" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>45900</v>
+        <v>45902</v>
       </c>
       <c r="B327" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5115 · Rent - Equipment (direct)</t>
         </is>
       </c>
       <c r="C327" s="3" t="inlineStr">
@@ -11520,12 +12536,12 @@
       </c>
       <c r="D327" s="3" t="inlineStr">
         <is>
-          <t>2918076</t>
+          <t>250645966-002</t>
         </is>
       </c>
       <c r="E327" s="3" t="inlineStr">
         <is>
-          <t>Consumable Materials</t>
+          <t>Service Charge &amp; tax</t>
         </is>
       </c>
       <c r="F327" s="3" t="inlineStr">
@@ -11533,17 +12549,20 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G327" s="3" t="n">
-        <v>90.87</v>
+      <c r="G327" s="4" t="n">
+        <v>242.03</v>
+      </c>
+      <c r="H327" s="5" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>45900</v>
+        <v>45903</v>
       </c>
       <c r="B328" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5006 · Drilling Expense</t>
         </is>
       </c>
       <c r="C328" s="3" t="inlineStr">
@@ -11553,12 +12572,12 @@
       </c>
       <c r="D328" s="3" t="inlineStr">
         <is>
-          <t>2918076</t>
+          <t>12938</t>
         </is>
       </c>
       <c r="E328" s="3" t="inlineStr">
         <is>
-          <t>Badger Hydrovac With Operator</t>
+          <t>Driling Program Locatedat 4953 Secrion Ave, Cincinnati Ohio</t>
         </is>
       </c>
       <c r="F328" s="3" t="inlineStr">
@@ -11566,17 +12585,20 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G328" s="3" t="n">
-        <v>6303.6</v>
+      <c r="G328" s="4" t="n">
+        <v>253207.5</v>
+      </c>
+      <c r="H328" s="5" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>45900</v>
+        <v>45903</v>
       </c>
       <c r="B329" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C329" s="3" t="inlineStr">
@@ -11586,12 +12608,12 @@
       </c>
       <c r="D329" s="3" t="inlineStr">
         <is>
-          <t>2918076</t>
+          <t>102937</t>
         </is>
       </c>
       <c r="E329" s="3" t="inlineStr">
         <is>
-          <t>Disposition</t>
+          <t>SAND GS 4-050 (0.132 X 0.066) 56/PAL</t>
         </is>
       </c>
       <c r="F329" s="3" t="inlineStr">
@@ -11599,17 +12621,20 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G329" s="3" t="n">
-        <v>471.24</v>
+      <c r="G329" s="4" t="n">
+        <v>1282.4</v>
+      </c>
+      <c r="H329" s="5" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>45900</v>
+        <v>45903</v>
       </c>
       <c r="B330" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C330" s="3" t="inlineStr">
@@ -11619,12 +12644,12 @@
       </c>
       <c r="D330" s="3" t="inlineStr">
         <is>
-          <t>2918076</t>
+          <t>102937</t>
         </is>
       </c>
       <c r="E330" s="3" t="inlineStr">
         <is>
-          <t>Badger Hydrovac With Operator - Overtime</t>
+          <t>tax</t>
         </is>
       </c>
       <c r="F330" s="3" t="inlineStr">
@@ -11632,17 +12657,20 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G330" s="3" t="n">
-        <v>440.33</v>
+      <c r="G330" s="4" t="n">
+        <v>117.58</v>
+      </c>
+      <c r="H330" s="5" t="n">
+        <v>300</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>45900</v>
+        <v>45903</v>
       </c>
       <c r="B331" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C331" s="3" t="inlineStr">
@@ -11652,12 +12680,12 @@
       </c>
       <c r="D331" s="3" t="inlineStr">
         <is>
-          <t>2918076</t>
+          <t>92118089-4</t>
         </is>
       </c>
       <c r="E331" s="3" t="inlineStr">
         <is>
-          <t>Fluctuating Fuel Recovery</t>
+          <t>|GATE VLV LF BRS 2" THD 200 F (7)</t>
         </is>
       </c>
       <c r="F331" s="3" t="inlineStr">
@@ -11665,13 +12693,16 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G331" s="3" t="n">
-        <v>398.35</v>
+      <c r="G331" s="4" t="n">
+        <v>2334.44</v>
+      </c>
+      <c r="H331" s="5" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="B332" s="3" t="inlineStr">
         <is>
@@ -11685,12 +12716,12 @@
       </c>
       <c r="D332" s="3" t="inlineStr">
         <is>
-          <t>9627240501</t>
+          <t>92118089-4</t>
         </is>
       </c>
       <c r="E332" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FOIL TAPE,2 1/2 IN X 50 YD,ALUMINUM</t>
+          <t>Tax</t>
         </is>
       </c>
       <c r="F332" s="3" t="inlineStr">
@@ -11698,17 +12729,20 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G332" s="3" t="n">
-        <v>259.9</v>
+      <c r="G332" s="4" t="n">
+        <v>128.39</v>
+      </c>
+      <c r="H332" s="5" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>45902</v>
+        <v>45903</v>
       </c>
       <c r="B333" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5121 · Freight &amp; Shipping (Direct)</t>
         </is>
       </c>
       <c r="C333" s="3" t="inlineStr">
@@ -11718,12 +12752,12 @@
       </c>
       <c r="D333" s="3" t="inlineStr">
         <is>
-          <t>9627240501</t>
+          <t>102937</t>
         </is>
       </c>
       <c r="E333" s="3" t="inlineStr">
         <is>
-          <t>TAx</t>
+          <t>Shpping</t>
         </is>
       </c>
       <c r="F333" s="3" t="inlineStr">
@@ -11731,50 +12765,56 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G333" s="3" t="n">
-        <v>20.27</v>
+      <c r="G333" s="4" t="n">
+        <v>225</v>
+      </c>
+      <c r="H333" s="5" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>45902</v>
+        <v>45905</v>
       </c>
       <c r="B334" s="3" t="inlineStr">
         <is>
-          <t>5115 · Rent - Equipment (direct)</t>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
         </is>
       </c>
       <c r="C334" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>General Journal</t>
         </is>
       </c>
       <c r="D334" s="3" t="inlineStr">
         <is>
-          <t>250645966-002</t>
+          <t>16762</t>
         </is>
       </c>
       <c r="E334" s="3" t="inlineStr">
         <is>
-          <t>SKID STEER TRACK LOADER 1700-1999#</t>
+          <t>Robert Winchell Per diem for week of 9/8/2025 - 9/14/2025</t>
         </is>
       </c>
       <c r="F334" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
-        </is>
-      </c>
-      <c r="G334" s="3" t="n">
-        <v>2431</v>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G334" s="4" t="n">
+        <v>350</v>
+      </c>
+      <c r="H334" s="5" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>45902</v>
+        <v>45905</v>
       </c>
       <c r="B335" s="3" t="inlineStr">
         <is>
-          <t>5115 · Rent - Equipment (direct)</t>
+          <t>5120 · Outside services (Direct)</t>
         </is>
       </c>
       <c r="C335" s="3" t="inlineStr">
@@ -11784,12 +12824,12 @@
       </c>
       <c r="D335" s="3" t="inlineStr">
         <is>
-          <t>250645966-002</t>
+          <t>2920316</t>
         </is>
       </c>
       <c r="E335" s="3" t="inlineStr">
         <is>
-          <t>Delivery &amp; Pick Up</t>
+          <t>Fluctuating Fuel Recovery</t>
         </is>
       </c>
       <c r="F335" s="3" t="inlineStr">
@@ -11798,16 +12838,19 @@
         </is>
       </c>
       <c r="G335" s="4" t="n">
-        <v>0</v>
+        <v>193.17</v>
+      </c>
+      <c r="H335" s="5" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>45902</v>
+        <v>45905</v>
       </c>
       <c r="B336" s="3" t="inlineStr">
         <is>
-          <t>5115 · Rent - Equipment (direct)</t>
+          <t>5120 · Outside services (Direct)</t>
         </is>
       </c>
       <c r="C336" s="3" t="inlineStr">
@@ -11817,12 +12860,12 @@
       </c>
       <c r="D336" s="3" t="inlineStr">
         <is>
-          <t>250645966-002</t>
+          <t>2920316</t>
         </is>
       </c>
       <c r="E336" s="3" t="inlineStr">
         <is>
-          <t>Service Charge &amp; tax</t>
+          <t>Supply Water</t>
         </is>
       </c>
       <c r="F336" s="3" t="inlineStr">
@@ -11830,17 +12873,20 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G336" s="3" t="n">
-        <v>242.03</v>
+      <c r="G336" s="4" t="n">
+        <v>72.93000000000001</v>
+      </c>
+      <c r="H336" s="5" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="B337" s="3" t="inlineStr">
         <is>
-          <t>5006 · Drilling Expense</t>
+          <t>5120 · Outside services (Direct)</t>
         </is>
       </c>
       <c r="C337" s="3" t="inlineStr">
@@ -11850,12 +12896,12 @@
       </c>
       <c r="D337" s="3" t="inlineStr">
         <is>
-          <t>12938</t>
+          <t>2920316</t>
         </is>
       </c>
       <c r="E337" s="3" t="inlineStr">
         <is>
-          <t>Driling Program Locatedat 4953 Secrion Ave, Cincinnati Ohio</t>
+          <t>Consumable Materials</t>
         </is>
       </c>
       <c r="F337" s="3" t="inlineStr">
@@ -11863,17 +12909,20 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G337" s="3" t="n">
-        <v>253207.5</v>
+      <c r="G337" s="4" t="n">
+        <v>30.29</v>
+      </c>
+      <c r="H337" s="5" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="B338" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5120 · Outside services (Direct)</t>
         </is>
       </c>
       <c r="C338" s="3" t="inlineStr">
@@ -11883,12 +12932,12 @@
       </c>
       <c r="D338" s="3" t="inlineStr">
         <is>
-          <t>102937</t>
+          <t>2920316</t>
         </is>
       </c>
       <c r="E338" s="3" t="inlineStr">
         <is>
-          <t>SAND GS 4-050 (0.132 X 0.066) 56/PAL</t>
+          <t>Badger Hydrovac With Operator</t>
         </is>
       </c>
       <c r="F338" s="3" t="inlineStr">
@@ -11896,17 +12945,20 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G338" s="3" t="n">
-        <v>1282.4</v>
+      <c r="G338" s="4" t="n">
+        <v>2101.2</v>
+      </c>
+      <c r="H338" s="5" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>45903</v>
+        <v>45905</v>
       </c>
       <c r="B339" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5120 · Outside services (Direct)</t>
         </is>
       </c>
       <c r="C339" s="3" t="inlineStr">
@@ -11916,12 +12968,12 @@
       </c>
       <c r="D339" s="3" t="inlineStr">
         <is>
-          <t>102937</t>
+          <t>2920316</t>
         </is>
       </c>
       <c r="E339" s="3" t="inlineStr">
         <is>
-          <t>tax</t>
+          <t>Disposition</t>
         </is>
       </c>
       <c r="F339" s="3" t="inlineStr">
@@ -11929,17 +12981,20 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G339" s="3" t="n">
-        <v>117.58</v>
+      <c r="G339" s="4" t="n">
+        <v>157.08</v>
+      </c>
+      <c r="H339" s="5" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>45903</v>
+        <v>45908</v>
       </c>
       <c r="B340" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5120 · Outside services (Direct)</t>
         </is>
       </c>
       <c r="C340" s="3" t="inlineStr">
@@ -11949,12 +13004,12 @@
       </c>
       <c r="D340" s="3" t="inlineStr">
         <is>
-          <t>92118089-4</t>
+          <t>2921566</t>
         </is>
       </c>
       <c r="E340" s="3" t="inlineStr">
         <is>
-          <t>|GATE VLV LF BRS 2" THD 200 F (7)</t>
+          <t>Fluctuating Fuel Recovery</t>
         </is>
       </c>
       <c r="F340" s="3" t="inlineStr">
@@ -11962,17 +13017,20 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G340" s="3" t="n">
-        <v>2334.44</v>
+      <c r="G340" s="4" t="n">
+        <v>205.18</v>
+      </c>
+      <c r="H340" s="5" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>45903</v>
+        <v>45908</v>
       </c>
       <c r="B341" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5120 · Outside services (Direct)</t>
         </is>
       </c>
       <c r="C341" s="3" t="inlineStr">
@@ -11982,12 +13040,12 @@
       </c>
       <c r="D341" s="3" t="inlineStr">
         <is>
-          <t>92118089-4</t>
+          <t>2921566</t>
         </is>
       </c>
       <c r="E341" s="3" t="inlineStr">
         <is>
-          <t>Tax</t>
+          <t>Supply Water</t>
         </is>
       </c>
       <c r="F341" s="3" t="inlineStr">
@@ -11995,17 +13053,20 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G341" s="3" t="n">
-        <v>128.39</v>
+      <c r="G341" s="4" t="n">
+        <v>72.93000000000001</v>
+      </c>
+      <c r="H341" s="5" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>45903</v>
+        <v>45908</v>
       </c>
       <c r="B342" s="3" t="inlineStr">
         <is>
-          <t>5121 · Freight &amp; Shipping (Direct)</t>
+          <t>5120 · Outside services (Direct)</t>
         </is>
       </c>
       <c r="C342" s="3" t="inlineStr">
@@ -12015,12 +13076,12 @@
       </c>
       <c r="D342" s="3" t="inlineStr">
         <is>
-          <t>102937</t>
+          <t>2921566</t>
         </is>
       </c>
       <c r="E342" s="3" t="inlineStr">
         <is>
-          <t>Shpping</t>
+          <t>Consumable Materials</t>
         </is>
       </c>
       <c r="F342" s="3" t="inlineStr">
@@ -12028,46 +13089,52 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G342" s="3" t="n">
-        <v>225</v>
+      <c r="G342" s="4" t="n">
+        <v>30.29</v>
+      </c>
+      <c r="H342" s="5" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>45905</v>
+        <v>45908</v>
       </c>
       <c r="B343" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5120 · Outside services (Direct)</t>
         </is>
       </c>
       <c r="C343" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D343" s="3" t="inlineStr">
         <is>
-          <t>16762</t>
+          <t>2921566</t>
         </is>
       </c>
       <c r="E343" s="3" t="inlineStr">
         <is>
-          <t>Robert Winchell Per diem for week of 9/8/2025 - 9/14/2025</t>
+          <t>Badger Hydrovac With Operator</t>
         </is>
       </c>
       <c r="F343" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
-        </is>
-      </c>
-      <c r="G343" s="3" t="n">
-        <v>350</v>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G343" s="4" t="n">
+        <v>2101.2</v>
+      </c>
+      <c r="H343" s="5" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>45905</v>
+        <v>45908</v>
       </c>
       <c r="B344" s="3" t="inlineStr">
         <is>
@@ -12081,12 +13148,12 @@
       </c>
       <c r="D344" s="3" t="inlineStr">
         <is>
-          <t>2920316</t>
+          <t>2921566</t>
         </is>
       </c>
       <c r="E344" s="3" t="inlineStr">
         <is>
-          <t>Fluctuating Fuel Recovery</t>
+          <t>Disposition</t>
         </is>
       </c>
       <c r="F344" s="3" t="inlineStr">
@@ -12094,13 +13161,16 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G344" s="3" t="n">
-        <v>193.17</v>
+      <c r="G344" s="4" t="n">
+        <v>157.08</v>
+      </c>
+      <c r="H344" s="5" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>45905</v>
+        <v>45908</v>
       </c>
       <c r="B345" s="3" t="inlineStr">
         <is>
@@ -12114,12 +13184,12 @@
       </c>
       <c r="D345" s="3" t="inlineStr">
         <is>
-          <t>2920316</t>
+          <t>2921566</t>
         </is>
       </c>
       <c r="E345" s="3" t="inlineStr">
         <is>
-          <t>Supply Water</t>
+          <t>Badger Hydrovac With Operator</t>
         </is>
       </c>
       <c r="F345" s="3" t="inlineStr">
@@ -12127,13 +13197,16 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G345" s="3" t="n">
-        <v>72.93000000000001</v>
+      <c r="G345" s="4" t="n">
+        <v>146.78</v>
+      </c>
+      <c r="H345" s="5" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>45905</v>
+        <v>45909</v>
       </c>
       <c r="B346" s="3" t="inlineStr">
         <is>
@@ -12147,12 +13220,12 @@
       </c>
       <c r="D346" s="3" t="inlineStr">
         <is>
-          <t>2920316</t>
+          <t>2922336</t>
         </is>
       </c>
       <c r="E346" s="3" t="inlineStr">
         <is>
-          <t>Consumable Materials</t>
+          <t>Disposition</t>
         </is>
       </c>
       <c r="F346" s="3" t="inlineStr">
@@ -12160,13 +13233,16 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G346" s="3" t="n">
-        <v>30.29</v>
+      <c r="G346" s="4" t="n">
+        <v>157.08</v>
+      </c>
+      <c r="H346" s="5" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>45905</v>
+        <v>45909</v>
       </c>
       <c r="B347" s="3" t="inlineStr">
         <is>
@@ -12180,12 +13256,12 @@
       </c>
       <c r="D347" s="3" t="inlineStr">
         <is>
-          <t>2920316</t>
+          <t>2922336</t>
         </is>
       </c>
       <c r="E347" s="3" t="inlineStr">
         <is>
-          <t>Badger Hydrovac With Operator</t>
+          <t>Fluctuating Fuel Recovery</t>
         </is>
       </c>
       <c r="F347" s="3" t="inlineStr">
@@ -12193,13 +13269,16 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G347" s="3" t="n">
-        <v>2101.2</v>
+      <c r="G347" s="4" t="n">
+        <v>160.94</v>
+      </c>
+      <c r="H347" s="5" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>45905</v>
+        <v>45909</v>
       </c>
       <c r="B348" s="3" t="inlineStr">
         <is>
@@ -12213,12 +13292,12 @@
       </c>
       <c r="D348" s="3" t="inlineStr">
         <is>
-          <t>2920316</t>
+          <t>2922336</t>
         </is>
       </c>
       <c r="E348" s="3" t="inlineStr">
         <is>
-          <t>Disposition</t>
+          <t>Supply Water</t>
         </is>
       </c>
       <c r="F348" s="3" t="inlineStr">
@@ -12226,13 +13305,16 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G348" s="3" t="n">
-        <v>157.08</v>
+      <c r="G348" s="4" t="n">
+        <v>72.93000000000001</v>
+      </c>
+      <c r="H348" s="5" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="B349" s="3" t="inlineStr">
         <is>
@@ -12246,12 +13328,12 @@
       </c>
       <c r="D349" s="3" t="inlineStr">
         <is>
-          <t>2921566</t>
+          <t>2922336</t>
         </is>
       </c>
       <c r="E349" s="3" t="inlineStr">
         <is>
-          <t>Fluctuating Fuel Recovery</t>
+          <t>Consumable Materials</t>
         </is>
       </c>
       <c r="F349" s="3" t="inlineStr">
@@ -12259,13 +13341,16 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G349" s="3" t="n">
-        <v>205.18</v>
+      <c r="G349" s="4" t="n">
+        <v>30.29</v>
+      </c>
+      <c r="H349" s="5" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>45908</v>
+        <v>45909</v>
       </c>
       <c r="B350" s="3" t="inlineStr">
         <is>
@@ -12279,12 +13364,12 @@
       </c>
       <c r="D350" s="3" t="inlineStr">
         <is>
-          <t>2921566</t>
+          <t>2922336</t>
         </is>
       </c>
       <c r="E350" s="3" t="inlineStr">
         <is>
-          <t>Supply Water</t>
+          <t>Badger Hydrovac With Operator</t>
         </is>
       </c>
       <c r="F350" s="3" t="inlineStr">
@@ -12292,17 +13377,20 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G350" s="3" t="n">
-        <v>72.93000000000001</v>
+      <c r="G350" s="4" t="n">
+        <v>1707.23</v>
+      </c>
+      <c r="H350" s="5" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>45908</v>
+        <v>45910</v>
       </c>
       <c r="B351" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C351" s="3" t="inlineStr">
@@ -12312,12 +13400,12 @@
       </c>
       <c r="D351" s="3" t="inlineStr">
         <is>
-          <t>2921566</t>
+          <t>18339594</t>
         </is>
       </c>
       <c r="E351" s="3" t="inlineStr">
         <is>
-          <t>Consumable Materials</t>
+          <t>Tax</t>
         </is>
       </c>
       <c r="F351" s="3" t="inlineStr">
@@ -12325,17 +13413,20 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G351" s="3" t="n">
-        <v>30.29</v>
+      <c r="G351" s="4" t="n">
+        <v>53.6</v>
+      </c>
+      <c r="H351" s="5" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>45908</v>
+        <v>45911</v>
       </c>
       <c r="B352" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C352" s="3" t="inlineStr">
@@ -12345,12 +13436,12 @@
       </c>
       <c r="D352" s="3" t="inlineStr">
         <is>
-          <t>2921566</t>
+          <t>1295793-0002</t>
         </is>
       </c>
       <c r="E352" s="3" t="inlineStr">
         <is>
-          <t>Badger Hydrovac With Operator</t>
+          <t>Tax</t>
         </is>
       </c>
       <c r="F352" s="3" t="inlineStr">
@@ -12358,17 +13449,20 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G352" s="3" t="n">
-        <v>2101.2</v>
+      <c r="G352" s="4" t="n">
+        <v>82.98999999999999</v>
+      </c>
+      <c r="H352" s="5" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>45908</v>
+        <v>45911</v>
       </c>
       <c r="B353" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5115 · Rent - Equipment (direct)</t>
         </is>
       </c>
       <c r="C353" s="3" t="inlineStr">
@@ -12378,12 +13472,12 @@
       </c>
       <c r="D353" s="3" t="inlineStr">
         <is>
-          <t>2921566</t>
+          <t>1295793-0002</t>
         </is>
       </c>
       <c r="E353" s="3" t="inlineStr">
         <is>
-          <t>Disposition</t>
+          <t>TANK-FRAC-WEIR-450BBL-V</t>
         </is>
       </c>
       <c r="F353" s="3" t="inlineStr">
@@ -12391,17 +13485,20 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G353" s="3" t="n">
-        <v>157.08</v>
+      <c r="G353" s="4" t="n">
+        <v>1064</v>
+      </c>
+      <c r="H353" s="5" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>45908</v>
+        <v>45911</v>
       </c>
       <c r="B354" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5121 · Freight &amp; Shipping (Direct)</t>
         </is>
       </c>
       <c r="C354" s="3" t="inlineStr">
@@ -12411,12 +13508,12 @@
       </c>
       <c r="D354" s="3" t="inlineStr">
         <is>
-          <t>2921566</t>
+          <t>1295793-0002</t>
         </is>
       </c>
       <c r="E354" s="3" t="inlineStr">
         <is>
-          <t>Badger Hydrovac With Operator</t>
+          <t>ENVIRONMENTAL RECOVERY FEE</t>
         </is>
       </c>
       <c r="F354" s="3" t="inlineStr">
@@ -12424,149 +13521,164 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G354" s="3" t="n">
-        <v>146.78</v>
+      <c r="G354" s="4" t="n">
+        <v>31.92</v>
+      </c>
+      <c r="H354" s="5" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>45909</v>
+        <v>45915</v>
       </c>
       <c r="B355" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
         </is>
       </c>
       <c r="C355" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>General Journal</t>
         </is>
       </c>
       <c r="D355" s="3" t="inlineStr">
         <is>
-          <t>2922336</t>
+          <t>16767</t>
         </is>
       </c>
       <c r="E355" s="3" t="inlineStr">
         <is>
-          <t>Disposition</t>
+          <t>Andy Remillard Per diem for week of 9/15/2025 - 9/21/2025</t>
         </is>
       </c>
       <c r="F355" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
-        </is>
-      </c>
-      <c r="G355" s="3" t="n">
-        <v>157.08</v>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G355" s="4" t="n">
+        <v>300</v>
+      </c>
+      <c r="H355" s="5" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>45909</v>
+        <v>45915</v>
       </c>
       <c r="B356" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
         </is>
       </c>
       <c r="C356" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>General Journal</t>
         </is>
       </c>
       <c r="D356" s="3" t="inlineStr">
         <is>
-          <t>2922336</t>
+          <t>16767</t>
         </is>
       </c>
       <c r="E356" s="3" t="inlineStr">
         <is>
-          <t>Fluctuating Fuel Recovery</t>
+          <t>Jack Rothe Per diem for week of 9/15/2025 - 9/21/2025</t>
         </is>
       </c>
       <c r="F356" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
-        </is>
-      </c>
-      <c r="G356" s="3" t="n">
-        <v>160.94</v>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G356" s="4" t="n">
+        <v>700</v>
+      </c>
+      <c r="H356" s="5" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>45909</v>
+        <v>45915</v>
       </c>
       <c r="B357" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
         </is>
       </c>
       <c r="C357" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>General Journal</t>
         </is>
       </c>
       <c r="D357" s="3" t="inlineStr">
         <is>
-          <t>2922336</t>
+          <t>16767</t>
         </is>
       </c>
       <c r="E357" s="3" t="inlineStr">
         <is>
-          <t>Supply Water</t>
+          <t>Mike Cogswell Per diem for week of 9/15/2025 - 9/21/2025</t>
         </is>
       </c>
       <c r="F357" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
-        </is>
-      </c>
-      <c r="G357" s="3" t="n">
-        <v>72.93000000000001</v>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G357" s="4" t="n">
+        <v>150</v>
+      </c>
+      <c r="H357" s="5" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>45909</v>
+        <v>45915</v>
       </c>
       <c r="B358" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
         </is>
       </c>
       <c r="C358" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>General Journal</t>
         </is>
       </c>
       <c r="D358" s="3" t="inlineStr">
         <is>
-          <t>2922336</t>
+          <t>16767</t>
         </is>
       </c>
       <c r="E358" s="3" t="inlineStr">
         <is>
-          <t>Consumable Materials</t>
+          <t>Robert Winchell Per diem for week of 9/15/2025 - 9/21/2025</t>
         </is>
       </c>
       <c r="F358" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
-        </is>
-      </c>
-      <c r="G358" s="3" t="n">
-        <v>30.29</v>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G358" s="4" t="n">
+        <v>300</v>
+      </c>
+      <c r="H358" s="5" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>45909</v>
+        <v>45915</v>
       </c>
       <c r="B359" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C359" s="3" t="inlineStr">
@@ -12576,12 +13688,12 @@
       </c>
       <c r="D359" s="3" t="inlineStr">
         <is>
-          <t>2922336</t>
+          <t>2925191</t>
         </is>
       </c>
       <c r="E359" s="3" t="inlineStr">
         <is>
-          <t>Badger Hydrovac With Operator</t>
+          <t>Badger Hydrovac With Operator - Overtime</t>
         </is>
       </c>
       <c r="F359" s="3" t="inlineStr">
@@ -12589,17 +13701,20 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G359" s="3" t="n">
-        <v>1707.23</v>
+      <c r="G359" s="4" t="n">
+        <v>293.55</v>
+      </c>
+      <c r="H359" s="5" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>45910</v>
+        <v>45915</v>
       </c>
       <c r="B360" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5120 · Outside services (Direct)</t>
         </is>
       </c>
       <c r="C360" s="3" t="inlineStr">
@@ -12609,12 +13724,12 @@
       </c>
       <c r="D360" s="3" t="inlineStr">
         <is>
-          <t>18339594</t>
+          <t>2925191</t>
         </is>
       </c>
       <c r="E360" s="3" t="inlineStr">
         <is>
-          <t>Tax</t>
+          <t>Fluctuating Fuel Recovery</t>
         </is>
       </c>
       <c r="F360" s="3" t="inlineStr">
@@ -12622,17 +13737,20 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G360" s="3" t="n">
-        <v>53.6</v>
+      <c r="G360" s="4" t="n">
+        <v>217.18</v>
+      </c>
+      <c r="H360" s="5" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>45911</v>
+        <v>45915</v>
       </c>
       <c r="B361" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5120 · Outside services (Direct)</t>
         </is>
       </c>
       <c r="C361" s="3" t="inlineStr">
@@ -12642,12 +13760,12 @@
       </c>
       <c r="D361" s="3" t="inlineStr">
         <is>
-          <t>1295793-0002</t>
+          <t>2925191</t>
         </is>
       </c>
       <c r="E361" s="3" t="inlineStr">
         <is>
-          <t>Tax</t>
+          <t>Supply Water</t>
         </is>
       </c>
       <c r="F361" s="3" t="inlineStr">
@@ -12655,17 +13773,20 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G361" s="3" t="n">
-        <v>82.98999999999999</v>
+      <c r="G361" s="4" t="n">
+        <v>72.93000000000001</v>
+      </c>
+      <c r="H361" s="5" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>45911</v>
+        <v>45915</v>
       </c>
       <c r="B362" s="3" t="inlineStr">
         <is>
-          <t>5115 · Rent - Equipment (direct)</t>
+          <t>5120 · Outside services (Direct)</t>
         </is>
       </c>
       <c r="C362" s="3" t="inlineStr">
@@ -12675,12 +13796,12 @@
       </c>
       <c r="D362" s="3" t="inlineStr">
         <is>
-          <t>1295793-0002</t>
+          <t>2925191</t>
         </is>
       </c>
       <c r="E362" s="3" t="inlineStr">
         <is>
-          <t>TANK-FRAC-WEIR-450BBL-V</t>
+          <t>Consumable Materials</t>
         </is>
       </c>
       <c r="F362" s="3" t="inlineStr">
@@ -12688,17 +13809,20 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G362" s="3" t="n">
-        <v>1064</v>
+      <c r="G362" s="4" t="n">
+        <v>30.29</v>
+      </c>
+      <c r="H362" s="5" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>45911</v>
+        <v>45915</v>
       </c>
       <c r="B363" s="3" t="inlineStr">
         <is>
-          <t>5121 · Freight &amp; Shipping (Direct)</t>
+          <t>5120 · Outside services (Direct)</t>
         </is>
       </c>
       <c r="C363" s="3" t="inlineStr">
@@ -12708,12 +13832,12 @@
       </c>
       <c r="D363" s="3" t="inlineStr">
         <is>
-          <t>1295793-0002</t>
+          <t>2925191</t>
         </is>
       </c>
       <c r="E363" s="3" t="inlineStr">
         <is>
-          <t>ENVIRONMENTAL RECOVERY FEE</t>
+          <t>Badger Hydrovac With Operator</t>
         </is>
       </c>
       <c r="F363" s="3" t="inlineStr">
@@ -12721,8 +13845,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G363" s="3" t="n">
-        <v>31.92</v>
+      <c r="G363" s="4" t="n">
+        <v>2101.2</v>
+      </c>
+      <c r="H363" s="5" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="364">
@@ -12731,31 +13858,34 @@
       </c>
       <c r="B364" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5120 · Outside services (Direct)</t>
         </is>
       </c>
       <c r="C364" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D364" s="3" t="inlineStr">
         <is>
-          <t>16767</t>
+          <t>2925191</t>
         </is>
       </c>
       <c r="E364" s="3" t="inlineStr">
         <is>
-          <t>Andy Remillard Per diem for week of 9/15/2025 - 9/21/2025</t>
+          <t>Disposition</t>
         </is>
       </c>
       <c r="F364" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
-        </is>
-      </c>
-      <c r="G364" s="3" t="n">
-        <v>300</v>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G364" s="4" t="n">
+        <v>157.08</v>
+      </c>
+      <c r="H364" s="5" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="365">
@@ -12764,31 +13894,34 @@
       </c>
       <c r="B365" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5120 · Outside services (Direct)</t>
         </is>
       </c>
       <c r="C365" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D365" s="3" t="inlineStr">
         <is>
-          <t>16767</t>
+          <t>2926158</t>
         </is>
       </c>
       <c r="E365" s="3" t="inlineStr">
         <is>
-          <t>Jack Rothe Per diem for week of 9/15/2025 - 9/21/2025</t>
+          <t>Fluctuating Fuel Recovery</t>
         </is>
       </c>
       <c r="F365" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
-        </is>
-      </c>
-      <c r="G365" s="3" t="n">
-        <v>700</v>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G365" s="4" t="n">
+        <v>201.2</v>
+      </c>
+      <c r="H365" s="5" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="366">
@@ -12797,31 +13930,34 @@
       </c>
       <c r="B366" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5120 · Outside services (Direct)</t>
         </is>
       </c>
       <c r="C366" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D366" s="3" t="inlineStr">
         <is>
-          <t>16767</t>
+          <t>2926158</t>
         </is>
       </c>
       <c r="E366" s="3" t="inlineStr">
         <is>
-          <t>Mike Cogswell Per diem for week of 9/15/2025 - 9/21/2025</t>
+          <t>Supply Water</t>
         </is>
       </c>
       <c r="F366" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
-        </is>
-      </c>
-      <c r="G366" s="3" t="n">
-        <v>150</v>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G366" s="4" t="n">
+        <v>72.93000000000001</v>
+      </c>
+      <c r="H366" s="5" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="367">
@@ -12830,31 +13966,34 @@
       </c>
       <c r="B367" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5120 · Outside services (Direct)</t>
         </is>
       </c>
       <c r="C367" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D367" s="3" t="inlineStr">
         <is>
-          <t>16767</t>
+          <t>2926158</t>
         </is>
       </c>
       <c r="E367" s="3" t="inlineStr">
         <is>
-          <t>Robert Winchell Per diem for week of 9/15/2025 - 9/21/2025</t>
+          <t>Consumable Materials</t>
         </is>
       </c>
       <c r="F367" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
-        </is>
-      </c>
-      <c r="G367" s="3" t="n">
-        <v>300</v>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G367" s="4" t="n">
+        <v>30.29</v>
+      </c>
+      <c r="H367" s="5" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="368">
@@ -12863,7 +14002,7 @@
       </c>
       <c r="B368" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5120 · Outside services (Direct)</t>
         </is>
       </c>
       <c r="C368" s="3" t="inlineStr">
@@ -12873,12 +14012,12 @@
       </c>
       <c r="D368" s="3" t="inlineStr">
         <is>
-          <t>2925191</t>
+          <t>2926158</t>
         </is>
       </c>
       <c r="E368" s="3" t="inlineStr">
         <is>
-          <t>Badger Hydrovac With Operator - Overtime</t>
+          <t>Badger Hydrovac With Operator</t>
         </is>
       </c>
       <c r="F368" s="3" t="inlineStr">
@@ -12886,8 +14025,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G368" s="3" t="n">
-        <v>293.55</v>
+      <c r="G368" s="4" t="n">
+        <v>2101.2</v>
+      </c>
+      <c r="H368" s="5" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="369">
@@ -12906,12 +14048,12 @@
       </c>
       <c r="D369" s="3" t="inlineStr">
         <is>
-          <t>2925191</t>
+          <t>2926158</t>
         </is>
       </c>
       <c r="E369" s="3" t="inlineStr">
         <is>
-          <t>Fluctuating Fuel Recovery</t>
+          <t>Disposition</t>
         </is>
       </c>
       <c r="F369" s="3" t="inlineStr">
@@ -12919,248 +14061,272 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G369" s="3" t="n">
-        <v>217.18</v>
+      <c r="G369" s="4" t="n">
+        <v>157.08</v>
+      </c>
+      <c r="H369" s="5" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>45915</v>
+        <v>45922</v>
       </c>
       <c r="B370" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
         </is>
       </c>
       <c r="C370" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>General Journal</t>
         </is>
       </c>
       <c r="D370" s="3" t="inlineStr">
         <is>
-          <t>2925191</t>
+          <t>16768</t>
         </is>
       </c>
       <c r="E370" s="3" t="inlineStr">
         <is>
-          <t>Supply Water</t>
+          <t>Andy Remillard Per diem for week of 9/22/2025 - 9/28/2025</t>
         </is>
       </c>
       <c r="F370" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
-        </is>
-      </c>
-      <c r="G370" s="3" t="n">
-        <v>72.93000000000001</v>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G370" s="4" t="n">
+        <v>350</v>
+      </c>
+      <c r="H370" s="5" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>45915</v>
+        <v>45922</v>
       </c>
       <c r="B371" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
         </is>
       </c>
       <c r="C371" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>General Journal</t>
         </is>
       </c>
       <c r="D371" s="3" t="inlineStr">
         <is>
-          <t>2925191</t>
+          <t>16768</t>
         </is>
       </c>
       <c r="E371" s="3" t="inlineStr">
         <is>
-          <t>Consumable Materials</t>
+          <t>Luke Giguere Per diem for week of 9/22/2025 - 9/28/2025</t>
         </is>
       </c>
       <c r="F371" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
-        </is>
-      </c>
-      <c r="G371" s="3" t="n">
-        <v>30.29</v>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G371" s="4" t="n">
+        <v>650</v>
+      </c>
+      <c r="H371" s="5" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>45915</v>
+        <v>45922</v>
       </c>
       <c r="B372" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
         </is>
       </c>
       <c r="C372" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>General Journal</t>
         </is>
       </c>
       <c r="D372" s="3" t="inlineStr">
         <is>
-          <t>2925191</t>
+          <t>16768</t>
         </is>
       </c>
       <c r="E372" s="3" t="inlineStr">
         <is>
-          <t>Badger Hydrovac With Operator</t>
+          <t>Michael Hyatt Per diem for week of 9/22/2025 - 9/28/2025</t>
         </is>
       </c>
       <c r="F372" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
-        </is>
-      </c>
-      <c r="G372" s="3" t="n">
-        <v>2101.2</v>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G372" s="4" t="n">
+        <v>300</v>
+      </c>
+      <c r="H372" s="5" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>45915</v>
+        <v>45922</v>
       </c>
       <c r="B373" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
         </is>
       </c>
       <c r="C373" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>General Journal</t>
         </is>
       </c>
       <c r="D373" s="3" t="inlineStr">
         <is>
-          <t>2925191</t>
+          <t>16768</t>
         </is>
       </c>
       <c r="E373" s="3" t="inlineStr">
         <is>
-          <t>Disposition</t>
+          <t>Mike Cogswell Per diem for week of 9/22/2025 - 9/28/2025</t>
         </is>
       </c>
       <c r="F373" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
-        </is>
-      </c>
-      <c r="G373" s="3" t="n">
-        <v>157.08</v>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G373" s="4" t="n">
+        <v>350</v>
+      </c>
+      <c r="H373" s="5" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>45915</v>
+        <v>45922</v>
       </c>
       <c r="B374" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
         </is>
       </c>
       <c r="C374" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>General Journal</t>
         </is>
       </c>
       <c r="D374" s="3" t="inlineStr">
         <is>
-          <t>2926158</t>
+          <t>16768</t>
         </is>
       </c>
       <c r="E374" s="3" t="inlineStr">
         <is>
-          <t>Fluctuating Fuel Recovery</t>
+          <t>Ryan Ordelt Per diem for week of 9/22/2025 - 9/28/2025</t>
         </is>
       </c>
       <c r="F374" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
-        </is>
-      </c>
-      <c r="G374" s="3" t="n">
-        <v>201.2</v>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G374" s="4" t="n">
+        <v>150</v>
+      </c>
+      <c r="H374" s="5" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>45915</v>
+        <v>45922</v>
       </c>
       <c r="B375" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
         </is>
       </c>
       <c r="C375" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>General Journal</t>
         </is>
       </c>
       <c r="D375" s="3" t="inlineStr">
         <is>
-          <t>2926158</t>
+          <t>16768</t>
         </is>
       </c>
       <c r="E375" s="3" t="inlineStr">
         <is>
-          <t>Supply Water</t>
+          <t>Shane Morris Per diem for week of 9/22/2025 - 9/28/2025</t>
         </is>
       </c>
       <c r="F375" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
-        </is>
-      </c>
-      <c r="G375" s="3" t="n">
-        <v>72.93000000000001</v>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G375" s="4" t="n">
+        <v>600</v>
+      </c>
+      <c r="H375" s="5" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>45915</v>
+        <v>45922</v>
       </c>
       <c r="B376" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
         </is>
       </c>
       <c r="C376" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>General Journal</t>
         </is>
       </c>
       <c r="D376" s="3" t="inlineStr">
         <is>
-          <t>2926158</t>
+          <t>16768</t>
         </is>
       </c>
       <c r="E376" s="3" t="inlineStr">
         <is>
-          <t>Consumable Materials</t>
+          <t>Vace Varasteh Per diem for week of 9/22/2025 - 9/28/2025</t>
         </is>
       </c>
       <c r="F376" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
-        </is>
-      </c>
-      <c r="G376" s="3" t="n">
-        <v>30.29</v>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G376" s="4" t="n">
+        <v>350</v>
+      </c>
+      <c r="H376" s="5" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>45915</v>
+        <v>45923</v>
       </c>
       <c r="B377" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C377" s="3" t="inlineStr">
@@ -13170,12 +14336,12 @@
       </c>
       <c r="D377" s="3" t="inlineStr">
         <is>
-          <t>2926158</t>
+          <t>2930215</t>
         </is>
       </c>
       <c r="E377" s="3" t="inlineStr">
         <is>
-          <t>Badger Hydrovac With Operator</t>
+          <t>Badger Hydrovac With Operator - Overtime</t>
         </is>
       </c>
       <c r="F377" s="3" t="inlineStr">
@@ -13183,13 +14349,16 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G377" s="3" t="n">
-        <v>2101.2</v>
+      <c r="G377" s="4" t="n">
+        <v>293.55</v>
+      </c>
+      <c r="H377" s="5" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>45915</v>
+        <v>45923</v>
       </c>
       <c r="B378" s="3" t="inlineStr">
         <is>
@@ -13203,12 +14372,12 @@
       </c>
       <c r="D378" s="3" t="inlineStr">
         <is>
-          <t>2926158</t>
+          <t>2930215</t>
         </is>
       </c>
       <c r="E378" s="3" t="inlineStr">
         <is>
-          <t>Disposition</t>
+          <t>Fluctuating Fuel Recovery</t>
         </is>
       </c>
       <c r="F378" s="3" t="inlineStr">
@@ -13216,248 +14385,272 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G378" s="3" t="n">
-        <v>157.08</v>
+      <c r="G378" s="4" t="n">
+        <v>217.18</v>
+      </c>
+      <c r="H378" s="5" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>45922</v>
+        <v>45923</v>
       </c>
       <c r="B379" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5120 · Outside services (Direct)</t>
         </is>
       </c>
       <c r="C379" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D379" s="3" t="inlineStr">
         <is>
-          <t>16768</t>
+          <t>2930215</t>
         </is>
       </c>
       <c r="E379" s="3" t="inlineStr">
         <is>
-          <t>Andy Remillard Per diem for week of 9/22/2025 - 9/28/2025</t>
+          <t>Supply Water</t>
         </is>
       </c>
       <c r="F379" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
-        </is>
-      </c>
-      <c r="G379" s="3" t="n">
-        <v>350</v>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G379" s="4" t="n">
+        <v>72.93000000000001</v>
+      </c>
+      <c r="H379" s="5" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>45922</v>
+        <v>45923</v>
       </c>
       <c r="B380" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5120 · Outside services (Direct)</t>
         </is>
       </c>
       <c r="C380" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D380" s="3" t="inlineStr">
         <is>
-          <t>16768</t>
+          <t>2930215</t>
         </is>
       </c>
       <c r="E380" s="3" t="inlineStr">
         <is>
-          <t>Luke Giguere Per diem for week of 9/22/2025 - 9/28/2025</t>
+          <t>Consumable Materials</t>
         </is>
       </c>
       <c r="F380" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
-        </is>
-      </c>
-      <c r="G380" s="3" t="n">
-        <v>650</v>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G380" s="4" t="n">
+        <v>30.29</v>
+      </c>
+      <c r="H380" s="5" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>45922</v>
+        <v>45923</v>
       </c>
       <c r="B381" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5120 · Outside services (Direct)</t>
         </is>
       </c>
       <c r="C381" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D381" s="3" t="inlineStr">
         <is>
-          <t>16768</t>
+          <t>2930215</t>
         </is>
       </c>
       <c r="E381" s="3" t="inlineStr">
         <is>
-          <t>Michael Hyatt Per diem for week of 9/22/2025 - 9/28/2025</t>
+          <t>Badger Hydrovac With Operator</t>
         </is>
       </c>
       <c r="F381" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
-        </is>
-      </c>
-      <c r="G381" s="3" t="n">
-        <v>300</v>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G381" s="4" t="n">
+        <v>2101.2</v>
+      </c>
+      <c r="H381" s="5" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>45922</v>
+        <v>45923</v>
       </c>
       <c r="B382" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5120 · Outside services (Direct)</t>
         </is>
       </c>
       <c r="C382" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D382" s="3" t="inlineStr">
         <is>
-          <t>16768</t>
+          <t>2930215</t>
         </is>
       </c>
       <c r="E382" s="3" t="inlineStr">
         <is>
-          <t>Mike Cogswell Per diem for week of 9/22/2025 - 9/28/2025</t>
+          <t>Disposition</t>
         </is>
       </c>
       <c r="F382" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
-        </is>
-      </c>
-      <c r="G382" s="3" t="n">
-        <v>350</v>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G382" s="4" t="n">
+        <v>157.08</v>
+      </c>
+      <c r="H382" s="5" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>45922</v>
+        <v>45925</v>
       </c>
       <c r="B383" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5120 · Outside services (Direct)</t>
         </is>
       </c>
       <c r="C383" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D383" s="3" t="inlineStr">
         <is>
-          <t>16768</t>
+          <t>2931435</t>
         </is>
       </c>
       <c r="E383" s="3" t="inlineStr">
         <is>
-          <t>Ryan Ordelt Per diem for week of 9/22/2025 - 9/28/2025</t>
+          <t>Fluctuating Fuel Recovery</t>
         </is>
       </c>
       <c r="F383" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
-        </is>
-      </c>
-      <c r="G383" s="3" t="n">
-        <v>150</v>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G383" s="4" t="n">
+        <v>364.86</v>
+      </c>
+      <c r="H383" s="5" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>45922</v>
+        <v>45925</v>
       </c>
       <c r="B384" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5120 · Outside services (Direct)</t>
         </is>
       </c>
       <c r="C384" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D384" s="3" t="inlineStr">
         <is>
-          <t>16768</t>
+          <t>2931435</t>
         </is>
       </c>
       <c r="E384" s="3" t="inlineStr">
         <is>
-          <t>Shane Morris Per diem for week of 9/22/2025 - 9/28/2025</t>
+          <t>Supply Water</t>
         </is>
       </c>
       <c r="F384" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
-        </is>
-      </c>
-      <c r="G384" s="3" t="n">
-        <v>600</v>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G384" s="4" t="n">
+        <v>145.86</v>
+      </c>
+      <c r="H384" s="5" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>45922</v>
+        <v>45925</v>
       </c>
       <c r="B385" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5120 · Outside services (Direct)</t>
         </is>
       </c>
       <c r="C385" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="D385" s="3" t="inlineStr">
         <is>
-          <t>16768</t>
+          <t>2931435</t>
         </is>
       </c>
       <c r="E385" s="3" t="inlineStr">
         <is>
-          <t>Vace Varasteh Per diem for week of 9/22/2025 - 9/28/2025</t>
+          <t>Consumable Materials</t>
         </is>
       </c>
       <c r="F385" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
-        </is>
-      </c>
-      <c r="G385" s="3" t="n">
-        <v>350</v>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="G385" s="4" t="n">
+        <v>60.58</v>
+      </c>
+      <c r="H385" s="5" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>45923</v>
+        <v>45925</v>
       </c>
       <c r="B386" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5120 · Outside services (Direct)</t>
         </is>
       </c>
       <c r="C386" s="3" t="inlineStr">
@@ -13467,12 +14660,12 @@
       </c>
       <c r="D386" s="3" t="inlineStr">
         <is>
-          <t>2930215</t>
+          <t>2931435</t>
         </is>
       </c>
       <c r="E386" s="3" t="inlineStr">
         <is>
-          <t>Badger Hydrovac With Operator - Overtime</t>
+          <t>Badger Hydrovac With Operator</t>
         </is>
       </c>
       <c r="F386" s="3" t="inlineStr">
@@ -13480,13 +14673,16 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G386" s="3" t="n">
-        <v>293.55</v>
+      <c r="G386" s="4" t="n">
+        <v>3939.75</v>
+      </c>
+      <c r="H386" s="5" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>45923</v>
+        <v>45925</v>
       </c>
       <c r="B387" s="3" t="inlineStr">
         <is>
@@ -13500,12 +14696,12 @@
       </c>
       <c r="D387" s="3" t="inlineStr">
         <is>
-          <t>2930215</t>
+          <t>2931435</t>
         </is>
       </c>
       <c r="E387" s="3" t="inlineStr">
         <is>
-          <t>Fluctuating Fuel Recovery</t>
+          <t>Disposition</t>
         </is>
       </c>
       <c r="F387" s="3" t="inlineStr">
@@ -13513,13 +14709,16 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G387" s="3" t="n">
-        <v>217.18</v>
+      <c r="G387" s="4" t="n">
+        <v>314.16</v>
+      </c>
+      <c r="H387" s="5" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>45923</v>
+        <v>45925</v>
       </c>
       <c r="B388" s="3" t="inlineStr">
         <is>
@@ -13533,12 +14732,12 @@
       </c>
       <c r="D388" s="3" t="inlineStr">
         <is>
-          <t>2930215</t>
+          <t>2932184</t>
         </is>
       </c>
       <c r="E388" s="3" t="inlineStr">
         <is>
-          <t>Supply Water</t>
+          <t>Fluctuating Fuel Recovery</t>
         </is>
       </c>
       <c r="F388" s="3" t="inlineStr">
@@ -13546,13 +14745,16 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G388" s="3" t="n">
-        <v>72.93000000000001</v>
+      <c r="G388" s="4" t="n">
+        <v>418.89</v>
+      </c>
+      <c r="H388" s="5" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>45923</v>
+        <v>45925</v>
       </c>
       <c r="B389" s="3" t="inlineStr">
         <is>
@@ -13566,12 +14768,12 @@
       </c>
       <c r="D389" s="3" t="inlineStr">
         <is>
-          <t>2930215</t>
+          <t>2932184</t>
         </is>
       </c>
       <c r="E389" s="3" t="inlineStr">
         <is>
-          <t>Consumable Materials</t>
+          <t>Supply Water</t>
         </is>
       </c>
       <c r="F389" s="3" t="inlineStr">
@@ -13579,13 +14781,16 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G389" s="3" t="n">
-        <v>30.29</v>
+      <c r="G389" s="4" t="n">
+        <v>145.86</v>
+      </c>
+      <c r="H389" s="5" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>45923</v>
+        <v>45925</v>
       </c>
       <c r="B390" s="3" t="inlineStr">
         <is>
@@ -13599,12 +14804,12 @@
       </c>
       <c r="D390" s="3" t="inlineStr">
         <is>
-          <t>2930215</t>
+          <t>2932184</t>
         </is>
       </c>
       <c r="E390" s="3" t="inlineStr">
         <is>
-          <t>Badger Hydrovac With Operator</t>
+          <t>Consumable Materials</t>
         </is>
       </c>
       <c r="F390" s="3" t="inlineStr">
@@ -13612,13 +14817,16 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G390" s="3" t="n">
-        <v>2101.2</v>
+      <c r="G390" s="4" t="n">
+        <v>60.58</v>
+      </c>
+      <c r="H390" s="5" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>45923</v>
+        <v>45925</v>
       </c>
       <c r="B391" s="3" t="inlineStr">
         <is>
@@ -13632,12 +14840,12 @@
       </c>
       <c r="D391" s="3" t="inlineStr">
         <is>
-          <t>2930215</t>
+          <t>2932184</t>
         </is>
       </c>
       <c r="E391" s="3" t="inlineStr">
         <is>
-          <t>Disposition</t>
+          <t>Badger Hydrovac With Operator Overtime</t>
         </is>
       </c>
       <c r="F391" s="3" t="inlineStr">
@@ -13645,8 +14853,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G391" s="3" t="n">
-        <v>157.08</v>
+      <c r="G391" s="4" t="n">
+        <v>293.56</v>
+      </c>
+      <c r="H391" s="5" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="392">
@@ -13665,12 +14876,12 @@
       </c>
       <c r="D392" s="3" t="inlineStr">
         <is>
-          <t>2931435</t>
+          <t>2932184</t>
         </is>
       </c>
       <c r="E392" s="3" t="inlineStr">
         <is>
-          <t>Fluctuating Fuel Recovery</t>
+          <t>Badger Hydrovac With Operator</t>
         </is>
       </c>
       <c r="F392" s="3" t="inlineStr">
@@ -13678,8 +14889,11 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G392" s="3" t="n">
-        <v>364.86</v>
+      <c r="G392" s="4" t="n">
+        <v>4202.4</v>
+      </c>
+      <c r="H392" s="5" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="393">
@@ -13698,12 +14912,12 @@
       </c>
       <c r="D393" s="3" t="inlineStr">
         <is>
-          <t>2931435</t>
+          <t>2932184</t>
         </is>
       </c>
       <c r="E393" s="3" t="inlineStr">
         <is>
-          <t>Supply Water</t>
+          <t>Disposition</t>
         </is>
       </c>
       <c r="F393" s="3" t="inlineStr">
@@ -13711,310 +14925,340 @@
           <t>2000 · Accounts Payable</t>
         </is>
       </c>
-      <c r="G393" s="3" t="n">
-        <v>145.86</v>
+      <c r="G393" s="4" t="n">
+        <v>314.16</v>
+      </c>
+      <c r="H393" s="5" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>45925</v>
+        <v>45929</v>
       </c>
       <c r="B394" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
         </is>
       </c>
       <c r="C394" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>General Journal</t>
         </is>
       </c>
       <c r="D394" s="3" t="inlineStr">
         <is>
-          <t>2931435</t>
+          <t>16772</t>
         </is>
       </c>
       <c r="E394" s="3" t="inlineStr">
         <is>
-          <t>Consumable Materials</t>
+          <t>Andy Remillard Per diem for week of 9/29/2025 - 10/5/2025</t>
         </is>
       </c>
       <c r="F394" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
-        </is>
-      </c>
-      <c r="G394" s="3" t="n">
-        <v>60.58</v>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G394" s="4" t="n">
+        <v>350</v>
+      </c>
+      <c r="H394" s="5" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>45925</v>
+        <v>45929</v>
       </c>
       <c r="B395" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
         </is>
       </c>
       <c r="C395" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>General Journal</t>
         </is>
       </c>
       <c r="D395" s="3" t="inlineStr">
         <is>
-          <t>2931435</t>
+          <t>16772</t>
         </is>
       </c>
       <c r="E395" s="3" t="inlineStr">
         <is>
-          <t>Badger Hydrovac With Operator</t>
+          <t>Ryan Ordelt Per diem for week of 9/29/2025 - 10/5/2025</t>
         </is>
       </c>
       <c r="F395" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
-        </is>
-      </c>
-      <c r="G395" s="3" t="n">
-        <v>3939.75</v>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G395" s="4" t="n">
+        <v>350</v>
+      </c>
+      <c r="H395" s="5" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>45925</v>
+        <v>45929</v>
       </c>
       <c r="B396" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
         </is>
       </c>
       <c r="C396" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>General Journal</t>
         </is>
       </c>
       <c r="D396" s="3" t="inlineStr">
         <is>
-          <t>2931435</t>
+          <t>16772</t>
         </is>
       </c>
       <c r="E396" s="3" t="inlineStr">
         <is>
-          <t>Disposition</t>
+          <t>Shane Morris Per diem for week of 9/29/2025 - 10/5/2025</t>
         </is>
       </c>
       <c r="F396" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
-        </is>
-      </c>
-      <c r="G396" s="3" t="n">
-        <v>314.16</v>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G396" s="4" t="n">
+        <v>350</v>
+      </c>
+      <c r="H396" s="5" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>45925</v>
+        <v>45929</v>
       </c>
       <c r="B397" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
         </is>
       </c>
       <c r="C397" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>General Journal</t>
         </is>
       </c>
       <c r="D397" s="3" t="inlineStr">
         <is>
-          <t>2932184</t>
+          <t>16772</t>
         </is>
       </c>
       <c r="E397" s="3" t="inlineStr">
         <is>
-          <t>Fluctuating Fuel Recovery</t>
+          <t>Vace Varasteh Per diem for week of 9/29/2025 - 10/5/2025</t>
         </is>
       </c>
       <c r="F397" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
-        </is>
-      </c>
-      <c r="G397" s="3" t="n">
-        <v>418.89</v>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G397" s="4" t="n">
+        <v>350</v>
+      </c>
+      <c r="H397" s="5" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>45925</v>
+        <v>45929</v>
       </c>
       <c r="B398" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
         </is>
       </c>
       <c r="C398" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>General Journal</t>
         </is>
       </c>
       <c r="D398" s="3" t="inlineStr">
         <is>
-          <t>2932184</t>
+          <t>16772</t>
         </is>
       </c>
       <c r="E398" s="3" t="inlineStr">
         <is>
-          <t>Supply Water</t>
+          <t>Wyatt Staples Per diem for week of 9/29/2025 - 10/5/2025</t>
         </is>
       </c>
       <c r="F398" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
-        </is>
-      </c>
-      <c r="G398" s="3" t="n">
-        <v>145.86</v>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G398" s="4" t="n">
+        <v>350</v>
+      </c>
+      <c r="H398" s="5" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>45925</v>
+        <v>45933</v>
       </c>
       <c r="B399" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
         </is>
       </c>
       <c r="C399" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>General Journal</t>
         </is>
       </c>
       <c r="D399" s="3" t="inlineStr">
         <is>
-          <t>2932184</t>
+          <t>16773</t>
         </is>
       </c>
       <c r="E399" s="3" t="inlineStr">
         <is>
-          <t>Consumable Materials</t>
+          <t>Andy Remillard Per diem for week of 10/6/2025 - 10/12/2025</t>
         </is>
       </c>
       <c r="F399" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
-        </is>
-      </c>
-      <c r="G399" s="3" t="n">
-        <v>60.58</v>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G399" s="4" t="n">
+        <v>350</v>
+      </c>
+      <c r="H399" s="5" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>45925</v>
+        <v>45933</v>
       </c>
       <c r="B400" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
         </is>
       </c>
       <c r="C400" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>General Journal</t>
         </is>
       </c>
       <c r="D400" s="3" t="inlineStr">
         <is>
-          <t>2932184</t>
+          <t>16773</t>
         </is>
       </c>
       <c r="E400" s="3" t="inlineStr">
         <is>
-          <t>Badger Hydrovac With Operator Overtime</t>
+          <t>Levi Winslow Per diem for week of 10/6/2025 - 10/12/2025</t>
         </is>
       </c>
       <c r="F400" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
-        </is>
-      </c>
-      <c r="G400" s="3" t="n">
-        <v>293.56</v>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G400" s="4" t="n">
+        <v>350</v>
+      </c>
+      <c r="H400" s="5" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>45925</v>
+        <v>45933</v>
       </c>
       <c r="B401" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
         </is>
       </c>
       <c r="C401" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>General Journal</t>
         </is>
       </c>
       <c r="D401" s="3" t="inlineStr">
         <is>
-          <t>2932184</t>
+          <t>16773</t>
         </is>
       </c>
       <c r="E401" s="3" t="inlineStr">
         <is>
-          <t>Badger Hydrovac With Operator</t>
+          <t>Mike Cogswell Per diem for week of 10/6/2025 - 10/12/2025</t>
         </is>
       </c>
       <c r="F401" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
-        </is>
-      </c>
-      <c r="G401" s="3" t="n">
-        <v>4202.4</v>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G401" s="4" t="n">
+        <v>350</v>
+      </c>
+      <c r="H401" s="5" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>45925</v>
+        <v>45933</v>
       </c>
       <c r="B402" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
         </is>
       </c>
       <c r="C402" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>General Journal</t>
         </is>
       </c>
       <c r="D402" s="3" t="inlineStr">
         <is>
-          <t>2932184</t>
+          <t>16773</t>
         </is>
       </c>
       <c r="E402" s="3" t="inlineStr">
         <is>
-          <t>Disposition</t>
+          <t>Robert Winchell Per diem for week of 10/6/2025 - 10/12/2025</t>
         </is>
       </c>
       <c r="F402" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
-        </is>
-      </c>
-      <c r="G402" s="3" t="n">
-        <v>314.16</v>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="G402" s="4" t="n">
+        <v>300</v>
+      </c>
+      <c r="H402" s="5" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>45929</v>
+        <v>45933</v>
       </c>
       <c r="B403" s="3" t="inlineStr">
         <is>
@@ -14028,12 +15272,12 @@
       </c>
       <c r="D403" s="3" t="inlineStr">
         <is>
-          <t>16772</t>
+          <t>16773</t>
         </is>
       </c>
       <c r="E403" s="3" t="inlineStr">
         <is>
-          <t>Andy Remillard Per diem for week of 9/29/2025 - 10/5/2025</t>
+          <t>Ryan Ordelt Per diem for week of 10/6/2025 - 10/12/2025</t>
         </is>
       </c>
       <c r="F403" s="3" t="inlineStr">
@@ -14041,13 +15285,16 @@
           <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
-      <c r="G403" s="3" t="n">
+      <c r="G403" s="4" t="n">
         <v>350</v>
+      </c>
+      <c r="H403" s="5" t="n">
+        <v>400</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>45929</v>
+        <v>45933</v>
       </c>
       <c r="B404" s="3" t="inlineStr">
         <is>
@@ -14061,12 +15308,12 @@
       </c>
       <c r="D404" s="3" t="inlineStr">
         <is>
-          <t>16772</t>
+          <t>16773</t>
         </is>
       </c>
       <c r="E404" s="3" t="inlineStr">
         <is>
-          <t>Ryan Ordelt Per diem for week of 9/29/2025 - 10/5/2025</t>
+          <t>Vace Varasteh Per diem for week of 10/6/2025 - 10/12/2025</t>
         </is>
       </c>
       <c r="F404" s="3" t="inlineStr">
@@ -14074,305 +15321,11 @@
           <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
-      <c r="G404" s="3" t="n">
+      <c r="G404" s="4" t="n">
         <v>350</v>
       </c>
-    </row>
-    <row r="405">
-      <c r="A405" s="2" t="n">
-        <v>45929</v>
-      </c>
-      <c r="B405" s="3" t="inlineStr">
-        <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
-        </is>
-      </c>
-      <c r="C405" s="3" t="inlineStr">
-        <is>
-          <t>General Journal</t>
-        </is>
-      </c>
-      <c r="D405" s="3" t="inlineStr">
-        <is>
-          <t>16772</t>
-        </is>
-      </c>
-      <c r="E405" s="3" t="inlineStr">
-        <is>
-          <t>Shane Morris Per diem for week of 9/29/2025 - 10/5/2025</t>
-        </is>
-      </c>
-      <c r="F405" s="3" t="inlineStr">
-        <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
-        </is>
-      </c>
-      <c r="G405" s="3" t="n">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" s="2" t="n">
-        <v>45929</v>
-      </c>
-      <c r="B406" s="3" t="inlineStr">
-        <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
-        </is>
-      </c>
-      <c r="C406" s="3" t="inlineStr">
-        <is>
-          <t>General Journal</t>
-        </is>
-      </c>
-      <c r="D406" s="3" t="inlineStr">
-        <is>
-          <t>16772</t>
-        </is>
-      </c>
-      <c r="E406" s="3" t="inlineStr">
-        <is>
-          <t>Vace Varasteh Per diem for week of 9/29/2025 - 10/5/2025</t>
-        </is>
-      </c>
-      <c r="F406" s="3" t="inlineStr">
-        <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
-        </is>
-      </c>
-      <c r="G406" s="3" t="n">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" s="2" t="n">
-        <v>45929</v>
-      </c>
-      <c r="B407" s="3" t="inlineStr">
-        <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
-        </is>
-      </c>
-      <c r="C407" s="3" t="inlineStr">
-        <is>
-          <t>General Journal</t>
-        </is>
-      </c>
-      <c r="D407" s="3" t="inlineStr">
-        <is>
-          <t>16772</t>
-        </is>
-      </c>
-      <c r="E407" s="3" t="inlineStr">
-        <is>
-          <t>Wyatt Staples Per diem for week of 9/29/2025 - 10/5/2025</t>
-        </is>
-      </c>
-      <c r="F407" s="3" t="inlineStr">
-        <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
-        </is>
-      </c>
-      <c r="G407" s="3" t="n">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" s="2" t="n">
-        <v>45933</v>
-      </c>
-      <c r="B408" s="3" t="inlineStr">
-        <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
-        </is>
-      </c>
-      <c r="C408" s="3" t="inlineStr">
-        <is>
-          <t>General Journal</t>
-        </is>
-      </c>
-      <c r="D408" s="3" t="inlineStr">
-        <is>
-          <t>16773</t>
-        </is>
-      </c>
-      <c r="E408" s="3" t="inlineStr">
-        <is>
-          <t>Andy Remillard Per diem for week of 10/6/2025 - 10/12/2025</t>
-        </is>
-      </c>
-      <c r="F408" s="3" t="inlineStr">
-        <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
-        </is>
-      </c>
-      <c r="G408" s="3" t="n">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" s="2" t="n">
-        <v>45933</v>
-      </c>
-      <c r="B409" s="3" t="inlineStr">
-        <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
-        </is>
-      </c>
-      <c r="C409" s="3" t="inlineStr">
-        <is>
-          <t>General Journal</t>
-        </is>
-      </c>
-      <c r="D409" s="3" t="inlineStr">
-        <is>
-          <t>16773</t>
-        </is>
-      </c>
-      <c r="E409" s="3" t="inlineStr">
-        <is>
-          <t>Levi Winslow Per diem for week of 10/6/2025 - 10/12/2025</t>
-        </is>
-      </c>
-      <c r="F409" s="3" t="inlineStr">
-        <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
-        </is>
-      </c>
-      <c r="G409" s="3" t="n">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" s="2" t="n">
-        <v>45933</v>
-      </c>
-      <c r="B410" s="3" t="inlineStr">
-        <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
-        </is>
-      </c>
-      <c r="C410" s="3" t="inlineStr">
-        <is>
-          <t>General Journal</t>
-        </is>
-      </c>
-      <c r="D410" s="3" t="inlineStr">
-        <is>
-          <t>16773</t>
-        </is>
-      </c>
-      <c r="E410" s="3" t="inlineStr">
-        <is>
-          <t>Mike Cogswell Per diem for week of 10/6/2025 - 10/12/2025</t>
-        </is>
-      </c>
-      <c r="F410" s="3" t="inlineStr">
-        <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
-        </is>
-      </c>
-      <c r="G410" s="3" t="n">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" s="2" t="n">
-        <v>45933</v>
-      </c>
-      <c r="B411" s="3" t="inlineStr">
-        <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
-        </is>
-      </c>
-      <c r="C411" s="3" t="inlineStr">
-        <is>
-          <t>General Journal</t>
-        </is>
-      </c>
-      <c r="D411" s="3" t="inlineStr">
-        <is>
-          <t>16773</t>
-        </is>
-      </c>
-      <c r="E411" s="3" t="inlineStr">
-        <is>
-          <t>Robert Winchell Per diem for week of 10/6/2025 - 10/12/2025</t>
-        </is>
-      </c>
-      <c r="F411" s="3" t="inlineStr">
-        <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
-        </is>
-      </c>
-      <c r="G411" s="3" t="n">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" s="2" t="n">
-        <v>45933</v>
-      </c>
-      <c r="B412" s="3" t="inlineStr">
-        <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
-        </is>
-      </c>
-      <c r="C412" s="3" t="inlineStr">
-        <is>
-          <t>General Journal</t>
-        </is>
-      </c>
-      <c r="D412" s="3" t="inlineStr">
-        <is>
-          <t>16773</t>
-        </is>
-      </c>
-      <c r="E412" s="3" t="inlineStr">
-        <is>
-          <t>Ryan Ordelt Per diem for week of 10/6/2025 - 10/12/2025</t>
-        </is>
-      </c>
-      <c r="F412" s="3" t="inlineStr">
-        <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
-        </is>
-      </c>
-      <c r="G412" s="3" t="n">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" s="2" t="n">
-        <v>45933</v>
-      </c>
-      <c r="B413" s="3" t="inlineStr">
-        <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
-        </is>
-      </c>
-      <c r="C413" s="3" t="inlineStr">
-        <is>
-          <t>General Journal</t>
-        </is>
-      </c>
-      <c r="D413" s="3" t="inlineStr">
-        <is>
-          <t>16773</t>
-        </is>
-      </c>
-      <c r="E413" s="3" t="inlineStr">
-        <is>
-          <t>Vace Varasteh Per diem for week of 10/6/2025 - 10/12/2025</t>
-        </is>
-      </c>
-      <c r="F413" s="3" t="inlineStr">
-        <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
-        </is>
-      </c>
-      <c r="G413" s="3" t="n">
-        <v>350</v>
+      <c r="H404" s="5" t="n">
+        <v>400</v>
       </c>
     </row>
   </sheetData>
@@ -14456,19 +15409,19 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="inlineStr">
+      <c r="A2" s="6" t="inlineStr">
         <is>
           <t>No duplicates found</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr"/>
-      <c r="C2" s="3" t="inlineStr"/>
-      <c r="D2" s="3" t="inlineStr"/>
-      <c r="E2" s="3" t="inlineStr"/>
-      <c r="F2" s="3" t="inlineStr"/>
-      <c r="G2" s="3" t="inlineStr"/>
-      <c r="H2" s="3" t="inlineStr"/>
-      <c r="I2" s="3" t="inlineStr"/>
+      <c r="B2" s="4" t="inlineStr"/>
+      <c r="C2" s="4" t="inlineStr"/>
+      <c r="D2" s="4" t="inlineStr"/>
+      <c r="E2" s="4" t="inlineStr"/>
+      <c r="F2" s="4" t="inlineStr"/>
+      <c r="G2" s="4" t="inlineStr"/>
+      <c r="H2" s="4" t="inlineStr"/>
+      <c r="I2" s="4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/quickbook_summary.xlsx
+++ b/quickbook_summary.xlsx
@@ -447,7 +447,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H19"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -1158,6 +1158,42 @@
         <v>300</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45900</v>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>4110 · Mark up Account</t>
+        </is>
+      </c>
+      <c r="C20" s="4" t="n">
+        <v>192.3</v>
+      </c>
+      <c r="D20" s="3" t="inlineStr">
+        <is>
+          <t>Invoice</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="inlineStr">
+        <is>
+          <t>CIN25-002</t>
+        </is>
+      </c>
+      <c r="F20" s="3" t="inlineStr">
+        <is>
+          <t>Markup</t>
+        </is>
+      </c>
+      <c r="G20" s="3" t="inlineStr">
+        <is>
+          <t>1100 · Trade Debtors</t>
+        </is>
+      </c>
+      <c r="H20" s="5" t="n">
+        <v>300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -1169,7 +1205,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H454"/>
+  <dimension ref="A1:H467"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -11118,7 +11154,7 @@
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>45896</v>
+        <v>45895</v>
       </c>
       <c r="B279" s="3" t="inlineStr">
         <is>
@@ -11126,7 +11162,7 @@
         </is>
       </c>
       <c r="C279" s="4" t="n">
-        <v>293.55</v>
+        <v>199.44</v>
       </c>
       <c r="D279" s="3" t="inlineStr">
         <is>
@@ -11135,12 +11171,12 @@
       </c>
       <c r="E279" s="3" t="inlineStr">
         <is>
-          <t>2915105</t>
+          <t>9619747679</t>
         </is>
       </c>
       <c r="F279" s="3" t="inlineStr">
         <is>
-          <t>Badger Hydrovac With Operator - Overtime</t>
+          <t>Tax</t>
         </is>
       </c>
       <c r="G279" s="3" t="inlineStr">
@@ -11154,7 +11190,7 @@
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>45896</v>
+        <v>45895</v>
       </c>
       <c r="B280" s="3" t="inlineStr">
         <is>
@@ -11162,7 +11198,7 @@
         </is>
       </c>
       <c r="C280" s="4" t="n">
-        <v>399.6</v>
+        <v>2573.41</v>
       </c>
       <c r="D280" s="3" t="inlineStr">
         <is>
@@ -11171,12 +11207,12 @@
       </c>
       <c r="E280" s="3" t="inlineStr">
         <is>
-          <t>92118089-3</t>
+          <t>9619747679</t>
         </is>
       </c>
       <c r="F280" s="3" t="inlineStr">
         <is>
-          <t>|GATE VLV LF BRS 1" THD 200 F (1)</t>
+          <t>GP MOTOR,30 HP,1,765 RPM,230/460V,286T</t>
         </is>
       </c>
       <c r="G280" s="3" t="inlineStr">
@@ -11198,7 +11234,7 @@
         </is>
       </c>
       <c r="C281" s="4" t="n">
-        <v>21.98</v>
+        <v>293.55</v>
       </c>
       <c r="D281" s="3" t="inlineStr">
         <is>
@@ -11207,10 +11243,14 @@
       </c>
       <c r="E281" s="3" t="inlineStr">
         <is>
-          <t>92118089-3</t>
-        </is>
-      </c>
-      <c r="F281" s="3" t="inlineStr"/>
+          <t>2915105</t>
+        </is>
+      </c>
+      <c r="F281" s="3" t="inlineStr">
+        <is>
+          <t>Badger Hydrovac With Operator - Overtime</t>
+        </is>
+      </c>
       <c r="G281" s="3" t="inlineStr">
         <is>
           <t>2000 · Accounts Payable</t>
@@ -11226,11 +11266,11 @@
       </c>
       <c r="B282" s="3" t="inlineStr">
         <is>
-          <t>5115 · Rent - Equipment (direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C282" s="4" t="n">
-        <v>4639</v>
+        <v>399.6</v>
       </c>
       <c r="D282" s="3" t="inlineStr">
         <is>
@@ -11239,12 +11279,12 @@
       </c>
       <c r="E282" s="3" t="inlineStr">
         <is>
-          <t>250412474-002</t>
+          <t>92118089-3</t>
         </is>
       </c>
       <c r="F282" s="3" t="inlineStr">
         <is>
-          <t>FORKLIFT VARIABLE REACH 10000# 50'-62'</t>
+          <t>|GATE VLV LF BRS 1" THD 200 F (1)</t>
         </is>
       </c>
       <c r="G282" s="3" t="inlineStr">
@@ -11262,11 +11302,11 @@
       </c>
       <c r="B283" s="3" t="inlineStr">
         <is>
-          <t>5115 · Rent - Equipment (direct)</t>
-        </is>
-      </c>
-      <c r="C283" s="3" t="n">
-        <v>0</v>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
+        </is>
+      </c>
+      <c r="C283" s="4" t="n">
+        <v>21.98</v>
       </c>
       <c r="D283" s="3" t="inlineStr">
         <is>
@@ -11275,14 +11315,10 @@
       </c>
       <c r="E283" s="3" t="inlineStr">
         <is>
-          <t>250412474-002</t>
-        </is>
-      </c>
-      <c r="F283" s="3" t="inlineStr">
-        <is>
-          <t>Delivery &amp; Pick up charge</t>
-        </is>
-      </c>
+          <t>92118089-3</t>
+        </is>
+      </c>
+      <c r="F283" s="3" t="inlineStr"/>
       <c r="G283" s="3" t="inlineStr">
         <is>
           <t>2000 · Accounts Payable</t>
@@ -11302,7 +11338,7 @@
         </is>
       </c>
       <c r="C284" s="4" t="n">
-        <v>461.86</v>
+        <v>4639</v>
       </c>
       <c r="D284" s="3" t="inlineStr">
         <is>
@@ -11316,7 +11352,7 @@
       </c>
       <c r="F284" s="3" t="inlineStr">
         <is>
-          <t>Service Charge and Tax</t>
+          <t>FORKLIFT VARIABLE REACH 10000# 50'-62'</t>
         </is>
       </c>
       <c r="G284" s="3" t="inlineStr">
@@ -11334,11 +11370,11 @@
       </c>
       <c r="B285" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
-        </is>
-      </c>
-      <c r="C285" s="4" t="n">
-        <v>217.18</v>
+          <t>5115 · Rent - Equipment (direct)</t>
+        </is>
+      </c>
+      <c r="C285" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="D285" s="3" t="inlineStr">
         <is>
@@ -11347,12 +11383,12 @@
       </c>
       <c r="E285" s="3" t="inlineStr">
         <is>
-          <t>2915105</t>
+          <t>250412474-002</t>
         </is>
       </c>
       <c r="F285" s="3" t="inlineStr">
         <is>
-          <t>Fluctuating Fuel Recovery</t>
+          <t>Delivery &amp; Pick up charge</t>
         </is>
       </c>
       <c r="G285" s="3" t="inlineStr">
@@ -11370,11 +11406,11 @@
       </c>
       <c r="B286" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5115 · Rent - Equipment (direct)</t>
         </is>
       </c>
       <c r="C286" s="4" t="n">
-        <v>72.93000000000001</v>
+        <v>461.86</v>
       </c>
       <c r="D286" s="3" t="inlineStr">
         <is>
@@ -11383,12 +11419,12 @@
       </c>
       <c r="E286" s="3" t="inlineStr">
         <is>
-          <t>2915105</t>
+          <t>250412474-002</t>
         </is>
       </c>
       <c r="F286" s="3" t="inlineStr">
         <is>
-          <t>Supply Water</t>
+          <t>Service Charge and Tax</t>
         </is>
       </c>
       <c r="G286" s="3" t="inlineStr">
@@ -11410,7 +11446,7 @@
         </is>
       </c>
       <c r="C287" s="4" t="n">
-        <v>30.29</v>
+        <v>217.18</v>
       </c>
       <c r="D287" s="3" t="inlineStr">
         <is>
@@ -11424,7 +11460,7 @@
       </c>
       <c r="F287" s="3" t="inlineStr">
         <is>
-          <t>Consumable Materials</t>
+          <t>Fluctuating Fuel Recovery</t>
         </is>
       </c>
       <c r="G287" s="3" t="inlineStr">
@@ -11446,7 +11482,7 @@
         </is>
       </c>
       <c r="C288" s="4" t="n">
-        <v>2101.2</v>
+        <v>72.93000000000001</v>
       </c>
       <c r="D288" s="3" t="inlineStr">
         <is>
@@ -11460,7 +11496,7 @@
       </c>
       <c r="F288" s="3" t="inlineStr">
         <is>
-          <t>Badger Hydrovac With Operator</t>
+          <t>Supply Water</t>
         </is>
       </c>
       <c r="G288" s="3" t="inlineStr">
@@ -11482,7 +11518,7 @@
         </is>
       </c>
       <c r="C289" s="4" t="n">
-        <v>157.08</v>
+        <v>30.29</v>
       </c>
       <c r="D289" s="3" t="inlineStr">
         <is>
@@ -11496,7 +11532,7 @@
       </c>
       <c r="F289" s="3" t="inlineStr">
         <is>
-          <t>Disposition</t>
+          <t>Consumable Materials</t>
         </is>
       </c>
       <c r="G289" s="3" t="inlineStr">
@@ -11510,34 +11546,34 @@
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>45898</v>
+        <v>45896</v>
       </c>
       <c r="B290" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5120 · Outside services (Direct)</t>
         </is>
       </c>
       <c r="C290" s="4" t="n">
-        <v>350</v>
+        <v>2101.2</v>
       </c>
       <c r="D290" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="E290" s="3" t="inlineStr">
         <is>
-          <t>16760</t>
+          <t>2915105</t>
         </is>
       </c>
       <c r="F290" s="3" t="inlineStr">
         <is>
-          <t>Robert Winchell Per diem for week of 9/1/2025 - 9/7/2025</t>
+          <t>Badger Hydrovac With Operator</t>
         </is>
       </c>
       <c r="G290" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="H290" s="5" t="n">
@@ -11546,15 +11582,15 @@
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>45898</v>
+        <v>45896</v>
       </c>
       <c r="B291" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5120 · Outside services (Direct)</t>
         </is>
       </c>
       <c r="C291" s="4" t="n">
-        <v>293.55</v>
+        <v>157.08</v>
       </c>
       <c r="D291" s="3" t="inlineStr">
         <is>
@@ -11563,12 +11599,12 @@
       </c>
       <c r="E291" s="3" t="inlineStr">
         <is>
-          <t>2916349</t>
+          <t>2915105</t>
         </is>
       </c>
       <c r="F291" s="3" t="inlineStr">
         <is>
-          <t>Badger Hydrovac With Operator - Overtime</t>
+          <t>Disposition</t>
         </is>
       </c>
       <c r="G291" s="3" t="inlineStr">
@@ -11586,30 +11622,30 @@
       </c>
       <c r="B292" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
         </is>
       </c>
       <c r="C292" s="4" t="n">
-        <v>217.18</v>
+        <v>350</v>
       </c>
       <c r="D292" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>General Journal</t>
         </is>
       </c>
       <c r="E292" s="3" t="inlineStr">
         <is>
-          <t>2916349</t>
+          <t>16760</t>
         </is>
       </c>
       <c r="F292" s="3" t="inlineStr">
         <is>
-          <t>Fluctuating Fuel Recovery</t>
+          <t>Robert Winchell Per diem for week of 9/1/2025 - 9/7/2025</t>
         </is>
       </c>
       <c r="G292" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
       <c r="H292" s="5" t="n">
@@ -11622,11 +11658,11 @@
       </c>
       <c r="B293" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C293" s="4" t="n">
-        <v>72.93000000000001</v>
+        <v>293.55</v>
       </c>
       <c r="D293" s="3" t="inlineStr">
         <is>
@@ -11640,7 +11676,7 @@
       </c>
       <c r="F293" s="3" t="inlineStr">
         <is>
-          <t>Supply Water</t>
+          <t>Badger Hydrovac With Operator - Overtime</t>
         </is>
       </c>
       <c r="G293" s="3" t="inlineStr">
@@ -11662,7 +11698,7 @@
         </is>
       </c>
       <c r="C294" s="4" t="n">
-        <v>30.29</v>
+        <v>217.18</v>
       </c>
       <c r="D294" s="3" t="inlineStr">
         <is>
@@ -11676,7 +11712,7 @@
       </c>
       <c r="F294" s="3" t="inlineStr">
         <is>
-          <t>Consumable Materials</t>
+          <t>Fluctuating Fuel Recovery</t>
         </is>
       </c>
       <c r="G294" s="3" t="inlineStr">
@@ -11698,7 +11734,7 @@
         </is>
       </c>
       <c r="C295" s="4" t="n">
-        <v>2101.2</v>
+        <v>72.93000000000001</v>
       </c>
       <c r="D295" s="3" t="inlineStr">
         <is>
@@ -11712,7 +11748,7 @@
       </c>
       <c r="F295" s="3" t="inlineStr">
         <is>
-          <t>Badger Hydrovac With Operator</t>
+          <t>Supply Water</t>
         </is>
       </c>
       <c r="G295" s="3" t="inlineStr">
@@ -11734,7 +11770,7 @@
         </is>
       </c>
       <c r="C296" s="4" t="n">
-        <v>157.08</v>
+        <v>30.29</v>
       </c>
       <c r="D296" s="3" t="inlineStr">
         <is>
@@ -11748,7 +11784,7 @@
       </c>
       <c r="F296" s="3" t="inlineStr">
         <is>
-          <t>Disposition</t>
+          <t>Consumable Materials</t>
         </is>
       </c>
       <c r="G296" s="3" t="inlineStr">
@@ -11762,7 +11798,7 @@
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>45900</v>
+        <v>45898</v>
       </c>
       <c r="B297" s="3" t="inlineStr">
         <is>
@@ -11770,26 +11806,26 @@
         </is>
       </c>
       <c r="C297" s="4" t="n">
-        <v>157.08</v>
+        <v>2101.2</v>
       </c>
       <c r="D297" s="3" t="inlineStr">
         <is>
-          <t>Invoice</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="E297" s="3" t="inlineStr">
         <is>
-          <t>CIN25-002</t>
+          <t>2916349</t>
         </is>
       </c>
       <c r="F297" s="3" t="inlineStr">
         <is>
-          <t>Disposition</t>
+          <t>Badger Hydrovac With Operator</t>
         </is>
       </c>
       <c r="G297" s="3" t="inlineStr">
         <is>
-          <t>1100 · Trade Debtors</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="H297" s="5" t="n">
@@ -11798,7 +11834,7 @@
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>45900</v>
+        <v>45898</v>
       </c>
       <c r="B298" s="3" t="inlineStr">
         <is>
@@ -11806,26 +11842,26 @@
         </is>
       </c>
       <c r="C298" s="4" t="n">
-        <v>178.82</v>
+        <v>157.08</v>
       </c>
       <c r="D298" s="3" t="inlineStr">
         <is>
-          <t>Invoice</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="E298" s="3" t="inlineStr">
         <is>
-          <t>CIN25-002</t>
+          <t>2916349</t>
         </is>
       </c>
       <c r="F298" s="3" t="inlineStr">
         <is>
-          <t>Fluctuating Fuel Recovery</t>
+          <t>Disposition</t>
         </is>
       </c>
       <c r="G298" s="3" t="inlineStr">
         <is>
-          <t>1100 · Trade Debtors</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="H298" s="5" t="n">
@@ -11838,11 +11874,11 @@
       </c>
       <c r="B299" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C299" s="4" t="n">
-        <v>72.93000000000001</v>
+        <v>2.16</v>
       </c>
       <c r="D299" s="3" t="inlineStr">
         <is>
@@ -11856,7 +11892,7 @@
       </c>
       <c r="F299" s="3" t="inlineStr">
         <is>
-          <t>Supply Water</t>
+          <t>GLS SFTY GRY ASCRTCH CLSSC PLS UNFRMD</t>
         </is>
       </c>
       <c r="G299" s="3" t="inlineStr">
@@ -11874,11 +11910,11 @@
       </c>
       <c r="B300" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C300" s="4" t="n">
-        <v>30.29</v>
+        <v>7.86</v>
       </c>
       <c r="D300" s="3" t="inlineStr">
         <is>
@@ -11892,7 +11928,7 @@
       </c>
       <c r="F300" s="3" t="inlineStr">
         <is>
-          <t>Consumable Materials</t>
+          <t xml:space="preserve"> MRKR FELT TIP PNT PEN WHT</t>
         </is>
       </c>
       <c r="G300" s="3" t="inlineStr">
@@ -11910,11 +11946,11 @@
       </c>
       <c r="B301" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C301" s="4" t="n">
-        <v>1838.55</v>
+        <v>10.85</v>
       </c>
       <c r="D301" s="3" t="inlineStr">
         <is>
@@ -11928,7 +11964,7 @@
       </c>
       <c r="F301" s="3" t="inlineStr">
         <is>
-          <t>Badger Hydrovac With Operator</t>
+          <t>GLV DRVR LG PRM CWHD SPLT SHIRRED</t>
         </is>
       </c>
       <c r="G301" s="3" t="inlineStr">
@@ -11946,11 +11982,11 @@
       </c>
       <c r="B302" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C302" s="4" t="n">
-        <v>157.08</v>
+        <v>21.7</v>
       </c>
       <c r="D302" s="3" t="inlineStr">
         <is>
@@ -11964,7 +12000,7 @@
       </c>
       <c r="F302" s="3" t="inlineStr">
         <is>
-          <t>Disposition</t>
+          <t>GLV DRVR XL PRM CWHD SPLT SHIRRED</t>
         </is>
       </c>
       <c r="G302" s="3" t="inlineStr">
@@ -11982,11 +12018,11 @@
       </c>
       <c r="B303" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C303" s="4" t="n">
-        <v>134.07</v>
+        <v>22.94</v>
       </c>
       <c r="D303" s="3" t="inlineStr">
         <is>
@@ -12000,7 +12036,7 @@
       </c>
       <c r="F303" s="3" t="inlineStr">
         <is>
-          <t>Fluctuating Fuel Recovery</t>
+          <t>GLS SFTY GRN SHD 5.0 PREM IR BLK SDSHLD</t>
         </is>
       </c>
       <c r="G303" s="3" t="inlineStr">
@@ -12018,11 +12054,11 @@
       </c>
       <c r="B304" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C304" s="4" t="n">
-        <v>72.93000000000001</v>
+        <v>24.97</v>
       </c>
       <c r="D304" s="3" t="inlineStr">
         <is>
@@ -12036,7 +12072,7 @@
       </c>
       <c r="F304" s="3" t="inlineStr">
         <is>
-          <t>Supply Water</t>
+          <t>GLV MULTI-TASK LTHR XL BRHD PLM PTCH</t>
         </is>
       </c>
       <c r="G304" s="3" t="inlineStr">
@@ -12054,11 +12090,11 @@
       </c>
       <c r="B305" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C305" s="4" t="n">
-        <v>30.29</v>
+        <v>26.46</v>
       </c>
       <c r="D305" s="3" t="inlineStr">
         <is>
@@ -12072,7 +12108,7 @@
       </c>
       <c r="F305" s="3" t="inlineStr">
         <is>
-          <t>Consumable Materials</t>
+          <t xml:space="preserve"> DC FLP 4-1/2"X7/8" 80 GRIT TYP 27 FGL HD</t>
         </is>
       </c>
       <c r="G305" s="3" t="inlineStr">
@@ -12090,11 +12126,11 @@
       </c>
       <c r="B306" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C306" s="4" t="n">
-        <v>1313.25</v>
+        <v>33.44</v>
       </c>
       <c r="D306" s="3" t="inlineStr">
         <is>
@@ -12108,7 +12144,7 @@
       </c>
       <c r="F306" s="3" t="inlineStr">
         <is>
-          <t>Badger Hydrovac With Operator</t>
+          <t>ELECT STCK E7018 3/32 5LB</t>
         </is>
       </c>
       <c r="G306" s="3" t="inlineStr">
@@ -12126,11 +12162,11 @@
       </c>
       <c r="B307" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C307" s="4" t="n">
-        <v>251.22</v>
+        <v>110.68</v>
       </c>
       <c r="D307" s="3" t="inlineStr">
         <is>
@@ -12144,7 +12180,7 @@
       </c>
       <c r="F307" s="3" t="inlineStr">
         <is>
-          <t>Fluctuating Fuel Recovery</t>
+          <t>Tax &amp; Hazmat</t>
         </is>
       </c>
       <c r="G307" s="3" t="inlineStr">
@@ -12162,11 +12198,11 @@
       </c>
       <c r="B308" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C308" s="4" t="n">
-        <v>72.93000000000001</v>
+        <v>265.28</v>
       </c>
       <c r="D308" s="3" t="inlineStr">
         <is>
@@ -12180,7 +12216,7 @@
       </c>
       <c r="F308" s="3" t="inlineStr">
         <is>
-          <t>Supply Water</t>
+          <t>SCRN WLDG FRM ONLY SNGL PNL 6' X 8'</t>
         </is>
       </c>
       <c r="G308" s="3" t="inlineStr">
@@ -12198,11 +12234,11 @@
       </c>
       <c r="B309" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C309" s="4" t="n">
-        <v>30.29</v>
+        <v>755.66</v>
       </c>
       <c r="D309" s="3" t="inlineStr">
         <is>
@@ -12216,7 +12252,7 @@
       </c>
       <c r="F309" s="3" t="inlineStr">
         <is>
-          <t>Consumable Materials</t>
+          <t>HLMT WLDG VKNG 3350 STEAMPUNK 4C AD LNS</t>
         </is>
       </c>
       <c r="G309" s="3" t="inlineStr">
@@ -12238,7 +12274,7 @@
         </is>
       </c>
       <c r="C310" s="4" t="n">
-        <v>587.1</v>
+        <v>157.08</v>
       </c>
       <c r="D310" s="3" t="inlineStr">
         <is>
@@ -12252,7 +12288,7 @@
       </c>
       <c r="F310" s="3" t="inlineStr">
         <is>
-          <t>Badger Hydrovac With Operator - Overtime</t>
+          <t>Disposition</t>
         </is>
       </c>
       <c r="G310" s="3" t="inlineStr">
@@ -12274,7 +12310,7 @@
         </is>
       </c>
       <c r="C311" s="4" t="n">
-        <v>2101.2</v>
+        <v>178.82</v>
       </c>
       <c r="D311" s="3" t="inlineStr">
         <is>
@@ -12288,7 +12324,7 @@
       </c>
       <c r="F311" s="3" t="inlineStr">
         <is>
-          <t>Badger Hydrovac With Operator</t>
+          <t>Fluctuating Fuel Recovery</t>
         </is>
       </c>
       <c r="G311" s="3" t="inlineStr">
@@ -12310,7 +12346,7 @@
         </is>
       </c>
       <c r="C312" s="4" t="n">
-        <v>157.08</v>
+        <v>72.93000000000001</v>
       </c>
       <c r="D312" s="3" t="inlineStr">
         <is>
@@ -12324,7 +12360,7 @@
       </c>
       <c r="F312" s="3" t="inlineStr">
         <is>
-          <t>Disposition</t>
+          <t>Supply Water</t>
         </is>
       </c>
       <c r="G312" s="3" t="inlineStr">
@@ -12346,7 +12382,7 @@
         </is>
       </c>
       <c r="C313" s="4" t="n">
-        <v>157.08</v>
+        <v>30.29</v>
       </c>
       <c r="D313" s="3" t="inlineStr">
         <is>
@@ -12360,7 +12396,7 @@
       </c>
       <c r="F313" s="3" t="inlineStr">
         <is>
-          <t>Disposition</t>
+          <t>Consumable Materials</t>
         </is>
       </c>
       <c r="G313" s="3" t="inlineStr">
@@ -12382,7 +12418,7 @@
         </is>
       </c>
       <c r="C314" s="4" t="n">
-        <v>134.07</v>
+        <v>1838.55</v>
       </c>
       <c r="D314" s="3" t="inlineStr">
         <is>
@@ -12396,7 +12432,7 @@
       </c>
       <c r="F314" s="3" t="inlineStr">
         <is>
-          <t>Fluctuating Fuel Recovery</t>
+          <t>Badger Hydrovac With Operator</t>
         </is>
       </c>
       <c r="G314" s="3" t="inlineStr">
@@ -12418,7 +12454,7 @@
         </is>
       </c>
       <c r="C315" s="4" t="n">
-        <v>72.93000000000001</v>
+        <v>157.08</v>
       </c>
       <c r="D315" s="3" t="inlineStr">
         <is>
@@ -12432,7 +12468,7 @@
       </c>
       <c r="F315" s="3" t="inlineStr">
         <is>
-          <t>Supply Water</t>
+          <t>Disposition</t>
         </is>
       </c>
       <c r="G315" s="3" t="inlineStr">
@@ -12454,7 +12490,7 @@
         </is>
       </c>
       <c r="C316" s="4" t="n">
-        <v>30.29</v>
+        <v>134.07</v>
       </c>
       <c r="D316" s="3" t="inlineStr">
         <is>
@@ -12468,7 +12504,7 @@
       </c>
       <c r="F316" s="3" t="inlineStr">
         <is>
-          <t>Consumable Materials</t>
+          <t>Fluctuating Fuel Recovery</t>
         </is>
       </c>
       <c r="G316" s="3" t="inlineStr">
@@ -12490,7 +12526,7 @@
         </is>
       </c>
       <c r="C317" s="4" t="n">
-        <v>1313.25</v>
+        <v>72.93000000000001</v>
       </c>
       <c r="D317" s="3" t="inlineStr">
         <is>
@@ -12504,7 +12540,7 @@
       </c>
       <c r="F317" s="3" t="inlineStr">
         <is>
-          <t>Badger Hydrovac With Operator</t>
+          <t>Supply Water</t>
         </is>
       </c>
       <c r="G317" s="3" t="inlineStr">
@@ -12526,26 +12562,26 @@
         </is>
       </c>
       <c r="C318" s="4" t="n">
-        <v>217.18</v>
+        <v>30.29</v>
       </c>
       <c r="D318" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Invoice</t>
         </is>
       </c>
       <c r="E318" s="3" t="inlineStr">
         <is>
-          <t>2918076</t>
+          <t>CIN25-002</t>
         </is>
       </c>
       <c r="F318" s="3" t="inlineStr">
         <is>
-          <t>Fluctuating Fuel Recovery</t>
+          <t>Consumable Materials</t>
         </is>
       </c>
       <c r="G318" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>1100 · Trade Debtors</t>
         </is>
       </c>
       <c r="H318" s="5" t="n">
@@ -12562,26 +12598,26 @@
         </is>
       </c>
       <c r="C319" s="4" t="n">
-        <v>218.79</v>
+        <v>1313.25</v>
       </c>
       <c r="D319" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Invoice</t>
         </is>
       </c>
       <c r="E319" s="3" t="inlineStr">
         <is>
-          <t>2918076</t>
+          <t>CIN25-002</t>
         </is>
       </c>
       <c r="F319" s="3" t="inlineStr">
         <is>
-          <t>Supply Water</t>
+          <t>Badger Hydrovac With Operator</t>
         </is>
       </c>
       <c r="G319" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>1100 · Trade Debtors</t>
         </is>
       </c>
       <c r="H319" s="5" t="n">
@@ -12598,26 +12634,26 @@
         </is>
       </c>
       <c r="C320" s="4" t="n">
-        <v>90.87</v>
+        <v>251.22</v>
       </c>
       <c r="D320" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Invoice</t>
         </is>
       </c>
       <c r="E320" s="3" t="inlineStr">
         <is>
-          <t>2918076</t>
+          <t>CIN25-002</t>
         </is>
       </c>
       <c r="F320" s="3" t="inlineStr">
         <is>
-          <t>Consumable Materials</t>
+          <t>Fluctuating Fuel Recovery</t>
         </is>
       </c>
       <c r="G320" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>1100 · Trade Debtors</t>
         </is>
       </c>
       <c r="H320" s="5" t="n">
@@ -12634,26 +12670,26 @@
         </is>
       </c>
       <c r="C321" s="4" t="n">
-        <v>6303.6</v>
+        <v>72.93000000000001</v>
       </c>
       <c r="D321" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Invoice</t>
         </is>
       </c>
       <c r="E321" s="3" t="inlineStr">
         <is>
-          <t>2918076</t>
+          <t>CIN25-002</t>
         </is>
       </c>
       <c r="F321" s="3" t="inlineStr">
         <is>
-          <t>Badger Hydrovac With Operator</t>
+          <t>Supply Water</t>
         </is>
       </c>
       <c r="G321" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>1100 · Trade Debtors</t>
         </is>
       </c>
       <c r="H321" s="5" t="n">
@@ -12670,26 +12706,26 @@
         </is>
       </c>
       <c r="C322" s="4" t="n">
-        <v>471.24</v>
+        <v>30.29</v>
       </c>
       <c r="D322" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Invoice</t>
         </is>
       </c>
       <c r="E322" s="3" t="inlineStr">
         <is>
-          <t>2918076</t>
+          <t>CIN25-002</t>
         </is>
       </c>
       <c r="F322" s="3" t="inlineStr">
         <is>
-          <t>Disposition</t>
+          <t>Consumable Materials</t>
         </is>
       </c>
       <c r="G322" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>1100 · Trade Debtors</t>
         </is>
       </c>
       <c r="H322" s="5" t="n">
@@ -12706,16 +12742,16 @@
         </is>
       </c>
       <c r="C323" s="4" t="n">
-        <v>440.33</v>
+        <v>587.1</v>
       </c>
       <c r="D323" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Invoice</t>
         </is>
       </c>
       <c r="E323" s="3" t="inlineStr">
         <is>
-          <t>2918076</t>
+          <t>CIN25-002</t>
         </is>
       </c>
       <c r="F323" s="3" t="inlineStr">
@@ -12725,7 +12761,7 @@
       </c>
       <c r="G323" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>1100 · Trade Debtors</t>
         </is>
       </c>
       <c r="H323" s="5" t="n">
@@ -12742,26 +12778,26 @@
         </is>
       </c>
       <c r="C324" s="4" t="n">
-        <v>398.35</v>
+        <v>2101.2</v>
       </c>
       <c r="D324" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Invoice</t>
         </is>
       </c>
       <c r="E324" s="3" t="inlineStr">
         <is>
-          <t>2918076</t>
+          <t>CIN25-002</t>
         </is>
       </c>
       <c r="F324" s="3" t="inlineStr">
         <is>
-          <t>Fluctuating Fuel Recovery</t>
+          <t>Badger Hydrovac With Operator</t>
         </is>
       </c>
       <c r="G324" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>1100 · Trade Debtors</t>
         </is>
       </c>
       <c r="H324" s="5" t="n">
@@ -12770,214 +12806,214 @@
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>45902</v>
+        <v>45900</v>
       </c>
       <c r="B325" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5120 · Outside services (Direct)</t>
         </is>
       </c>
       <c r="C325" s="4" t="n">
-        <v>259.9</v>
+        <v>157.08</v>
       </c>
       <c r="D325" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Invoice</t>
         </is>
       </c>
       <c r="E325" s="3" t="inlineStr">
         <is>
-          <t>9627240501</t>
+          <t>CIN25-002</t>
         </is>
       </c>
       <c r="F325" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> FOIL TAPE,2 1/2 IN X 50 YD,ALUMINUM</t>
+          <t>Disposition</t>
         </is>
       </c>
       <c r="G325" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>1100 · Trade Debtors</t>
         </is>
       </c>
       <c r="H325" s="5" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>45902</v>
+        <v>45900</v>
       </c>
       <c r="B326" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5120 · Outside services (Direct)</t>
         </is>
       </c>
       <c r="C326" s="4" t="n">
-        <v>20.27</v>
+        <v>157.08</v>
       </c>
       <c r="D326" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Invoice</t>
         </is>
       </c>
       <c r="E326" s="3" t="inlineStr">
         <is>
-          <t>9627240501</t>
+          <t>CIN25-002</t>
         </is>
       </c>
       <c r="F326" s="3" t="inlineStr">
         <is>
-          <t>TAx</t>
+          <t>Disposition</t>
         </is>
       </c>
       <c r="G326" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>1100 · Trade Debtors</t>
         </is>
       </c>
       <c r="H326" s="5" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>45902</v>
+        <v>45900</v>
       </c>
       <c r="B327" s="3" t="inlineStr">
         <is>
-          <t>5115 · Rent - Equipment (direct)</t>
+          <t>5120 · Outside services (Direct)</t>
         </is>
       </c>
       <c r="C327" s="4" t="n">
-        <v>2431</v>
+        <v>134.07</v>
       </c>
       <c r="D327" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Invoice</t>
         </is>
       </c>
       <c r="E327" s="3" t="inlineStr">
         <is>
-          <t>250645966-002</t>
+          <t>CIN25-002</t>
         </is>
       </c>
       <c r="F327" s="3" t="inlineStr">
         <is>
-          <t>SKID STEER TRACK LOADER 1700-1999#</t>
+          <t>Fluctuating Fuel Recovery</t>
         </is>
       </c>
       <c r="G327" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>1100 · Trade Debtors</t>
         </is>
       </c>
       <c r="H327" s="5" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>45902</v>
+        <v>45900</v>
       </c>
       <c r="B328" s="3" t="inlineStr">
         <is>
-          <t>5115 · Rent - Equipment (direct)</t>
-        </is>
-      </c>
-      <c r="C328" s="3" t="n">
-        <v>0</v>
+          <t>5120 · Outside services (Direct)</t>
+        </is>
+      </c>
+      <c r="C328" s="4" t="n">
+        <v>72.93000000000001</v>
       </c>
       <c r="D328" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Invoice</t>
         </is>
       </c>
       <c r="E328" s="3" t="inlineStr">
         <is>
-          <t>250645966-002</t>
+          <t>CIN25-002</t>
         </is>
       </c>
       <c r="F328" s="3" t="inlineStr">
         <is>
-          <t>Delivery &amp; Pick Up</t>
+          <t>Supply Water</t>
         </is>
       </c>
       <c r="G328" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>1100 · Trade Debtors</t>
         </is>
       </c>
       <c r="H328" s="5" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>45902</v>
+        <v>45900</v>
       </c>
       <c r="B329" s="3" t="inlineStr">
         <is>
-          <t>5115 · Rent - Equipment (direct)</t>
+          <t>5120 · Outside services (Direct)</t>
         </is>
       </c>
       <c r="C329" s="4" t="n">
-        <v>242.03</v>
+        <v>30.29</v>
       </c>
       <c r="D329" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Invoice</t>
         </is>
       </c>
       <c r="E329" s="3" t="inlineStr">
         <is>
-          <t>250645966-002</t>
+          <t>CIN25-002</t>
         </is>
       </c>
       <c r="F329" s="3" t="inlineStr">
         <is>
-          <t>Service Charge &amp; tax</t>
+          <t>Consumable Materials</t>
         </is>
       </c>
       <c r="G329" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>1100 · Trade Debtors</t>
         </is>
       </c>
       <c r="H329" s="5" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>45903</v>
+        <v>45900</v>
       </c>
       <c r="B330" s="3" t="inlineStr">
         <is>
-          <t>5006 · Drilling Expense</t>
+          <t>5120 · Outside services (Direct)</t>
         </is>
       </c>
       <c r="C330" s="4" t="n">
-        <v>253207.5</v>
+        <v>1313.25</v>
       </c>
       <c r="D330" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Invoice</t>
         </is>
       </c>
       <c r="E330" s="3" t="inlineStr">
         <is>
-          <t>12938</t>
+          <t>CIN25-002</t>
         </is>
       </c>
       <c r="F330" s="3" t="inlineStr">
         <is>
-          <t>Driling Program Locatedat 4953 Secrion Ave, Cincinnati Ohio</t>
+          <t>Badger Hydrovac With Operator</t>
         </is>
       </c>
       <c r="G330" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>1100 · Trade Debtors</t>
         </is>
       </c>
       <c r="H330" s="5" t="n">
@@ -12986,15 +13022,15 @@
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>45903</v>
+        <v>45900</v>
       </c>
       <c r="B331" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5120 · Outside services (Direct)</t>
         </is>
       </c>
       <c r="C331" s="4" t="n">
-        <v>1282.4</v>
+        <v>217.18</v>
       </c>
       <c r="D331" s="3" t="inlineStr">
         <is>
@@ -13003,12 +13039,12 @@
       </c>
       <c r="E331" s="3" t="inlineStr">
         <is>
-          <t>102937</t>
+          <t>2918076</t>
         </is>
       </c>
       <c r="F331" s="3" t="inlineStr">
         <is>
-          <t>SAND GS 4-050 (0.132 X 0.066) 56/PAL</t>
+          <t>Fluctuating Fuel Recovery</t>
         </is>
       </c>
       <c r="G331" s="3" t="inlineStr">
@@ -13017,20 +13053,20 @@
         </is>
       </c>
       <c r="H331" s="5" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>45903</v>
+        <v>45900</v>
       </c>
       <c r="B332" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5120 · Outside services (Direct)</t>
         </is>
       </c>
       <c r="C332" s="4" t="n">
-        <v>117.58</v>
+        <v>218.79</v>
       </c>
       <c r="D332" s="3" t="inlineStr">
         <is>
@@ -13039,12 +13075,12 @@
       </c>
       <c r="E332" s="3" t="inlineStr">
         <is>
-          <t>102937</t>
+          <t>2918076</t>
         </is>
       </c>
       <c r="F332" s="3" t="inlineStr">
         <is>
-          <t>tax</t>
+          <t>Supply Water</t>
         </is>
       </c>
       <c r="G332" s="3" t="inlineStr">
@@ -13053,20 +13089,20 @@
         </is>
       </c>
       <c r="H332" s="5" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>45903</v>
+        <v>45900</v>
       </c>
       <c r="B333" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5120 · Outside services (Direct)</t>
         </is>
       </c>
       <c r="C333" s="4" t="n">
-        <v>2334.44</v>
+        <v>90.87</v>
       </c>
       <c r="D333" s="3" t="inlineStr">
         <is>
@@ -13075,12 +13111,12 @@
       </c>
       <c r="E333" s="3" t="inlineStr">
         <is>
-          <t>92118089-4</t>
+          <t>2918076</t>
         </is>
       </c>
       <c r="F333" s="3" t="inlineStr">
         <is>
-          <t>|GATE VLV LF BRS 2" THD 200 F (7)</t>
+          <t>Consumable Materials</t>
         </is>
       </c>
       <c r="G333" s="3" t="inlineStr">
@@ -13089,20 +13125,20 @@
         </is>
       </c>
       <c r="H333" s="5" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>45903</v>
+        <v>45900</v>
       </c>
       <c r="B334" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5120 · Outside services (Direct)</t>
         </is>
       </c>
       <c r="C334" s="4" t="n">
-        <v>128.39</v>
+        <v>6303.6</v>
       </c>
       <c r="D334" s="3" t="inlineStr">
         <is>
@@ -13111,12 +13147,12 @@
       </c>
       <c r="E334" s="3" t="inlineStr">
         <is>
-          <t>92118089-4</t>
+          <t>2918076</t>
         </is>
       </c>
       <c r="F334" s="3" t="inlineStr">
         <is>
-          <t>Tax</t>
+          <t>Badger Hydrovac With Operator</t>
         </is>
       </c>
       <c r="G334" s="3" t="inlineStr">
@@ -13125,20 +13161,20 @@
         </is>
       </c>
       <c r="H334" s="5" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>45903</v>
+        <v>45900</v>
       </c>
       <c r="B335" s="3" t="inlineStr">
         <is>
-          <t>5121 · Freight &amp; Shipping (Direct)</t>
+          <t>5120 · Outside services (Direct)</t>
         </is>
       </c>
       <c r="C335" s="4" t="n">
-        <v>225</v>
+        <v>471.24</v>
       </c>
       <c r="D335" s="3" t="inlineStr">
         <is>
@@ -13147,12 +13183,12 @@
       </c>
       <c r="E335" s="3" t="inlineStr">
         <is>
-          <t>102937</t>
+          <t>2918076</t>
         </is>
       </c>
       <c r="F335" s="3" t="inlineStr">
         <is>
-          <t>Shpping</t>
+          <t>Disposition</t>
         </is>
       </c>
       <c r="G335" s="3" t="inlineStr">
@@ -13161,48 +13197,48 @@
         </is>
       </c>
       <c r="H335" s="5" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>45905</v>
+        <v>45900</v>
       </c>
       <c r="B336" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5120 · Outside services (Direct)</t>
         </is>
       </c>
       <c r="C336" s="4" t="n">
-        <v>350</v>
+        <v>440.33</v>
       </c>
       <c r="D336" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="E336" s="3" t="inlineStr">
         <is>
-          <t>16762</t>
+          <t>2918076</t>
         </is>
       </c>
       <c r="F336" s="3" t="inlineStr">
         <is>
-          <t>Robert Winchell Per diem for week of 9/8/2025 - 9/14/2025</t>
+          <t>Badger Hydrovac With Operator - Overtime</t>
         </is>
       </c>
       <c r="G336" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="H336" s="5" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>45905</v>
+        <v>45900</v>
       </c>
       <c r="B337" s="3" t="inlineStr">
         <is>
@@ -13210,7 +13246,7 @@
         </is>
       </c>
       <c r="C337" s="4" t="n">
-        <v>193.17</v>
+        <v>398.35</v>
       </c>
       <c r="D337" s="3" t="inlineStr">
         <is>
@@ -13219,7 +13255,7 @@
       </c>
       <c r="E337" s="3" t="inlineStr">
         <is>
-          <t>2920316</t>
+          <t>2918076</t>
         </is>
       </c>
       <c r="F337" s="3" t="inlineStr">
@@ -13233,20 +13269,20 @@
         </is>
       </c>
       <c r="H337" s="5" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>45905</v>
+        <v>45902</v>
       </c>
       <c r="B338" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C338" s="4" t="n">
-        <v>72.93000000000001</v>
+        <v>259.9</v>
       </c>
       <c r="D338" s="3" t="inlineStr">
         <is>
@@ -13255,12 +13291,12 @@
       </c>
       <c r="E338" s="3" t="inlineStr">
         <is>
-          <t>2920316</t>
+          <t>9627240501</t>
         </is>
       </c>
       <c r="F338" s="3" t="inlineStr">
         <is>
-          <t>Supply Water</t>
+          <t xml:space="preserve"> FOIL TAPE,2 1/2 IN X 50 YD,ALUMINUM</t>
         </is>
       </c>
       <c r="G338" s="3" t="inlineStr">
@@ -13274,15 +13310,15 @@
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>45905</v>
+        <v>45902</v>
       </c>
       <c r="B339" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C339" s="4" t="n">
-        <v>30.29</v>
+        <v>20.27</v>
       </c>
       <c r="D339" s="3" t="inlineStr">
         <is>
@@ -13291,12 +13327,12 @@
       </c>
       <c r="E339" s="3" t="inlineStr">
         <is>
-          <t>2920316</t>
+          <t>9627240501</t>
         </is>
       </c>
       <c r="F339" s="3" t="inlineStr">
         <is>
-          <t>Consumable Materials</t>
+          <t>TAx</t>
         </is>
       </c>
       <c r="G339" s="3" t="inlineStr">
@@ -13310,15 +13346,15 @@
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>45905</v>
+        <v>45902</v>
       </c>
       <c r="B340" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5115 · Rent - Equipment (direct)</t>
         </is>
       </c>
       <c r="C340" s="4" t="n">
-        <v>2101.2</v>
+        <v>2431</v>
       </c>
       <c r="D340" s="3" t="inlineStr">
         <is>
@@ -13327,12 +13363,12 @@
       </c>
       <c r="E340" s="3" t="inlineStr">
         <is>
-          <t>2920316</t>
+          <t>250645966-002</t>
         </is>
       </c>
       <c r="F340" s="3" t="inlineStr">
         <is>
-          <t>Badger Hydrovac With Operator</t>
+          <t>SKID STEER TRACK LOADER 1700-1999#</t>
         </is>
       </c>
       <c r="G340" s="3" t="inlineStr">
@@ -13346,15 +13382,15 @@
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>45905</v>
+        <v>45902</v>
       </c>
       <c r="B341" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
-        </is>
-      </c>
-      <c r="C341" s="4" t="n">
-        <v>157.08</v>
+          <t>5115 · Rent - Equipment (direct)</t>
+        </is>
+      </c>
+      <c r="C341" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="D341" s="3" t="inlineStr">
         <is>
@@ -13363,12 +13399,12 @@
       </c>
       <c r="E341" s="3" t="inlineStr">
         <is>
-          <t>2920316</t>
+          <t>250645966-002</t>
         </is>
       </c>
       <c r="F341" s="3" t="inlineStr">
         <is>
-          <t>Disposition</t>
+          <t>Delivery &amp; Pick Up</t>
         </is>
       </c>
       <c r="G341" s="3" t="inlineStr">
@@ -13382,15 +13418,15 @@
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>45908</v>
+        <v>45902</v>
       </c>
       <c r="B342" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5115 · Rent - Equipment (direct)</t>
         </is>
       </c>
       <c r="C342" s="4" t="n">
-        <v>205.18</v>
+        <v>242.03</v>
       </c>
       <c r="D342" s="3" t="inlineStr">
         <is>
@@ -13399,12 +13435,12 @@
       </c>
       <c r="E342" s="3" t="inlineStr">
         <is>
-          <t>2921566</t>
+          <t>250645966-002</t>
         </is>
       </c>
       <c r="F342" s="3" t="inlineStr">
         <is>
-          <t>Fluctuating Fuel Recovery</t>
+          <t>Service Charge &amp; tax</t>
         </is>
       </c>
       <c r="G342" s="3" t="inlineStr">
@@ -13418,15 +13454,15 @@
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>45908</v>
+        <v>45903</v>
       </c>
       <c r="B343" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5006 · Drilling Expense</t>
         </is>
       </c>
       <c r="C343" s="4" t="n">
-        <v>72.93000000000001</v>
+        <v>253207.5</v>
       </c>
       <c r="D343" s="3" t="inlineStr">
         <is>
@@ -13435,12 +13471,12 @@
       </c>
       <c r="E343" s="3" t="inlineStr">
         <is>
-          <t>2921566</t>
+          <t>12938</t>
         </is>
       </c>
       <c r="F343" s="3" t="inlineStr">
         <is>
-          <t>Supply Water</t>
+          <t>Driling Program Locatedat 4953 Secrion Ave, Cincinnati Ohio</t>
         </is>
       </c>
       <c r="G343" s="3" t="inlineStr">
@@ -13449,20 +13485,20 @@
         </is>
       </c>
       <c r="H343" s="5" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>45908</v>
+        <v>45903</v>
       </c>
       <c r="B344" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C344" s="4" t="n">
-        <v>30.29</v>
+        <v>1282.4</v>
       </c>
       <c r="D344" s="3" t="inlineStr">
         <is>
@@ -13471,12 +13507,12 @@
       </c>
       <c r="E344" s="3" t="inlineStr">
         <is>
-          <t>2921566</t>
+          <t>102937</t>
         </is>
       </c>
       <c r="F344" s="3" t="inlineStr">
         <is>
-          <t>Consumable Materials</t>
+          <t>SAND GS 4-050 (0.132 X 0.066) 56/PAL</t>
         </is>
       </c>
       <c r="G344" s="3" t="inlineStr">
@@ -13490,15 +13526,15 @@
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>45908</v>
+        <v>45903</v>
       </c>
       <c r="B345" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C345" s="4" t="n">
-        <v>2101.2</v>
+        <v>117.58</v>
       </c>
       <c r="D345" s="3" t="inlineStr">
         <is>
@@ -13507,12 +13543,12 @@
       </c>
       <c r="E345" s="3" t="inlineStr">
         <is>
-          <t>2921566</t>
+          <t>102937</t>
         </is>
       </c>
       <c r="F345" s="3" t="inlineStr">
         <is>
-          <t>Badger Hydrovac With Operator</t>
+          <t>tax</t>
         </is>
       </c>
       <c r="G345" s="3" t="inlineStr">
@@ -13526,15 +13562,15 @@
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>45908</v>
+        <v>45903</v>
       </c>
       <c r="B346" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C346" s="4" t="n">
-        <v>157.08</v>
+        <v>2334.44</v>
       </c>
       <c r="D346" s="3" t="inlineStr">
         <is>
@@ -13543,12 +13579,12 @@
       </c>
       <c r="E346" s="3" t="inlineStr">
         <is>
-          <t>2921566</t>
+          <t>92118089-4</t>
         </is>
       </c>
       <c r="F346" s="3" t="inlineStr">
         <is>
-          <t>Disposition</t>
+          <t>|GATE VLV LF BRS 2" THD 200 F (7)</t>
         </is>
       </c>
       <c r="G346" s="3" t="inlineStr">
@@ -13562,15 +13598,15 @@
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>45908</v>
+        <v>45903</v>
       </c>
       <c r="B347" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C347" s="4" t="n">
-        <v>146.78</v>
+        <v>128.39</v>
       </c>
       <c r="D347" s="3" t="inlineStr">
         <is>
@@ -13579,12 +13615,12 @@
       </c>
       <c r="E347" s="3" t="inlineStr">
         <is>
-          <t>2921566</t>
+          <t>92118089-4</t>
         </is>
       </c>
       <c r="F347" s="3" t="inlineStr">
         <is>
-          <t>Badger Hydrovac With Operator</t>
+          <t>Tax</t>
         </is>
       </c>
       <c r="G347" s="3" t="inlineStr">
@@ -13598,15 +13634,15 @@
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>45909</v>
+        <v>45903</v>
       </c>
       <c r="B348" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5121 · Freight &amp; Shipping (Direct)</t>
         </is>
       </c>
       <c r="C348" s="4" t="n">
-        <v>157.08</v>
+        <v>225</v>
       </c>
       <c r="D348" s="3" t="inlineStr">
         <is>
@@ -13615,12 +13651,12 @@
       </c>
       <c r="E348" s="3" t="inlineStr">
         <is>
-          <t>2922336</t>
+          <t>102937</t>
         </is>
       </c>
       <c r="F348" s="3" t="inlineStr">
         <is>
-          <t>Disposition</t>
+          <t>Shpping</t>
         </is>
       </c>
       <c r="G348" s="3" t="inlineStr">
@@ -13634,34 +13670,34 @@
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>45909</v>
+        <v>45905</v>
       </c>
       <c r="B349" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
         </is>
       </c>
       <c r="C349" s="4" t="n">
-        <v>160.94</v>
+        <v>350</v>
       </c>
       <c r="D349" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>General Journal</t>
         </is>
       </c>
       <c r="E349" s="3" t="inlineStr">
         <is>
-          <t>2922336</t>
+          <t>16762</t>
         </is>
       </c>
       <c r="F349" s="3" t="inlineStr">
         <is>
-          <t>Fluctuating Fuel Recovery</t>
+          <t>Robert Winchell Per diem for week of 9/8/2025 - 9/14/2025</t>
         </is>
       </c>
       <c r="G349" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
       <c r="H349" s="5" t="n">
@@ -13670,7 +13706,7 @@
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>45909</v>
+        <v>45905</v>
       </c>
       <c r="B350" s="3" t="inlineStr">
         <is>
@@ -13678,7 +13714,7 @@
         </is>
       </c>
       <c r="C350" s="4" t="n">
-        <v>72.93000000000001</v>
+        <v>193.17</v>
       </c>
       <c r="D350" s="3" t="inlineStr">
         <is>
@@ -13687,12 +13723,12 @@
       </c>
       <c r="E350" s="3" t="inlineStr">
         <is>
-          <t>2922336</t>
+          <t>2920316</t>
         </is>
       </c>
       <c r="F350" s="3" t="inlineStr">
         <is>
-          <t>Supply Water</t>
+          <t>Fluctuating Fuel Recovery</t>
         </is>
       </c>
       <c r="G350" s="3" t="inlineStr">
@@ -13706,7 +13742,7 @@
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>45909</v>
+        <v>45905</v>
       </c>
       <c r="B351" s="3" t="inlineStr">
         <is>
@@ -13714,7 +13750,7 @@
         </is>
       </c>
       <c r="C351" s="4" t="n">
-        <v>30.29</v>
+        <v>72.93000000000001</v>
       </c>
       <c r="D351" s="3" t="inlineStr">
         <is>
@@ -13723,12 +13759,12 @@
       </c>
       <c r="E351" s="3" t="inlineStr">
         <is>
-          <t>2922336</t>
+          <t>2920316</t>
         </is>
       </c>
       <c r="F351" s="3" t="inlineStr">
         <is>
-          <t>Consumable Materials</t>
+          <t>Supply Water</t>
         </is>
       </c>
       <c r="G351" s="3" t="inlineStr">
@@ -13742,7 +13778,7 @@
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>45909</v>
+        <v>45905</v>
       </c>
       <c r="B352" s="3" t="inlineStr">
         <is>
@@ -13750,7 +13786,7 @@
         </is>
       </c>
       <c r="C352" s="4" t="n">
-        <v>1707.23</v>
+        <v>30.29</v>
       </c>
       <c r="D352" s="3" t="inlineStr">
         <is>
@@ -13759,12 +13795,12 @@
       </c>
       <c r="E352" s="3" t="inlineStr">
         <is>
-          <t>2922336</t>
+          <t>2920316</t>
         </is>
       </c>
       <c r="F352" s="3" t="inlineStr">
         <is>
-          <t>Badger Hydrovac With Operator</t>
+          <t>Consumable Materials</t>
         </is>
       </c>
       <c r="G352" s="3" t="inlineStr">
@@ -13778,15 +13814,15 @@
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>45910</v>
+        <v>45905</v>
       </c>
       <c r="B353" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5120 · Outside services (Direct)</t>
         </is>
       </c>
       <c r="C353" s="4" t="n">
-        <v>53.6</v>
+        <v>2101.2</v>
       </c>
       <c r="D353" s="3" t="inlineStr">
         <is>
@@ -13795,12 +13831,12 @@
       </c>
       <c r="E353" s="3" t="inlineStr">
         <is>
-          <t>18339594</t>
+          <t>2920316</t>
         </is>
       </c>
       <c r="F353" s="3" t="inlineStr">
         <is>
-          <t>Tax</t>
+          <t>Badger Hydrovac With Operator</t>
         </is>
       </c>
       <c r="G353" s="3" t="inlineStr">
@@ -13814,15 +13850,15 @@
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>45911</v>
+        <v>45905</v>
       </c>
       <c r="B354" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5120 · Outside services (Direct)</t>
         </is>
       </c>
       <c r="C354" s="4" t="n">
-        <v>82.98999999999999</v>
+        <v>157.08</v>
       </c>
       <c r="D354" s="3" t="inlineStr">
         <is>
@@ -13831,12 +13867,12 @@
       </c>
       <c r="E354" s="3" t="inlineStr">
         <is>
-          <t>1295793-0002</t>
+          <t>2920316</t>
         </is>
       </c>
       <c r="F354" s="3" t="inlineStr">
         <is>
-          <t>Tax</t>
+          <t>Disposition</t>
         </is>
       </c>
       <c r="G354" s="3" t="inlineStr">
@@ -13850,15 +13886,15 @@
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>45911</v>
+        <v>45908</v>
       </c>
       <c r="B355" s="3" t="inlineStr">
         <is>
-          <t>5115 · Rent - Equipment (direct)</t>
+          <t>5120 · Outside services (Direct)</t>
         </is>
       </c>
       <c r="C355" s="4" t="n">
-        <v>1064</v>
+        <v>205.18</v>
       </c>
       <c r="D355" s="3" t="inlineStr">
         <is>
@@ -13867,12 +13903,12 @@
       </c>
       <c r="E355" s="3" t="inlineStr">
         <is>
-          <t>1295793-0002</t>
+          <t>2921566</t>
         </is>
       </c>
       <c r="F355" s="3" t="inlineStr">
         <is>
-          <t>TANK-FRAC-WEIR-450BBL-V</t>
+          <t>Fluctuating Fuel Recovery</t>
         </is>
       </c>
       <c r="G355" s="3" t="inlineStr">
@@ -13886,15 +13922,15 @@
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>45911</v>
+        <v>45908</v>
       </c>
       <c r="B356" s="3" t="inlineStr">
         <is>
-          <t>5121 · Freight &amp; Shipping (Direct)</t>
+          <t>5120 · Outside services (Direct)</t>
         </is>
       </c>
       <c r="C356" s="4" t="n">
-        <v>31.92</v>
+        <v>72.93000000000001</v>
       </c>
       <c r="D356" s="3" t="inlineStr">
         <is>
@@ -13903,12 +13939,12 @@
       </c>
       <c r="E356" s="3" t="inlineStr">
         <is>
-          <t>1295793-0002</t>
+          <t>2921566</t>
         </is>
       </c>
       <c r="F356" s="3" t="inlineStr">
         <is>
-          <t>ENVIRONMENTAL RECOVERY FEE</t>
+          <t>Supply Water</t>
         </is>
       </c>
       <c r="G356" s="3" t="inlineStr">
@@ -13922,34 +13958,34 @@
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>45915</v>
+        <v>45908</v>
       </c>
       <c r="B357" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5120 · Outside services (Direct)</t>
         </is>
       </c>
       <c r="C357" s="4" t="n">
-        <v>300</v>
+        <v>30.29</v>
       </c>
       <c r="D357" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="E357" s="3" t="inlineStr">
         <is>
-          <t>16767</t>
+          <t>2921566</t>
         </is>
       </c>
       <c r="F357" s="3" t="inlineStr">
         <is>
-          <t>Andy Remillard Per diem for week of 9/15/2025 - 9/21/2025</t>
+          <t>Consumable Materials</t>
         </is>
       </c>
       <c r="G357" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="H357" s="5" t="n">
@@ -13958,34 +13994,34 @@
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>45915</v>
+        <v>45908</v>
       </c>
       <c r="B358" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5120 · Outside services (Direct)</t>
         </is>
       </c>
       <c r="C358" s="4" t="n">
-        <v>700</v>
+        <v>2101.2</v>
       </c>
       <c r="D358" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="E358" s="3" t="inlineStr">
         <is>
-          <t>16767</t>
+          <t>2921566</t>
         </is>
       </c>
       <c r="F358" s="3" t="inlineStr">
         <is>
-          <t>Jack Rothe Per diem for week of 9/15/2025 - 9/21/2025</t>
+          <t>Badger Hydrovac With Operator</t>
         </is>
       </c>
       <c r="G358" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="H358" s="5" t="n">
@@ -13994,34 +14030,34 @@
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>45915</v>
+        <v>45908</v>
       </c>
       <c r="B359" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5120 · Outside services (Direct)</t>
         </is>
       </c>
       <c r="C359" s="4" t="n">
-        <v>150</v>
+        <v>157.08</v>
       </c>
       <c r="D359" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="E359" s="3" t="inlineStr">
         <is>
-          <t>16767</t>
+          <t>2921566</t>
         </is>
       </c>
       <c r="F359" s="3" t="inlineStr">
         <is>
-          <t>Mike Cogswell Per diem for week of 9/15/2025 - 9/21/2025</t>
+          <t>Disposition</t>
         </is>
       </c>
       <c r="G359" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="H359" s="5" t="n">
@@ -14030,34 +14066,34 @@
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>45915</v>
+        <v>45908</v>
       </c>
       <c r="B360" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5120 · Outside services (Direct)</t>
         </is>
       </c>
       <c r="C360" s="4" t="n">
-        <v>300</v>
+        <v>146.78</v>
       </c>
       <c r="D360" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="E360" s="3" t="inlineStr">
         <is>
-          <t>16767</t>
+          <t>2921566</t>
         </is>
       </c>
       <c r="F360" s="3" t="inlineStr">
         <is>
-          <t>Robert Winchell Per diem for week of 9/15/2025 - 9/21/2025</t>
+          <t>Badger Hydrovac With Operator</t>
         </is>
       </c>
       <c r="G360" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="H360" s="5" t="n">
@@ -14066,15 +14102,15 @@
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>45915</v>
+        <v>45909</v>
       </c>
       <c r="B361" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5120 · Outside services (Direct)</t>
         </is>
       </c>
       <c r="C361" s="4" t="n">
-        <v>293.55</v>
+        <v>157.08</v>
       </c>
       <c r="D361" s="3" t="inlineStr">
         <is>
@@ -14083,12 +14119,12 @@
       </c>
       <c r="E361" s="3" t="inlineStr">
         <is>
-          <t>2925191</t>
+          <t>2922336</t>
         </is>
       </c>
       <c r="F361" s="3" t="inlineStr">
         <is>
-          <t>Badger Hydrovac With Operator - Overtime</t>
+          <t>Disposition</t>
         </is>
       </c>
       <c r="G361" s="3" t="inlineStr">
@@ -14102,7 +14138,7 @@
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>45915</v>
+        <v>45909</v>
       </c>
       <c r="B362" s="3" t="inlineStr">
         <is>
@@ -14110,7 +14146,7 @@
         </is>
       </c>
       <c r="C362" s="4" t="n">
-        <v>217.18</v>
+        <v>160.94</v>
       </c>
       <c r="D362" s="3" t="inlineStr">
         <is>
@@ -14119,7 +14155,7 @@
       </c>
       <c r="E362" s="3" t="inlineStr">
         <is>
-          <t>2925191</t>
+          <t>2922336</t>
         </is>
       </c>
       <c r="F362" s="3" t="inlineStr">
@@ -14138,7 +14174,7 @@
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>45915</v>
+        <v>45909</v>
       </c>
       <c r="B363" s="3" t="inlineStr">
         <is>
@@ -14155,7 +14191,7 @@
       </c>
       <c r="E363" s="3" t="inlineStr">
         <is>
-          <t>2925191</t>
+          <t>2922336</t>
         </is>
       </c>
       <c r="F363" s="3" t="inlineStr">
@@ -14174,7 +14210,7 @@
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>45915</v>
+        <v>45909</v>
       </c>
       <c r="B364" s="3" t="inlineStr">
         <is>
@@ -14191,7 +14227,7 @@
       </c>
       <c r="E364" s="3" t="inlineStr">
         <is>
-          <t>2925191</t>
+          <t>2922336</t>
         </is>
       </c>
       <c r="F364" s="3" t="inlineStr">
@@ -14210,7 +14246,7 @@
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>45915</v>
+        <v>45909</v>
       </c>
       <c r="B365" s="3" t="inlineStr">
         <is>
@@ -14218,7 +14254,7 @@
         </is>
       </c>
       <c r="C365" s="4" t="n">
-        <v>2101.2</v>
+        <v>1707.23</v>
       </c>
       <c r="D365" s="3" t="inlineStr">
         <is>
@@ -14227,7 +14263,7 @@
       </c>
       <c r="E365" s="3" t="inlineStr">
         <is>
-          <t>2925191</t>
+          <t>2922336</t>
         </is>
       </c>
       <c r="F365" s="3" t="inlineStr">
@@ -14246,15 +14282,15 @@
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>45915</v>
+        <v>45910</v>
       </c>
       <c r="B366" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C366" s="4" t="n">
-        <v>157.08</v>
+        <v>53.6</v>
       </c>
       <c r="D366" s="3" t="inlineStr">
         <is>
@@ -14263,12 +14299,12 @@
       </c>
       <c r="E366" s="3" t="inlineStr">
         <is>
-          <t>2925191</t>
+          <t>18339594</t>
         </is>
       </c>
       <c r="F366" s="3" t="inlineStr">
         <is>
-          <t>Disposition</t>
+          <t>Tax</t>
         </is>
       </c>
       <c r="G366" s="3" t="inlineStr">
@@ -14282,15 +14318,15 @@
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>45915</v>
+        <v>45911</v>
       </c>
       <c r="B367" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C367" s="4" t="n">
-        <v>201.2</v>
+        <v>82.98999999999999</v>
       </c>
       <c r="D367" s="3" t="inlineStr">
         <is>
@@ -14299,12 +14335,12 @@
       </c>
       <c r="E367" s="3" t="inlineStr">
         <is>
-          <t>2926158</t>
+          <t>1295793-0002</t>
         </is>
       </c>
       <c r="F367" s="3" t="inlineStr">
         <is>
-          <t>Fluctuating Fuel Recovery</t>
+          <t>Tax</t>
         </is>
       </c>
       <c r="G367" s="3" t="inlineStr">
@@ -14318,15 +14354,15 @@
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>45915</v>
+        <v>45911</v>
       </c>
       <c r="B368" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5115 · Rent - Equipment (direct)</t>
         </is>
       </c>
       <c r="C368" s="4" t="n">
-        <v>72.93000000000001</v>
+        <v>1064</v>
       </c>
       <c r="D368" s="3" t="inlineStr">
         <is>
@@ -14335,12 +14371,12 @@
       </c>
       <c r="E368" s="3" t="inlineStr">
         <is>
-          <t>2926158</t>
+          <t>1295793-0002</t>
         </is>
       </c>
       <c r="F368" s="3" t="inlineStr">
         <is>
-          <t>Supply Water</t>
+          <t>TANK-FRAC-WEIR-450BBL-V</t>
         </is>
       </c>
       <c r="G368" s="3" t="inlineStr">
@@ -14354,15 +14390,15 @@
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>45915</v>
+        <v>45911</v>
       </c>
       <c r="B369" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5121 · Freight &amp; Shipping (Direct)</t>
         </is>
       </c>
       <c r="C369" s="4" t="n">
-        <v>30.29</v>
+        <v>31.92</v>
       </c>
       <c r="D369" s="3" t="inlineStr">
         <is>
@@ -14371,12 +14407,12 @@
       </c>
       <c r="E369" s="3" t="inlineStr">
         <is>
-          <t>2926158</t>
+          <t>1295793-0002</t>
         </is>
       </c>
       <c r="F369" s="3" t="inlineStr">
         <is>
-          <t>Consumable Materials</t>
+          <t>ENVIRONMENTAL RECOVERY FEE</t>
         </is>
       </c>
       <c r="G369" s="3" t="inlineStr">
@@ -14394,30 +14430,30 @@
       </c>
       <c r="B370" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
         </is>
       </c>
       <c r="C370" s="4" t="n">
-        <v>2101.2</v>
+        <v>300</v>
       </c>
       <c r="D370" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>General Journal</t>
         </is>
       </c>
       <c r="E370" s="3" t="inlineStr">
         <is>
-          <t>2926158</t>
+          <t>16767</t>
         </is>
       </c>
       <c r="F370" s="3" t="inlineStr">
         <is>
-          <t>Badger Hydrovac With Operator</t>
+          <t>Andy Remillard Per diem for week of 9/15/2025 - 9/21/2025</t>
         </is>
       </c>
       <c r="G370" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
       <c r="H370" s="5" t="n">
@@ -14430,30 +14466,30 @@
       </c>
       <c r="B371" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
         </is>
       </c>
       <c r="C371" s="4" t="n">
-        <v>157.08</v>
+        <v>700</v>
       </c>
       <c r="D371" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>General Journal</t>
         </is>
       </c>
       <c r="E371" s="3" t="inlineStr">
         <is>
-          <t>2926158</t>
+          <t>16767</t>
         </is>
       </c>
       <c r="F371" s="3" t="inlineStr">
         <is>
-          <t>Disposition</t>
+          <t>Jack Rothe Per diem for week of 9/15/2025 - 9/21/2025</t>
         </is>
       </c>
       <c r="G371" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
       <c r="H371" s="5" t="n">
@@ -14462,7 +14498,7 @@
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>45922</v>
+        <v>45915</v>
       </c>
       <c r="B372" s="3" t="inlineStr">
         <is>
@@ -14470,7 +14506,7 @@
         </is>
       </c>
       <c r="C372" s="4" t="n">
-        <v>350</v>
+        <v>150</v>
       </c>
       <c r="D372" s="3" t="inlineStr">
         <is>
@@ -14479,12 +14515,12 @@
       </c>
       <c r="E372" s="3" t="inlineStr">
         <is>
-          <t>16768</t>
+          <t>16767</t>
         </is>
       </c>
       <c r="F372" s="3" t="inlineStr">
         <is>
-          <t>Andy Remillard Per diem for week of 9/22/2025 - 9/28/2025</t>
+          <t>Mike Cogswell Per diem for week of 9/15/2025 - 9/21/2025</t>
         </is>
       </c>
       <c r="G372" s="3" t="inlineStr">
@@ -14498,7 +14534,7 @@
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>45922</v>
+        <v>45915</v>
       </c>
       <c r="B373" s="3" t="inlineStr">
         <is>
@@ -14506,7 +14542,7 @@
         </is>
       </c>
       <c r="C373" s="4" t="n">
-        <v>650</v>
+        <v>300</v>
       </c>
       <c r="D373" s="3" t="inlineStr">
         <is>
@@ -14515,12 +14551,12 @@
       </c>
       <c r="E373" s="3" t="inlineStr">
         <is>
-          <t>16768</t>
+          <t>16767</t>
         </is>
       </c>
       <c r="F373" s="3" t="inlineStr">
         <is>
-          <t>Luke Giguere Per diem for week of 9/22/2025 - 9/28/2025</t>
+          <t>Robert Winchell Per diem for week of 9/15/2025 - 9/21/2025</t>
         </is>
       </c>
       <c r="G373" s="3" t="inlineStr">
@@ -14534,34 +14570,34 @@
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>45922</v>
+        <v>45915</v>
       </c>
       <c r="B374" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C374" s="4" t="n">
-        <v>300</v>
+        <v>293.55</v>
       </c>
       <c r="D374" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="E374" s="3" t="inlineStr">
         <is>
-          <t>16768</t>
+          <t>2925191</t>
         </is>
       </c>
       <c r="F374" s="3" t="inlineStr">
         <is>
-          <t>Michael Hyatt Per diem for week of 9/22/2025 - 9/28/2025</t>
+          <t>Badger Hydrovac With Operator - Overtime</t>
         </is>
       </c>
       <c r="G374" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="H374" s="5" t="n">
@@ -14570,34 +14606,34 @@
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>45922</v>
+        <v>45915</v>
       </c>
       <c r="B375" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5120 · Outside services (Direct)</t>
         </is>
       </c>
       <c r="C375" s="4" t="n">
-        <v>350</v>
+        <v>217.18</v>
       </c>
       <c r="D375" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="E375" s="3" t="inlineStr">
         <is>
-          <t>16768</t>
+          <t>2925191</t>
         </is>
       </c>
       <c r="F375" s="3" t="inlineStr">
         <is>
-          <t>Mike Cogswell Per diem for week of 9/22/2025 - 9/28/2025</t>
+          <t>Fluctuating Fuel Recovery</t>
         </is>
       </c>
       <c r="G375" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="H375" s="5" t="n">
@@ -14606,34 +14642,34 @@
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>45922</v>
+        <v>45915</v>
       </c>
       <c r="B376" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5120 · Outside services (Direct)</t>
         </is>
       </c>
       <c r="C376" s="4" t="n">
-        <v>150</v>
+        <v>72.93000000000001</v>
       </c>
       <c r="D376" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="E376" s="3" t="inlineStr">
         <is>
-          <t>16768</t>
+          <t>2925191</t>
         </is>
       </c>
       <c r="F376" s="3" t="inlineStr">
         <is>
-          <t>Ryan Ordelt Per diem for week of 9/22/2025 - 9/28/2025</t>
+          <t>Supply Water</t>
         </is>
       </c>
       <c r="G376" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="H376" s="5" t="n">
@@ -14642,34 +14678,34 @@
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>45922</v>
+        <v>45915</v>
       </c>
       <c r="B377" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5120 · Outside services (Direct)</t>
         </is>
       </c>
       <c r="C377" s="4" t="n">
-        <v>600</v>
+        <v>30.29</v>
       </c>
       <c r="D377" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="E377" s="3" t="inlineStr">
         <is>
-          <t>16768</t>
+          <t>2925191</t>
         </is>
       </c>
       <c r="F377" s="3" t="inlineStr">
         <is>
-          <t>Shane Morris Per diem for week of 9/22/2025 - 9/28/2025</t>
+          <t>Consumable Materials</t>
         </is>
       </c>
       <c r="G377" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="H377" s="5" t="n">
@@ -14678,34 +14714,34 @@
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>45922</v>
+        <v>45915</v>
       </c>
       <c r="B378" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5120 · Outside services (Direct)</t>
         </is>
       </c>
       <c r="C378" s="4" t="n">
-        <v>350</v>
+        <v>2101.2</v>
       </c>
       <c r="D378" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="E378" s="3" t="inlineStr">
         <is>
-          <t>16768</t>
+          <t>2925191</t>
         </is>
       </c>
       <c r="F378" s="3" t="inlineStr">
         <is>
-          <t>Vace Varasteh Per diem for week of 9/22/2025 - 9/28/2025</t>
+          <t>Badger Hydrovac With Operator</t>
         </is>
       </c>
       <c r="G378" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="H378" s="5" t="n">
@@ -14714,15 +14750,15 @@
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>45923</v>
+        <v>45915</v>
       </c>
       <c r="B379" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5120 · Outside services (Direct)</t>
         </is>
       </c>
       <c r="C379" s="4" t="n">
-        <v>293.55</v>
+        <v>157.08</v>
       </c>
       <c r="D379" s="3" t="inlineStr">
         <is>
@@ -14731,12 +14767,12 @@
       </c>
       <c r="E379" s="3" t="inlineStr">
         <is>
-          <t>2930215</t>
+          <t>2925191</t>
         </is>
       </c>
       <c r="F379" s="3" t="inlineStr">
         <is>
-          <t>Badger Hydrovac With Operator - Overtime</t>
+          <t>Disposition</t>
         </is>
       </c>
       <c r="G379" s="3" t="inlineStr">
@@ -14750,7 +14786,7 @@
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>45923</v>
+        <v>45915</v>
       </c>
       <c r="B380" s="3" t="inlineStr">
         <is>
@@ -14758,7 +14794,7 @@
         </is>
       </c>
       <c r="C380" s="4" t="n">
-        <v>217.18</v>
+        <v>201.2</v>
       </c>
       <c r="D380" s="3" t="inlineStr">
         <is>
@@ -14767,7 +14803,7 @@
       </c>
       <c r="E380" s="3" t="inlineStr">
         <is>
-          <t>2930215</t>
+          <t>2926158</t>
         </is>
       </c>
       <c r="F380" s="3" t="inlineStr">
@@ -14786,7 +14822,7 @@
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>45923</v>
+        <v>45915</v>
       </c>
       <c r="B381" s="3" t="inlineStr">
         <is>
@@ -14803,7 +14839,7 @@
       </c>
       <c r="E381" s="3" t="inlineStr">
         <is>
-          <t>2930215</t>
+          <t>2926158</t>
         </is>
       </c>
       <c r="F381" s="3" t="inlineStr">
@@ -14822,7 +14858,7 @@
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>45923</v>
+        <v>45915</v>
       </c>
       <c r="B382" s="3" t="inlineStr">
         <is>
@@ -14839,7 +14875,7 @@
       </c>
       <c r="E382" s="3" t="inlineStr">
         <is>
-          <t>2930215</t>
+          <t>2926158</t>
         </is>
       </c>
       <c r="F382" s="3" t="inlineStr">
@@ -14858,7 +14894,7 @@
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>45923</v>
+        <v>45915</v>
       </c>
       <c r="B383" s="3" t="inlineStr">
         <is>
@@ -14875,7 +14911,7 @@
       </c>
       <c r="E383" s="3" t="inlineStr">
         <is>
-          <t>2930215</t>
+          <t>2926158</t>
         </is>
       </c>
       <c r="F383" s="3" t="inlineStr">
@@ -14894,7 +14930,7 @@
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>45923</v>
+        <v>45915</v>
       </c>
       <c r="B384" s="3" t="inlineStr">
         <is>
@@ -14911,7 +14947,7 @@
       </c>
       <c r="E384" s="3" t="inlineStr">
         <is>
-          <t>2930215</t>
+          <t>2926158</t>
         </is>
       </c>
       <c r="F384" s="3" t="inlineStr">
@@ -14930,34 +14966,34 @@
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>45924</v>
+        <v>45922</v>
       </c>
       <c r="B385" s="3" t="inlineStr">
         <is>
-          <t>5115 · Rent - Equipment (direct)</t>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
         </is>
       </c>
       <c r="C385" s="4" t="n">
-        <v>4639</v>
+        <v>350</v>
       </c>
       <c r="D385" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>General Journal</t>
         </is>
       </c>
       <c r="E385" s="3" t="inlineStr">
         <is>
-          <t>250412474-003</t>
+          <t>16768</t>
         </is>
       </c>
       <c r="F385" s="3" t="inlineStr">
         <is>
-          <t>FORKLIFT VARIABLE REACH 10000# 50'-62'</t>
+          <t>Andy Remillard Per diem for week of 9/22/2025 - 9/28/2025</t>
         </is>
       </c>
       <c r="G385" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
       <c r="H385" s="5" t="n">
@@ -14966,34 +15002,34 @@
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>45924</v>
+        <v>45922</v>
       </c>
       <c r="B386" s="3" t="inlineStr">
         <is>
-          <t>5115 · Rent - Equipment (direct)</t>
-        </is>
-      </c>
-      <c r="C386" s="3" t="n">
-        <v>0</v>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
+        </is>
+      </c>
+      <c r="C386" s="4" t="n">
+        <v>650</v>
       </c>
       <c r="D386" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>General Journal</t>
         </is>
       </c>
       <c r="E386" s="3" t="inlineStr">
         <is>
-          <t>250412474-003</t>
+          <t>16768</t>
         </is>
       </c>
       <c r="F386" s="3" t="inlineStr">
         <is>
-          <t>Delivery &amp; Pick up charge</t>
+          <t>Luke Giguere Per diem for week of 9/22/2025 - 9/28/2025</t>
         </is>
       </c>
       <c r="G386" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
       <c r="H386" s="5" t="n">
@@ -15002,34 +15038,34 @@
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>45924</v>
+        <v>45922</v>
       </c>
       <c r="B387" s="3" t="inlineStr">
         <is>
-          <t>5115 · Rent - Equipment (direct)</t>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
         </is>
       </c>
       <c r="C387" s="4" t="n">
-        <v>461.86</v>
+        <v>300</v>
       </c>
       <c r="D387" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>General Journal</t>
         </is>
       </c>
       <c r="E387" s="3" t="inlineStr">
         <is>
-          <t>250412474-003</t>
+          <t>16768</t>
         </is>
       </c>
       <c r="F387" s="3" t="inlineStr">
         <is>
-          <t>Service Charge and Tax</t>
+          <t>Michael Hyatt Per diem for week of 9/22/2025 - 9/28/2025</t>
         </is>
       </c>
       <c r="G387" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
       <c r="H387" s="5" t="n">
@@ -15038,34 +15074,34 @@
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>45924</v>
+        <v>45922</v>
       </c>
       <c r="B388" s="3" t="inlineStr">
         <is>
-          <t>5115 · Rent - Equipment (direct)</t>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
         </is>
       </c>
       <c r="C388" s="4" t="n">
-        <v>2431</v>
+        <v>350</v>
       </c>
       <c r="D388" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>General Journal</t>
         </is>
       </c>
       <c r="E388" s="3" t="inlineStr">
         <is>
-          <t>250645966-003</t>
+          <t>16768</t>
         </is>
       </c>
       <c r="F388" s="3" t="inlineStr">
         <is>
-          <t>SKID STEER TRACK LOADER 1700-1999#</t>
+          <t>Mike Cogswell Per diem for week of 9/22/2025 - 9/28/2025</t>
         </is>
       </c>
       <c r="G388" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
       <c r="H388" s="5" t="n">
@@ -15074,34 +15110,34 @@
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>45924</v>
+        <v>45922</v>
       </c>
       <c r="B389" s="3" t="inlineStr">
         <is>
-          <t>5115 · Rent - Equipment (direct)</t>
-        </is>
-      </c>
-      <c r="C389" s="3" t="n">
-        <v>0</v>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
+        </is>
+      </c>
+      <c r="C389" s="4" t="n">
+        <v>150</v>
       </c>
       <c r="D389" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>General Journal</t>
         </is>
       </c>
       <c r="E389" s="3" t="inlineStr">
         <is>
-          <t>250645966-003</t>
+          <t>16768</t>
         </is>
       </c>
       <c r="F389" s="3" t="inlineStr">
         <is>
-          <t>Delivery &amp; Pick Up</t>
+          <t>Ryan Ordelt Per diem for week of 9/22/2025 - 9/28/2025</t>
         </is>
       </c>
       <c r="G389" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
       <c r="H389" s="5" t="n">
@@ -15110,34 +15146,34 @@
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>45924</v>
+        <v>45922</v>
       </c>
       <c r="B390" s="3" t="inlineStr">
         <is>
-          <t>5115 · Rent - Equipment (direct)</t>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
         </is>
       </c>
       <c r="C390" s="4" t="n">
-        <v>242.03</v>
+        <v>600</v>
       </c>
       <c r="D390" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>General Journal</t>
         </is>
       </c>
       <c r="E390" s="3" t="inlineStr">
         <is>
-          <t>250645966-003</t>
+          <t>16768</t>
         </is>
       </c>
       <c r="F390" s="3" t="inlineStr">
         <is>
-          <t>Service Charge &amp; tax</t>
+          <t>Shane Morris Per diem for week of 9/22/2025 - 9/28/2025</t>
         </is>
       </c>
       <c r="G390" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
       <c r="H390" s="5" t="n">
@@ -15146,34 +15182,34 @@
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>45925</v>
+        <v>45922</v>
       </c>
       <c r="B391" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
         </is>
       </c>
       <c r="C391" s="4" t="n">
-        <v>364.86</v>
+        <v>350</v>
       </c>
       <c r="D391" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>General Journal</t>
         </is>
       </c>
       <c r="E391" s="3" t="inlineStr">
         <is>
-          <t>2931435</t>
+          <t>16768</t>
         </is>
       </c>
       <c r="F391" s="3" t="inlineStr">
         <is>
-          <t>Fluctuating Fuel Recovery</t>
+          <t>Vace Varasteh Per diem for week of 9/22/2025 - 9/28/2025</t>
         </is>
       </c>
       <c r="G391" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
       <c r="H391" s="5" t="n">
@@ -15182,15 +15218,15 @@
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>45925</v>
+        <v>45923</v>
       </c>
       <c r="B392" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C392" s="4" t="n">
-        <v>145.86</v>
+        <v>293.55</v>
       </c>
       <c r="D392" s="3" t="inlineStr">
         <is>
@@ -15199,12 +15235,12 @@
       </c>
       <c r="E392" s="3" t="inlineStr">
         <is>
-          <t>2931435</t>
+          <t>2930215</t>
         </is>
       </c>
       <c r="F392" s="3" t="inlineStr">
         <is>
-          <t>Supply Water</t>
+          <t>Badger Hydrovac With Operator - Overtime</t>
         </is>
       </c>
       <c r="G392" s="3" t="inlineStr">
@@ -15218,7 +15254,7 @@
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>45925</v>
+        <v>45923</v>
       </c>
       <c r="B393" s="3" t="inlineStr">
         <is>
@@ -15226,7 +15262,7 @@
         </is>
       </c>
       <c r="C393" s="4" t="n">
-        <v>60.58</v>
+        <v>217.18</v>
       </c>
       <c r="D393" s="3" t="inlineStr">
         <is>
@@ -15235,12 +15271,12 @@
       </c>
       <c r="E393" s="3" t="inlineStr">
         <is>
-          <t>2931435</t>
+          <t>2930215</t>
         </is>
       </c>
       <c r="F393" s="3" t="inlineStr">
         <is>
-          <t>Consumable Materials</t>
+          <t>Fluctuating Fuel Recovery</t>
         </is>
       </c>
       <c r="G393" s="3" t="inlineStr">
@@ -15254,7 +15290,7 @@
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>45925</v>
+        <v>45923</v>
       </c>
       <c r="B394" s="3" t="inlineStr">
         <is>
@@ -15262,7 +15298,7 @@
         </is>
       </c>
       <c r="C394" s="4" t="n">
-        <v>3939.75</v>
+        <v>72.93000000000001</v>
       </c>
       <c r="D394" s="3" t="inlineStr">
         <is>
@@ -15271,12 +15307,12 @@
       </c>
       <c r="E394" s="3" t="inlineStr">
         <is>
-          <t>2931435</t>
+          <t>2930215</t>
         </is>
       </c>
       <c r="F394" s="3" t="inlineStr">
         <is>
-          <t>Badger Hydrovac With Operator</t>
+          <t>Supply Water</t>
         </is>
       </c>
       <c r="G394" s="3" t="inlineStr">
@@ -15290,7 +15326,7 @@
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>45925</v>
+        <v>45923</v>
       </c>
       <c r="B395" s="3" t="inlineStr">
         <is>
@@ -15298,7 +15334,7 @@
         </is>
       </c>
       <c r="C395" s="4" t="n">
-        <v>314.16</v>
+        <v>30.29</v>
       </c>
       <c r="D395" s="3" t="inlineStr">
         <is>
@@ -15307,12 +15343,12 @@
       </c>
       <c r="E395" s="3" t="inlineStr">
         <is>
-          <t>2931435</t>
+          <t>2930215</t>
         </is>
       </c>
       <c r="F395" s="3" t="inlineStr">
         <is>
-          <t>Disposition</t>
+          <t>Consumable Materials</t>
         </is>
       </c>
       <c r="G395" s="3" t="inlineStr">
@@ -15326,7 +15362,7 @@
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>45925</v>
+        <v>45923</v>
       </c>
       <c r="B396" s="3" t="inlineStr">
         <is>
@@ -15334,7 +15370,7 @@
         </is>
       </c>
       <c r="C396" s="4" t="n">
-        <v>418.89</v>
+        <v>2101.2</v>
       </c>
       <c r="D396" s="3" t="inlineStr">
         <is>
@@ -15343,12 +15379,12 @@
       </c>
       <c r="E396" s="3" t="inlineStr">
         <is>
-          <t>2932184</t>
+          <t>2930215</t>
         </is>
       </c>
       <c r="F396" s="3" t="inlineStr">
         <is>
-          <t>Fluctuating Fuel Recovery</t>
+          <t>Badger Hydrovac With Operator</t>
         </is>
       </c>
       <c r="G396" s="3" t="inlineStr">
@@ -15362,7 +15398,7 @@
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>45925</v>
+        <v>45923</v>
       </c>
       <c r="B397" s="3" t="inlineStr">
         <is>
@@ -15370,7 +15406,7 @@
         </is>
       </c>
       <c r="C397" s="4" t="n">
-        <v>145.86</v>
+        <v>157.08</v>
       </c>
       <c r="D397" s="3" t="inlineStr">
         <is>
@@ -15379,12 +15415,12 @@
       </c>
       <c r="E397" s="3" t="inlineStr">
         <is>
-          <t>2932184</t>
+          <t>2930215</t>
         </is>
       </c>
       <c r="F397" s="3" t="inlineStr">
         <is>
-          <t>Supply Water</t>
+          <t>Disposition</t>
         </is>
       </c>
       <c r="G397" s="3" t="inlineStr">
@@ -15398,15 +15434,15 @@
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>45925</v>
+        <v>45924</v>
       </c>
       <c r="B398" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5115 · Rent - Equipment (direct)</t>
         </is>
       </c>
       <c r="C398" s="4" t="n">
-        <v>60.58</v>
+        <v>4639</v>
       </c>
       <c r="D398" s="3" t="inlineStr">
         <is>
@@ -15415,12 +15451,12 @@
       </c>
       <c r="E398" s="3" t="inlineStr">
         <is>
-          <t>2932184</t>
+          <t>250412474-003</t>
         </is>
       </c>
       <c r="F398" s="3" t="inlineStr">
         <is>
-          <t>Consumable Materials</t>
+          <t>FORKLIFT VARIABLE REACH 10000# 50'-62'</t>
         </is>
       </c>
       <c r="G398" s="3" t="inlineStr">
@@ -15434,15 +15470,15 @@
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>45925</v>
+        <v>45924</v>
       </c>
       <c r="B399" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
-        </is>
-      </c>
-      <c r="C399" s="4" t="n">
-        <v>293.56</v>
+          <t>5115 · Rent - Equipment (direct)</t>
+        </is>
+      </c>
+      <c r="C399" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="D399" s="3" t="inlineStr">
         <is>
@@ -15451,12 +15487,12 @@
       </c>
       <c r="E399" s="3" t="inlineStr">
         <is>
-          <t>2932184</t>
+          <t>250412474-003</t>
         </is>
       </c>
       <c r="F399" s="3" t="inlineStr">
         <is>
-          <t>Badger Hydrovac With Operator Overtime</t>
+          <t>Delivery &amp; Pick up charge</t>
         </is>
       </c>
       <c r="G399" s="3" t="inlineStr">
@@ -15470,15 +15506,15 @@
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>45925</v>
+        <v>45924</v>
       </c>
       <c r="B400" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5115 · Rent - Equipment (direct)</t>
         </is>
       </c>
       <c r="C400" s="4" t="n">
-        <v>4202.4</v>
+        <v>461.86</v>
       </c>
       <c r="D400" s="3" t="inlineStr">
         <is>
@@ -15487,12 +15523,12 @@
       </c>
       <c r="E400" s="3" t="inlineStr">
         <is>
-          <t>2932184</t>
+          <t>250412474-003</t>
         </is>
       </c>
       <c r="F400" s="3" t="inlineStr">
         <is>
-          <t>Badger Hydrovac With Operator</t>
+          <t>Service Charge and Tax</t>
         </is>
       </c>
       <c r="G400" s="3" t="inlineStr">
@@ -15506,15 +15542,15 @@
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>45925</v>
+        <v>45924</v>
       </c>
       <c r="B401" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5115 · Rent - Equipment (direct)</t>
         </is>
       </c>
       <c r="C401" s="4" t="n">
-        <v>314.16</v>
+        <v>2431</v>
       </c>
       <c r="D401" s="3" t="inlineStr">
         <is>
@@ -15523,12 +15559,12 @@
       </c>
       <c r="E401" s="3" t="inlineStr">
         <is>
-          <t>2932184</t>
+          <t>250645966-003</t>
         </is>
       </c>
       <c r="F401" s="3" t="inlineStr">
         <is>
-          <t>Disposition</t>
+          <t>SKID STEER TRACK LOADER 1700-1999#</t>
         </is>
       </c>
       <c r="G401" s="3" t="inlineStr">
@@ -15542,15 +15578,15 @@
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>45926</v>
+        <v>45924</v>
       </c>
       <c r="B402" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
-        </is>
-      </c>
-      <c r="C402" s="4" t="n">
-        <v>447.33</v>
+          <t>5115 · Rent - Equipment (direct)</t>
+        </is>
+      </c>
+      <c r="C402" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="D402" s="3" t="inlineStr">
         <is>
@@ -15559,12 +15595,12 @@
       </c>
       <c r="E402" s="3" t="inlineStr">
         <is>
-          <t>2932976</t>
+          <t>250645966-003</t>
         </is>
       </c>
       <c r="F402" s="3" t="inlineStr">
         <is>
-          <t>Fluctuating Fuel Recovery</t>
+          <t>Delivery &amp; Pick Up</t>
         </is>
       </c>
       <c r="G402" s="3" t="inlineStr">
@@ -15578,15 +15614,15 @@
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>45926</v>
+        <v>45924</v>
       </c>
       <c r="B403" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5115 · Rent - Equipment (direct)</t>
         </is>
       </c>
       <c r="C403" s="4" t="n">
-        <v>145.86</v>
+        <v>242.03</v>
       </c>
       <c r="D403" s="3" t="inlineStr">
         <is>
@@ -15595,12 +15631,12 @@
       </c>
       <c r="E403" s="3" t="inlineStr">
         <is>
-          <t>2932976</t>
+          <t>250645966-003</t>
         </is>
       </c>
       <c r="F403" s="3" t="inlineStr">
         <is>
-          <t>Supply Water</t>
+          <t>Service Charge &amp; tax</t>
         </is>
       </c>
       <c r="G403" s="3" t="inlineStr">
@@ -15614,7 +15650,7 @@
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>45926</v>
+        <v>45925</v>
       </c>
       <c r="B404" s="3" t="inlineStr">
         <is>
@@ -15622,7 +15658,7 @@
         </is>
       </c>
       <c r="C404" s="4" t="n">
-        <v>60.58</v>
+        <v>364.86</v>
       </c>
       <c r="D404" s="3" t="inlineStr">
         <is>
@@ -15631,12 +15667,12 @@
       </c>
       <c r="E404" s="3" t="inlineStr">
         <is>
-          <t>2932976</t>
+          <t>2931435</t>
         </is>
       </c>
       <c r="F404" s="3" t="inlineStr">
         <is>
-          <t>Consumable Materials</t>
+          <t>Fluctuating Fuel Recovery</t>
         </is>
       </c>
       <c r="G404" s="3" t="inlineStr">
@@ -15650,7 +15686,7 @@
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>45926</v>
+        <v>45925</v>
       </c>
       <c r="B405" s="3" t="inlineStr">
         <is>
@@ -15658,7 +15694,7 @@
         </is>
       </c>
       <c r="C405" s="4" t="n">
-        <v>440.33</v>
+        <v>145.86</v>
       </c>
       <c r="D405" s="3" t="inlineStr">
         <is>
@@ -15667,12 +15703,12 @@
       </c>
       <c r="E405" s="3" t="inlineStr">
         <is>
-          <t>2932976</t>
+          <t>2931435</t>
         </is>
       </c>
       <c r="F405" s="3" t="inlineStr">
         <is>
-          <t>Badger Hydrovac With Operator Overtime</t>
+          <t>Supply Water</t>
         </is>
       </c>
       <c r="G405" s="3" t="inlineStr">
@@ -15686,7 +15722,7 @@
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>45926</v>
+        <v>45925</v>
       </c>
       <c r="B406" s="3" t="inlineStr">
         <is>
@@ -15694,7 +15730,7 @@
         </is>
       </c>
       <c r="C406" s="4" t="n">
-        <v>4202.4</v>
+        <v>60.58</v>
       </c>
       <c r="D406" s="3" t="inlineStr">
         <is>
@@ -15703,12 +15739,12 @@
       </c>
       <c r="E406" s="3" t="inlineStr">
         <is>
-          <t>2932976</t>
+          <t>2931435</t>
         </is>
       </c>
       <c r="F406" s="3" t="inlineStr">
         <is>
-          <t>Badger Hydrovac With Operator</t>
+          <t>Consumable Materials</t>
         </is>
       </c>
       <c r="G406" s="3" t="inlineStr">
@@ -15722,7 +15758,7 @@
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>45926</v>
+        <v>45925</v>
       </c>
       <c r="B407" s="3" t="inlineStr">
         <is>
@@ -15730,7 +15766,7 @@
         </is>
       </c>
       <c r="C407" s="4" t="n">
-        <v>314.16</v>
+        <v>3939.75</v>
       </c>
       <c r="D407" s="3" t="inlineStr">
         <is>
@@ -15739,12 +15775,12 @@
       </c>
       <c r="E407" s="3" t="inlineStr">
         <is>
-          <t>2932976</t>
+          <t>2931435</t>
         </is>
       </c>
       <c r="F407" s="3" t="inlineStr">
         <is>
-          <t>Disposition</t>
+          <t>Badger Hydrovac With Operator</t>
         </is>
       </c>
       <c r="G407" s="3" t="inlineStr">
@@ -15758,7 +15794,7 @@
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>45926</v>
+        <v>45925</v>
       </c>
       <c r="B408" s="3" t="inlineStr">
         <is>
@@ -15766,7 +15802,7 @@
         </is>
       </c>
       <c r="C408" s="4" t="n">
-        <v>87</v>
+        <v>314.16</v>
       </c>
       <c r="D408" s="3" t="inlineStr">
         <is>
@@ -15775,12 +15811,12 @@
       </c>
       <c r="E408" s="3" t="inlineStr">
         <is>
-          <t>2932976</t>
+          <t>2931435</t>
         </is>
       </c>
       <c r="F408" s="3" t="inlineStr">
         <is>
-          <t>Remote Hose</t>
+          <t>Disposition</t>
         </is>
       </c>
       <c r="G408" s="3" t="inlineStr">
@@ -15794,34 +15830,34 @@
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>45929</v>
+        <v>45925</v>
       </c>
       <c r="B409" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5120 · Outside services (Direct)</t>
         </is>
       </c>
       <c r="C409" s="4" t="n">
-        <v>350</v>
+        <v>418.89</v>
       </c>
       <c r="D409" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="E409" s="3" t="inlineStr">
         <is>
-          <t>16772</t>
+          <t>2932184</t>
         </is>
       </c>
       <c r="F409" s="3" t="inlineStr">
         <is>
-          <t>Andy Remillard Per diem for week of 9/29/2025 - 10/5/2025</t>
+          <t>Fluctuating Fuel Recovery</t>
         </is>
       </c>
       <c r="G409" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="H409" s="5" t="n">
@@ -15830,34 +15866,34 @@
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>45929</v>
+        <v>45925</v>
       </c>
       <c r="B410" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5120 · Outside services (Direct)</t>
         </is>
       </c>
       <c r="C410" s="4" t="n">
-        <v>350</v>
+        <v>145.86</v>
       </c>
       <c r="D410" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="E410" s="3" t="inlineStr">
         <is>
-          <t>16772</t>
+          <t>2932184</t>
         </is>
       </c>
       <c r="F410" s="3" t="inlineStr">
         <is>
-          <t>Ryan Ordelt Per diem for week of 9/29/2025 - 10/5/2025</t>
+          <t>Supply Water</t>
         </is>
       </c>
       <c r="G410" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="H410" s="5" t="n">
@@ -15866,34 +15902,34 @@
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>45929</v>
+        <v>45925</v>
       </c>
       <c r="B411" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5120 · Outside services (Direct)</t>
         </is>
       </c>
       <c r="C411" s="4" t="n">
-        <v>350</v>
+        <v>60.58</v>
       </c>
       <c r="D411" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="E411" s="3" t="inlineStr">
         <is>
-          <t>16772</t>
+          <t>2932184</t>
         </is>
       </c>
       <c r="F411" s="3" t="inlineStr">
         <is>
-          <t>Shane Morris Per diem for week of 9/29/2025 - 10/5/2025</t>
+          <t>Consumable Materials</t>
         </is>
       </c>
       <c r="G411" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="H411" s="5" t="n">
@@ -15902,34 +15938,34 @@
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>45929</v>
+        <v>45925</v>
       </c>
       <c r="B412" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5120 · Outside services (Direct)</t>
         </is>
       </c>
       <c r="C412" s="4" t="n">
-        <v>350</v>
+        <v>293.56</v>
       </c>
       <c r="D412" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="E412" s="3" t="inlineStr">
         <is>
-          <t>16772</t>
+          <t>2932184</t>
         </is>
       </c>
       <c r="F412" s="3" t="inlineStr">
         <is>
-          <t>Vace Varasteh Per diem for week of 9/29/2025 - 10/5/2025</t>
+          <t>Badger Hydrovac With Operator Overtime</t>
         </is>
       </c>
       <c r="G412" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="H412" s="5" t="n">
@@ -15938,34 +15974,34 @@
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>45929</v>
+        <v>45925</v>
       </c>
       <c r="B413" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5120 · Outside services (Direct)</t>
         </is>
       </c>
       <c r="C413" s="4" t="n">
-        <v>350</v>
+        <v>4202.4</v>
       </c>
       <c r="D413" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="E413" s="3" t="inlineStr">
         <is>
-          <t>16772</t>
+          <t>2932184</t>
         </is>
       </c>
       <c r="F413" s="3" t="inlineStr">
         <is>
-          <t>Wyatt Staples Per diem for week of 9/29/2025 - 10/5/2025</t>
+          <t>Badger Hydrovac With Operator</t>
         </is>
       </c>
       <c r="G413" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="H413" s="5" t="n">
@@ -15974,15 +16010,15 @@
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>45929</v>
+        <v>45925</v>
       </c>
       <c r="B414" s="3" t="inlineStr">
         <is>
-          <t>5115 · Rent - Equipment (direct)</t>
+          <t>5120 · Outside services (Direct)</t>
         </is>
       </c>
       <c r="C414" s="4" t="n">
-        <v>456</v>
+        <v>314.16</v>
       </c>
       <c r="D414" s="3" t="inlineStr">
         <is>
@@ -15991,12 +16027,12 @@
       </c>
       <c r="E414" s="3" t="inlineStr">
         <is>
-          <t>1295793-0003</t>
+          <t>2932184</t>
         </is>
       </c>
       <c r="F414" s="3" t="inlineStr">
         <is>
-          <t>TANK-FRAC-WEIR-450BBL-V</t>
+          <t>Disposition</t>
         </is>
       </c>
       <c r="G414" s="3" t="inlineStr">
@@ -16010,15 +16046,15 @@
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>45929</v>
+        <v>45926</v>
       </c>
       <c r="B415" s="3" t="inlineStr">
         <is>
-          <t>5115 · Rent - Equipment (direct)</t>
+          <t>5120 · Outside services (Direct)</t>
         </is>
       </c>
       <c r="C415" s="4" t="n">
-        <v>169.33</v>
+        <v>447.33</v>
       </c>
       <c r="D415" s="3" t="inlineStr">
         <is>
@@ -16027,12 +16063,12 @@
       </c>
       <c r="E415" s="3" t="inlineStr">
         <is>
-          <t>1295793-0003</t>
+          <t>2932976</t>
         </is>
       </c>
       <c r="F415" s="3" t="inlineStr">
         <is>
-          <t>Tax</t>
+          <t>Fluctuating Fuel Recovery</t>
         </is>
       </c>
       <c r="G415" s="3" t="inlineStr">
@@ -16046,15 +16082,15 @@
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
-        <v>45929</v>
+        <v>45926</v>
       </c>
       <c r="B416" s="3" t="inlineStr">
         <is>
-          <t>5115 · Rent - Equipment (direct)</t>
+          <t>5120 · Outside services (Direct)</t>
         </is>
       </c>
       <c r="C416" s="4" t="n">
-        <v>2053.2</v>
+        <v>145.86</v>
       </c>
       <c r="D416" s="3" t="inlineStr">
         <is>
@@ -16063,12 +16099,12 @@
       </c>
       <c r="E416" s="3" t="inlineStr">
         <is>
-          <t>1295793-0003</t>
+          <t>2932976</t>
         </is>
       </c>
       <c r="F416" s="3" t="inlineStr">
         <is>
-          <t>Pick up &amp; Delivery</t>
+          <t>Supply Water</t>
         </is>
       </c>
       <c r="G416" s="3" t="inlineStr">
@@ -16082,7 +16118,7 @@
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>45929</v>
+        <v>45926</v>
       </c>
       <c r="B417" s="3" t="inlineStr">
         <is>
@@ -16090,7 +16126,7 @@
         </is>
       </c>
       <c r="C417" s="4" t="n">
-        <v>952.09</v>
+        <v>60.58</v>
       </c>
       <c r="D417" s="3" t="inlineStr">
         <is>
@@ -16099,12 +16135,12 @@
       </c>
       <c r="E417" s="3" t="inlineStr">
         <is>
-          <t>2933881</t>
+          <t>2932976</t>
         </is>
       </c>
       <c r="F417" s="3" t="inlineStr">
         <is>
-          <t>Fluctuating Fuel Recovery</t>
+          <t>Consumable Materials</t>
         </is>
       </c>
       <c r="G417" s="3" t="inlineStr">
@@ -16118,7 +16154,7 @@
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>45929</v>
+        <v>45926</v>
       </c>
       <c r="B418" s="3" t="inlineStr">
         <is>
@@ -16126,7 +16162,7 @@
         </is>
       </c>
       <c r="C418" s="4" t="n">
-        <v>291.72</v>
+        <v>440.33</v>
       </c>
       <c r="D418" s="3" t="inlineStr">
         <is>
@@ -16135,12 +16171,12 @@
       </c>
       <c r="E418" s="3" t="inlineStr">
         <is>
-          <t>2933881</t>
+          <t>2932976</t>
         </is>
       </c>
       <c r="F418" s="3" t="inlineStr">
         <is>
-          <t>Supply Water</t>
+          <t>Badger Hydrovac With Operator Overtime</t>
         </is>
       </c>
       <c r="G418" s="3" t="inlineStr">
@@ -16154,7 +16190,7 @@
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>45929</v>
+        <v>45926</v>
       </c>
       <c r="B419" s="3" t="inlineStr">
         <is>
@@ -16162,7 +16198,7 @@
         </is>
       </c>
       <c r="C419" s="4" t="n">
-        <v>121.16</v>
+        <v>4202.4</v>
       </c>
       <c r="D419" s="3" t="inlineStr">
         <is>
@@ -16171,12 +16207,12 @@
       </c>
       <c r="E419" s="3" t="inlineStr">
         <is>
-          <t>2933881</t>
+          <t>2932976</t>
         </is>
       </c>
       <c r="F419" s="3" t="inlineStr">
         <is>
-          <t>Consumable Materials</t>
+          <t>Badger Hydrovac With Operator</t>
         </is>
       </c>
       <c r="G419" s="3" t="inlineStr">
@@ -16190,7 +16226,7 @@
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>45929</v>
+        <v>45926</v>
       </c>
       <c r="B420" s="3" t="inlineStr">
         <is>
@@ -16198,7 +16234,7 @@
         </is>
       </c>
       <c r="C420" s="4" t="n">
-        <v>1467.76</v>
+        <v>314.16</v>
       </c>
       <c r="D420" s="3" t="inlineStr">
         <is>
@@ -16207,12 +16243,12 @@
       </c>
       <c r="E420" s="3" t="inlineStr">
         <is>
-          <t>2933881</t>
+          <t>2932976</t>
         </is>
       </c>
       <c r="F420" s="3" t="inlineStr">
         <is>
-          <t>Badger Hydrovac With Operator Overtime</t>
+          <t>Disposition</t>
         </is>
       </c>
       <c r="G420" s="3" t="inlineStr">
@@ -16226,7 +16262,7 @@
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
-        <v>45929</v>
+        <v>45926</v>
       </c>
       <c r="B421" s="3" t="inlineStr">
         <is>
@@ -16234,7 +16270,7 @@
         </is>
       </c>
       <c r="C421" s="4" t="n">
-        <v>8404.799999999999</v>
+        <v>87</v>
       </c>
       <c r="D421" s="3" t="inlineStr">
         <is>
@@ -16243,12 +16279,12 @@
       </c>
       <c r="E421" s="3" t="inlineStr">
         <is>
-          <t>2933881</t>
+          <t>2932976</t>
         </is>
       </c>
       <c r="F421" s="3" t="inlineStr">
         <is>
-          <t>Badger Hydrovac With Operator</t>
+          <t>Remote Hose</t>
         </is>
       </c>
       <c r="G421" s="3" t="inlineStr">
@@ -16266,30 +16302,30 @@
       </c>
       <c r="B422" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
         </is>
       </c>
       <c r="C422" s="4" t="n">
-        <v>628.3200000000001</v>
+        <v>350</v>
       </c>
       <c r="D422" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>General Journal</t>
         </is>
       </c>
       <c r="E422" s="3" t="inlineStr">
         <is>
-          <t>2933881</t>
+          <t>16772</t>
         </is>
       </c>
       <c r="F422" s="3" t="inlineStr">
         <is>
-          <t>Disposition</t>
+          <t>Andy Remillard Per diem for week of 9/29/2025 - 10/5/2025</t>
         </is>
       </c>
       <c r="G422" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
       <c r="H422" s="5" t="n">
@@ -16302,30 +16338,30 @@
       </c>
       <c r="B423" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
         </is>
       </c>
       <c r="C423" s="4" t="n">
-        <v>261</v>
+        <v>350</v>
       </c>
       <c r="D423" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>General Journal</t>
         </is>
       </c>
       <c r="E423" s="3" t="inlineStr">
         <is>
-          <t>2933881</t>
+          <t>16772</t>
         </is>
       </c>
       <c r="F423" s="3" t="inlineStr">
         <is>
-          <t>Remote Hose</t>
+          <t>Ryan Ordelt Per diem for week of 9/29/2025 - 10/5/2025</t>
         </is>
       </c>
       <c r="G423" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
       <c r="H423" s="5" t="n">
@@ -16338,30 +16374,30 @@
       </c>
       <c r="B424" s="3" t="inlineStr">
         <is>
-          <t>5121 · Freight &amp; Shipping (Direct)</t>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
         </is>
       </c>
       <c r="C424" s="4" t="n">
-        <v>13.68</v>
+        <v>350</v>
       </c>
       <c r="D424" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>General Journal</t>
         </is>
       </c>
       <c r="E424" s="3" t="inlineStr">
         <is>
-          <t>1295793-0003</t>
+          <t>16772</t>
         </is>
       </c>
       <c r="F424" s="3" t="inlineStr">
         <is>
-          <t>ENVIRONMENTAL RECOVERY FEE</t>
+          <t>Shane Morris Per diem for week of 9/29/2025 - 10/5/2025</t>
         </is>
       </c>
       <c r="G424" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
       <c r="H424" s="5" t="n">
@@ -16370,34 +16406,34 @@
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
-        <v>45930</v>
+        <v>45929</v>
       </c>
       <c r="B425" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
         </is>
       </c>
       <c r="C425" s="4" t="n">
-        <v>402.33</v>
+        <v>350</v>
       </c>
       <c r="D425" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>General Journal</t>
         </is>
       </c>
       <c r="E425" s="3" t="inlineStr">
         <is>
-          <t>2936243</t>
+          <t>16772</t>
         </is>
       </c>
       <c r="F425" s="3" t="inlineStr">
         <is>
-          <t>Fluctuating Fuel Recovery</t>
+          <t>Vace Varasteh Per diem for week of 9/29/2025 - 10/5/2025</t>
         </is>
       </c>
       <c r="G425" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
       <c r="H425" s="5" t="n">
@@ -16406,34 +16442,34 @@
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
-        <v>45930</v>
+        <v>45929</v>
       </c>
       <c r="B426" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
         </is>
       </c>
       <c r="C426" s="4" t="n">
-        <v>145.86</v>
+        <v>350</v>
       </c>
       <c r="D426" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>General Journal</t>
         </is>
       </c>
       <c r="E426" s="3" t="inlineStr">
         <is>
-          <t>2936243</t>
+          <t>16772</t>
         </is>
       </c>
       <c r="F426" s="3" t="inlineStr">
         <is>
-          <t>Supply Water</t>
+          <t>Wyatt Staples Per diem for week of 9/29/2025 - 10/5/2025</t>
         </is>
       </c>
       <c r="G426" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
       <c r="H426" s="5" t="n">
@@ -16442,15 +16478,15 @@
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
-        <v>45930</v>
+        <v>45929</v>
       </c>
       <c r="B427" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5115 · Rent - Equipment (direct)</t>
         </is>
       </c>
       <c r="C427" s="4" t="n">
-        <v>60.58</v>
+        <v>456</v>
       </c>
       <c r="D427" s="3" t="inlineStr">
         <is>
@@ -16459,12 +16495,12 @@
       </c>
       <c r="E427" s="3" t="inlineStr">
         <is>
-          <t>2936243</t>
+          <t>1295793-0003</t>
         </is>
       </c>
       <c r="F427" s="3" t="inlineStr">
         <is>
-          <t>Consumable Materials</t>
+          <t>TANK-FRAC-WEIR-450BBL-V</t>
         </is>
       </c>
       <c r="G427" s="3" t="inlineStr">
@@ -16478,15 +16514,15 @@
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
-        <v>45930</v>
+        <v>45929</v>
       </c>
       <c r="B428" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
-        </is>
-      </c>
-      <c r="C428" s="3" t="n">
-        <v>0</v>
+          <t>5115 · Rent - Equipment (direct)</t>
+        </is>
+      </c>
+      <c r="C428" s="4" t="n">
+        <v>169.33</v>
       </c>
       <c r="D428" s="3" t="inlineStr">
         <is>
@@ -16495,12 +16531,12 @@
       </c>
       <c r="E428" s="3" t="inlineStr">
         <is>
-          <t>2936243</t>
+          <t>1295793-0003</t>
         </is>
       </c>
       <c r="F428" s="3" t="inlineStr">
         <is>
-          <t>Badger Hydrovac With Operator Overtime</t>
+          <t>Tax</t>
         </is>
       </c>
       <c r="G428" s="3" t="inlineStr">
@@ -16514,15 +16550,15 @@
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
-        <v>45930</v>
+        <v>45929</v>
       </c>
       <c r="B429" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5115 · Rent - Equipment (direct)</t>
         </is>
       </c>
       <c r="C429" s="4" t="n">
-        <v>4071.08</v>
+        <v>2053.2</v>
       </c>
       <c r="D429" s="3" t="inlineStr">
         <is>
@@ -16531,12 +16567,12 @@
       </c>
       <c r="E429" s="3" t="inlineStr">
         <is>
-          <t>2936243</t>
+          <t>1295793-0003</t>
         </is>
       </c>
       <c r="F429" s="3" t="inlineStr">
         <is>
-          <t>Badger Hydrovac With Operator</t>
+          <t>Pick up &amp; Delivery</t>
         </is>
       </c>
       <c r="G429" s="3" t="inlineStr">
@@ -16550,7 +16586,7 @@
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
-        <v>45930</v>
+        <v>45929</v>
       </c>
       <c r="B430" s="3" t="inlineStr">
         <is>
@@ -16558,7 +16594,7 @@
         </is>
       </c>
       <c r="C430" s="4" t="n">
-        <v>314.16</v>
+        <v>952.09</v>
       </c>
       <c r="D430" s="3" t="inlineStr">
         <is>
@@ -16567,12 +16603,12 @@
       </c>
       <c r="E430" s="3" t="inlineStr">
         <is>
-          <t>2936243</t>
+          <t>2933881</t>
         </is>
       </c>
       <c r="F430" s="3" t="inlineStr">
         <is>
-          <t>Disposition</t>
+          <t>Fluctuating Fuel Recovery</t>
         </is>
       </c>
       <c r="G430" s="3" t="inlineStr">
@@ -16586,7 +16622,7 @@
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
-        <v>45930</v>
+        <v>45929</v>
       </c>
       <c r="B431" s="3" t="inlineStr">
         <is>
@@ -16594,7 +16630,7 @@
         </is>
       </c>
       <c r="C431" s="4" t="n">
-        <v>130.5</v>
+        <v>291.72</v>
       </c>
       <c r="D431" s="3" t="inlineStr">
         <is>
@@ -16603,12 +16639,12 @@
       </c>
       <c r="E431" s="3" t="inlineStr">
         <is>
-          <t>2936243</t>
+          <t>2933881</t>
         </is>
       </c>
       <c r="F431" s="3" t="inlineStr">
         <is>
-          <t>Remote Hose</t>
+          <t>Supply Water</t>
         </is>
       </c>
       <c r="G431" s="3" t="inlineStr">
@@ -16622,34 +16658,34 @@
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
-        <v>45933</v>
+        <v>45929</v>
       </c>
       <c r="B432" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5120 · Outside services (Direct)</t>
         </is>
       </c>
       <c r="C432" s="4" t="n">
-        <v>350</v>
+        <v>121.16</v>
       </c>
       <c r="D432" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="E432" s="3" t="inlineStr">
         <is>
-          <t>16773</t>
+          <t>2933881</t>
         </is>
       </c>
       <c r="F432" s="3" t="inlineStr">
         <is>
-          <t>Andy Remillard Per diem for week of 10/6/2025 - 10/12/2025</t>
+          <t>Consumable Materials</t>
         </is>
       </c>
       <c r="G432" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="H432" s="5" t="n">
@@ -16658,34 +16694,34 @@
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
-        <v>45933</v>
+        <v>45929</v>
       </c>
       <c r="B433" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5120 · Outside services (Direct)</t>
         </is>
       </c>
       <c r="C433" s="4" t="n">
-        <v>350</v>
+        <v>1467.76</v>
       </c>
       <c r="D433" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="E433" s="3" t="inlineStr">
         <is>
-          <t>16773</t>
+          <t>2933881</t>
         </is>
       </c>
       <c r="F433" s="3" t="inlineStr">
         <is>
-          <t>Levi Winslow Per diem for week of 10/6/2025 - 10/12/2025</t>
+          <t>Badger Hydrovac With Operator Overtime</t>
         </is>
       </c>
       <c r="G433" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="H433" s="5" t="n">
@@ -16694,34 +16730,34 @@
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
-        <v>45933</v>
+        <v>45929</v>
       </c>
       <c r="B434" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5120 · Outside services (Direct)</t>
         </is>
       </c>
       <c r="C434" s="4" t="n">
-        <v>350</v>
+        <v>8404.799999999999</v>
       </c>
       <c r="D434" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="E434" s="3" t="inlineStr">
         <is>
-          <t>16773</t>
+          <t>2933881</t>
         </is>
       </c>
       <c r="F434" s="3" t="inlineStr">
         <is>
-          <t>Mike Cogswell Per diem for week of 10/6/2025 - 10/12/2025</t>
+          <t>Badger Hydrovac With Operator</t>
         </is>
       </c>
       <c r="G434" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="H434" s="5" t="n">
@@ -16730,34 +16766,34 @@
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
-        <v>45933</v>
+        <v>45929</v>
       </c>
       <c r="B435" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5120 · Outside services (Direct)</t>
         </is>
       </c>
       <c r="C435" s="4" t="n">
-        <v>300</v>
+        <v>628.3200000000001</v>
       </c>
       <c r="D435" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="E435" s="3" t="inlineStr">
         <is>
-          <t>16773</t>
+          <t>2933881</t>
         </is>
       </c>
       <c r="F435" s="3" t="inlineStr">
         <is>
-          <t>Robert Winchell Per diem for week of 10/6/2025 - 10/12/2025</t>
+          <t>Disposition</t>
         </is>
       </c>
       <c r="G435" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="H435" s="5" t="n">
@@ -16766,34 +16802,34 @@
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
-        <v>45933</v>
+        <v>45929</v>
       </c>
       <c r="B436" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5120 · Outside services (Direct)</t>
         </is>
       </c>
       <c r="C436" s="4" t="n">
-        <v>350</v>
+        <v>261</v>
       </c>
       <c r="D436" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="E436" s="3" t="inlineStr">
         <is>
-          <t>16773</t>
+          <t>2933881</t>
         </is>
       </c>
       <c r="F436" s="3" t="inlineStr">
         <is>
-          <t>Ryan Ordelt Per diem for week of 10/6/2025 - 10/12/2025</t>
+          <t>Remote Hose</t>
         </is>
       </c>
       <c r="G436" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="H436" s="5" t="n">
@@ -16802,34 +16838,34 @@
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
-        <v>45933</v>
+        <v>45929</v>
       </c>
       <c r="B437" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5121 · Freight &amp; Shipping (Direct)</t>
         </is>
       </c>
       <c r="C437" s="4" t="n">
-        <v>350</v>
+        <v>13.68</v>
       </c>
       <c r="D437" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="E437" s="3" t="inlineStr">
         <is>
-          <t>16773</t>
+          <t>1295793-0003</t>
         </is>
       </c>
       <c r="F437" s="3" t="inlineStr">
         <is>
-          <t>Vace Varasteh Per diem for week of 10/6/2025 - 10/12/2025</t>
+          <t>ENVIRONMENTAL RECOVERY FEE</t>
         </is>
       </c>
       <c r="G437" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="H437" s="5" t="n">
@@ -16838,15 +16874,15 @@
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
-        <v>45934</v>
+        <v>45930</v>
       </c>
       <c r="B438" s="3" t="inlineStr">
         <is>
-          <t>5115 · Rent - Equipment (direct)</t>
+          <t>5120 · Outside services (Direct)</t>
         </is>
       </c>
       <c r="C438" s="4" t="n">
-        <v>864</v>
+        <v>402.33</v>
       </c>
       <c r="D438" s="3" t="inlineStr">
         <is>
@@ -16855,12 +16891,12 @@
       </c>
       <c r="E438" s="3" t="inlineStr">
         <is>
-          <t>253158861-001</t>
+          <t>2936243</t>
         </is>
       </c>
       <c r="F438" s="3" t="inlineStr">
         <is>
-          <t>944/9930 ROAD PLATE 6' X 10'</t>
+          <t>Fluctuating Fuel Recovery</t>
         </is>
       </c>
       <c r="G438" s="3" t="inlineStr">
@@ -16874,15 +16910,15 @@
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
-        <v>45934</v>
+        <v>45930</v>
       </c>
       <c r="B439" s="3" t="inlineStr">
         <is>
-          <t>5115 · Rent - Equipment (direct)</t>
+          <t>5120 · Outside services (Direct)</t>
         </is>
       </c>
       <c r="C439" s="4" t="n">
-        <v>345</v>
+        <v>145.86</v>
       </c>
       <c r="D439" s="3" t="inlineStr">
         <is>
@@ -16891,12 +16927,12 @@
       </c>
       <c r="E439" s="3" t="inlineStr">
         <is>
-          <t>253158861-001</t>
+          <t>2936243</t>
         </is>
       </c>
       <c r="F439" s="3" t="inlineStr">
         <is>
-          <t>Delivery charge</t>
+          <t>Supply Water</t>
         </is>
       </c>
       <c r="G439" s="3" t="inlineStr">
@@ -16910,15 +16946,15 @@
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
-        <v>45934</v>
+        <v>45930</v>
       </c>
       <c r="B440" s="3" t="inlineStr">
         <is>
-          <t>5115 · Rent - Equipment (direct)</t>
+          <t>5120 · Outside services (Direct)</t>
         </is>
       </c>
       <c r="C440" s="4" t="n">
-        <v>94.3</v>
+        <v>60.58</v>
       </c>
       <c r="D440" s="3" t="inlineStr">
         <is>
@@ -16927,12 +16963,12 @@
       </c>
       <c r="E440" s="3" t="inlineStr">
         <is>
-          <t>253158861-001</t>
+          <t>2936243</t>
         </is>
       </c>
       <c r="F440" s="3" t="inlineStr">
         <is>
-          <t>Tax</t>
+          <t>Consumable Materials</t>
         </is>
       </c>
       <c r="G440" s="3" t="inlineStr">
@@ -16946,15 +16982,15 @@
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
-        <v>45934</v>
+        <v>45930</v>
       </c>
       <c r="B441" s="3" t="inlineStr">
         <is>
-          <t>5115 · Rent - Equipment (direct)</t>
-        </is>
-      </c>
-      <c r="C441" s="4" t="n">
-        <v>2063</v>
+          <t>5120 · Outside services (Direct)</t>
+        </is>
+      </c>
+      <c r="C441" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="D441" s="3" t="inlineStr">
         <is>
@@ -16963,12 +16999,12 @@
       </c>
       <c r="E441" s="3" t="inlineStr">
         <is>
-          <t>253201955-001</t>
+          <t>2936243</t>
         </is>
       </c>
       <c r="F441" s="3" t="inlineStr">
         <is>
-          <t>SKID STEER MINI 550-1099# DSL TRACKED</t>
+          <t>Badger Hydrovac With Operator Overtime</t>
         </is>
       </c>
       <c r="G441" s="3" t="inlineStr">
@@ -16982,15 +17018,15 @@
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
-        <v>45934</v>
+        <v>45930</v>
       </c>
       <c r="B442" s="3" t="inlineStr">
         <is>
-          <t>5115 · Rent - Equipment (direct)</t>
+          <t>5120 · Outside services (Direct)</t>
         </is>
       </c>
       <c r="C442" s="4" t="n">
-        <v>400</v>
+        <v>4071.08</v>
       </c>
       <c r="D442" s="3" t="inlineStr">
         <is>
@@ -16999,12 +17035,12 @@
       </c>
       <c r="E442" s="3" t="inlineStr">
         <is>
-          <t>253201955-001</t>
+          <t>2936243</t>
         </is>
       </c>
       <c r="F442" s="3" t="inlineStr">
         <is>
-          <t>Delivery &amp; Pickup Charge</t>
+          <t>Badger Hydrovac With Operator</t>
         </is>
       </c>
       <c r="G442" s="3" t="inlineStr">
@@ -17018,15 +17054,15 @@
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
-        <v>45934</v>
+        <v>45930</v>
       </c>
       <c r="B443" s="3" t="inlineStr">
         <is>
-          <t>5115 · Rent - Equipment (direct)</t>
+          <t>5120 · Outside services (Direct)</t>
         </is>
       </c>
       <c r="C443" s="4" t="n">
-        <v>236.59</v>
+        <v>314.16</v>
       </c>
       <c r="D443" s="3" t="inlineStr">
         <is>
@@ -17035,12 +17071,12 @@
       </c>
       <c r="E443" s="3" t="inlineStr">
         <is>
-          <t>253201955-001</t>
+          <t>2936243</t>
         </is>
       </c>
       <c r="F443" s="3" t="inlineStr">
         <is>
-          <t>Tax &amp; Environmental Charge</t>
+          <t>Disposition</t>
         </is>
       </c>
       <c r="G443" s="3" t="inlineStr">
@@ -17054,7 +17090,7 @@
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
-        <v>45937</v>
+        <v>45930</v>
       </c>
       <c r="B444" s="3" t="inlineStr">
         <is>
@@ -17062,7 +17098,7 @@
         </is>
       </c>
       <c r="C444" s="4" t="n">
-        <v>111.69</v>
+        <v>130.5</v>
       </c>
       <c r="D444" s="3" t="inlineStr">
         <is>
@@ -17071,12 +17107,12 @@
       </c>
       <c r="E444" s="3" t="inlineStr">
         <is>
-          <t>2939809</t>
+          <t>2936243</t>
         </is>
       </c>
       <c r="F444" s="3" t="inlineStr">
         <is>
-          <t>Fluctuating Fuel Recovery</t>
+          <t>Remote Hose</t>
         </is>
       </c>
       <c r="G444" s="3" t="inlineStr">
@@ -17090,34 +17126,34 @@
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
-        <v>45937</v>
+        <v>45933</v>
       </c>
       <c r="B445" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
         </is>
       </c>
       <c r="C445" s="4" t="n">
-        <v>72.93000000000001</v>
+        <v>350</v>
       </c>
       <c r="D445" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>General Journal</t>
         </is>
       </c>
       <c r="E445" s="3" t="inlineStr">
         <is>
-          <t>2939809</t>
+          <t>16773</t>
         </is>
       </c>
       <c r="F445" s="3" t="inlineStr">
         <is>
-          <t>Supply Water</t>
+          <t>Andy Remillard Per diem for week of 10/6/2025 - 10/12/2025</t>
         </is>
       </c>
       <c r="G445" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
       <c r="H445" s="5" t="n">
@@ -17126,34 +17162,34 @@
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
-        <v>45937</v>
+        <v>45933</v>
       </c>
       <c r="B446" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
         </is>
       </c>
       <c r="C446" s="4" t="n">
-        <v>30.29</v>
+        <v>350</v>
       </c>
       <c r="D446" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>General Journal</t>
         </is>
       </c>
       <c r="E446" s="3" t="inlineStr">
         <is>
-          <t>2939809</t>
+          <t>16773</t>
         </is>
       </c>
       <c r="F446" s="3" t="inlineStr">
         <is>
-          <t>Consumable Materials</t>
+          <t>Levi Winslow Per diem for week of 10/6/2025 - 10/12/2025</t>
         </is>
       </c>
       <c r="G446" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
       <c r="H446" s="5" t="n">
@@ -17162,34 +17198,34 @@
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
-        <v>45937</v>
+        <v>45933</v>
       </c>
       <c r="B447" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
-        </is>
-      </c>
-      <c r="C447" s="3" t="n">
-        <v>0</v>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
+        </is>
+      </c>
+      <c r="C447" s="4" t="n">
+        <v>350</v>
       </c>
       <c r="D447" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>General Journal</t>
         </is>
       </c>
       <c r="E447" s="3" t="inlineStr">
         <is>
-          <t>2939809</t>
+          <t>16773</t>
         </is>
       </c>
       <c r="F447" s="3" t="inlineStr">
         <is>
-          <t>Badger Hydrovac With Operator Overtime</t>
+          <t>Mike Cogswell Per diem for week of 10/6/2025 - 10/12/2025</t>
         </is>
       </c>
       <c r="G447" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
       <c r="H447" s="5" t="n">
@@ -17198,34 +17234,34 @@
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
-        <v>45937</v>
+        <v>45933</v>
       </c>
       <c r="B448" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
         </is>
       </c>
       <c r="C448" s="4" t="n">
-        <v>1050.6</v>
+        <v>300</v>
       </c>
       <c r="D448" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>General Journal</t>
         </is>
       </c>
       <c r="E448" s="3" t="inlineStr">
         <is>
-          <t>2939809</t>
+          <t>16773</t>
         </is>
       </c>
       <c r="F448" s="3" t="inlineStr">
         <is>
-          <t>Badger Hydrovac With Operator</t>
+          <t>Robert Winchell Per diem for week of 10/6/2025 - 10/12/2025</t>
         </is>
       </c>
       <c r="G448" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
       <c r="H448" s="5" t="n">
@@ -17234,34 +17270,34 @@
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
-        <v>45937</v>
+        <v>45933</v>
       </c>
       <c r="B449" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
         </is>
       </c>
       <c r="C449" s="4" t="n">
-        <v>157.08</v>
+        <v>350</v>
       </c>
       <c r="D449" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>General Journal</t>
         </is>
       </c>
       <c r="E449" s="3" t="inlineStr">
         <is>
-          <t>2939809</t>
+          <t>16773</t>
         </is>
       </c>
       <c r="F449" s="3" t="inlineStr">
         <is>
-          <t>Disposition</t>
+          <t>Ryan Ordelt Per diem for week of 10/6/2025 - 10/12/2025</t>
         </is>
       </c>
       <c r="G449" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
       <c r="H449" s="5" t="n">
@@ -17270,7 +17306,7 @@
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
-        <v>45944</v>
+        <v>45933</v>
       </c>
       <c r="B450" s="3" t="inlineStr">
         <is>
@@ -17287,12 +17323,12 @@
       </c>
       <c r="E450" s="3" t="inlineStr">
         <is>
-          <t>16774</t>
+          <t>16773</t>
         </is>
       </c>
       <c r="F450" s="3" t="inlineStr">
         <is>
-          <t>Andy Remillard Per diem for week of 10/13/2025 - 10/19/2025</t>
+          <t>Vace Varasteh Per diem for week of 10/6/2025 - 10/12/2025</t>
         </is>
       </c>
       <c r="G450" s="3" t="inlineStr">
@@ -17306,34 +17342,34 @@
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
-        <v>45947</v>
+        <v>45934</v>
       </c>
       <c r="B451" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5115 · Rent - Equipment (direct)</t>
         </is>
       </c>
       <c r="C451" s="4" t="n">
-        <v>350</v>
+        <v>864</v>
       </c>
       <c r="D451" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="E451" s="3" t="inlineStr">
         <is>
-          <t>16777</t>
+          <t>253158861-001</t>
         </is>
       </c>
       <c r="F451" s="3" t="inlineStr">
         <is>
-          <t>Andy Remillard Per diem for week of 10/20/2025 - 10/26/2025</t>
+          <t>944/9930 ROAD PLATE 6' X 10'</t>
         </is>
       </c>
       <c r="G451" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="H451" s="5" t="n">
@@ -17342,34 +17378,34 @@
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
-        <v>45947</v>
+        <v>45934</v>
       </c>
       <c r="B452" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5115 · Rent - Equipment (direct)</t>
         </is>
       </c>
       <c r="C452" s="4" t="n">
-        <v>150</v>
+        <v>345</v>
       </c>
       <c r="D452" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="E452" s="3" t="inlineStr">
         <is>
-          <t>16777</t>
+          <t>253158861-001</t>
         </is>
       </c>
       <c r="F452" s="3" t="inlineStr">
         <is>
-          <t>Levi Winslow Per diem for week of 10/20/2025 - 10/26/2025</t>
+          <t>Delivery charge</t>
         </is>
       </c>
       <c r="G452" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="H452" s="5" t="n">
@@ -17378,34 +17414,34 @@
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
-        <v>45947</v>
+        <v>45934</v>
       </c>
       <c r="B453" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5115 · Rent - Equipment (direct)</t>
         </is>
       </c>
       <c r="C453" s="4" t="n">
-        <v>350</v>
+        <v>94.3</v>
       </c>
       <c r="D453" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="E453" s="3" t="inlineStr">
         <is>
-          <t>16777</t>
+          <t>253158861-001</t>
         </is>
       </c>
       <c r="F453" s="3" t="inlineStr">
         <is>
-          <t>Mike Cogswell Per diem for week of 10/20/2025 - 10/26/2025</t>
+          <t>Tax</t>
         </is>
       </c>
       <c r="G453" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="H453" s="5" t="n">
@@ -17414,37 +17450,505 @@
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
+        <v>45934</v>
+      </c>
+      <c r="B454" s="3" t="inlineStr">
+        <is>
+          <t>5115 · Rent - Equipment (direct)</t>
+        </is>
+      </c>
+      <c r="C454" s="4" t="n">
+        <v>2063</v>
+      </c>
+      <c r="D454" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="E454" s="3" t="inlineStr">
+        <is>
+          <t>253201955-001</t>
+        </is>
+      </c>
+      <c r="F454" s="3" t="inlineStr">
+        <is>
+          <t>SKID STEER MINI 550-1099# DSL TRACKED</t>
+        </is>
+      </c>
+      <c r="G454" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="H454" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" s="2" t="n">
+        <v>45934</v>
+      </c>
+      <c r="B455" s="3" t="inlineStr">
+        <is>
+          <t>5115 · Rent - Equipment (direct)</t>
+        </is>
+      </c>
+      <c r="C455" s="4" t="n">
+        <v>400</v>
+      </c>
+      <c r="D455" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="E455" s="3" t="inlineStr">
+        <is>
+          <t>253201955-001</t>
+        </is>
+      </c>
+      <c r="F455" s="3" t="inlineStr">
+        <is>
+          <t>Delivery &amp; Pickup Charge</t>
+        </is>
+      </c>
+      <c r="G455" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="H455" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" s="2" t="n">
+        <v>45934</v>
+      </c>
+      <c r="B456" s="3" t="inlineStr">
+        <is>
+          <t>5115 · Rent - Equipment (direct)</t>
+        </is>
+      </c>
+      <c r="C456" s="4" t="n">
+        <v>236.59</v>
+      </c>
+      <c r="D456" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="E456" s="3" t="inlineStr">
+        <is>
+          <t>253201955-001</t>
+        </is>
+      </c>
+      <c r="F456" s="3" t="inlineStr">
+        <is>
+          <t>Tax &amp; Environmental Charge</t>
+        </is>
+      </c>
+      <c r="G456" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="H456" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" s="2" t="n">
+        <v>45937</v>
+      </c>
+      <c r="B457" s="3" t="inlineStr">
+        <is>
+          <t>5120 · Outside services (Direct)</t>
+        </is>
+      </c>
+      <c r="C457" s="4" t="n">
+        <v>111.69</v>
+      </c>
+      <c r="D457" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="E457" s="3" t="inlineStr">
+        <is>
+          <t>2939809</t>
+        </is>
+      </c>
+      <c r="F457" s="3" t="inlineStr">
+        <is>
+          <t>Fluctuating Fuel Recovery</t>
+        </is>
+      </c>
+      <c r="G457" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="H457" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" s="2" t="n">
+        <v>45937</v>
+      </c>
+      <c r="B458" s="3" t="inlineStr">
+        <is>
+          <t>5120 · Outside services (Direct)</t>
+        </is>
+      </c>
+      <c r="C458" s="4" t="n">
+        <v>72.93000000000001</v>
+      </c>
+      <c r="D458" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="E458" s="3" t="inlineStr">
+        <is>
+          <t>2939809</t>
+        </is>
+      </c>
+      <c r="F458" s="3" t="inlineStr">
+        <is>
+          <t>Supply Water</t>
+        </is>
+      </c>
+      <c r="G458" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="H458" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="2" t="n">
+        <v>45937</v>
+      </c>
+      <c r="B459" s="3" t="inlineStr">
+        <is>
+          <t>5120 · Outside services (Direct)</t>
+        </is>
+      </c>
+      <c r="C459" s="4" t="n">
+        <v>30.29</v>
+      </c>
+      <c r="D459" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="E459" s="3" t="inlineStr">
+        <is>
+          <t>2939809</t>
+        </is>
+      </c>
+      <c r="F459" s="3" t="inlineStr">
+        <is>
+          <t>Consumable Materials</t>
+        </is>
+      </c>
+      <c r="G459" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="H459" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" s="2" t="n">
+        <v>45937</v>
+      </c>
+      <c r="B460" s="3" t="inlineStr">
+        <is>
+          <t>5120 · Outside services (Direct)</t>
+        </is>
+      </c>
+      <c r="C460" s="3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D460" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="E460" s="3" t="inlineStr">
+        <is>
+          <t>2939809</t>
+        </is>
+      </c>
+      <c r="F460" s="3" t="inlineStr">
+        <is>
+          <t>Badger Hydrovac With Operator Overtime</t>
+        </is>
+      </c>
+      <c r="G460" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="H460" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" s="2" t="n">
+        <v>45937</v>
+      </c>
+      <c r="B461" s="3" t="inlineStr">
+        <is>
+          <t>5120 · Outside services (Direct)</t>
+        </is>
+      </c>
+      <c r="C461" s="4" t="n">
+        <v>1050.6</v>
+      </c>
+      <c r="D461" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="E461" s="3" t="inlineStr">
+        <is>
+          <t>2939809</t>
+        </is>
+      </c>
+      <c r="F461" s="3" t="inlineStr">
+        <is>
+          <t>Badger Hydrovac With Operator</t>
+        </is>
+      </c>
+      <c r="G461" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="H461" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" s="2" t="n">
+        <v>45937</v>
+      </c>
+      <c r="B462" s="3" t="inlineStr">
+        <is>
+          <t>5120 · Outside services (Direct)</t>
+        </is>
+      </c>
+      <c r="C462" s="4" t="n">
+        <v>157.08</v>
+      </c>
+      <c r="D462" s="3" t="inlineStr">
+        <is>
+          <t>Bill</t>
+        </is>
+      </c>
+      <c r="E462" s="3" t="inlineStr">
+        <is>
+          <t>2939809</t>
+        </is>
+      </c>
+      <c r="F462" s="3" t="inlineStr">
+        <is>
+          <t>Disposition</t>
+        </is>
+      </c>
+      <c r="G462" s="3" t="inlineStr">
+        <is>
+          <t>2000 · Accounts Payable</t>
+        </is>
+      </c>
+      <c r="H462" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" s="2" t="n">
+        <v>45944</v>
+      </c>
+      <c r="B463" s="3" t="inlineStr">
+        <is>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
+        </is>
+      </c>
+      <c r="C463" s="4" t="n">
+        <v>350</v>
+      </c>
+      <c r="D463" s="3" t="inlineStr">
+        <is>
+          <t>General Journal</t>
+        </is>
+      </c>
+      <c r="E463" s="3" t="inlineStr">
+        <is>
+          <t>16774</t>
+        </is>
+      </c>
+      <c r="F463" s="3" t="inlineStr">
+        <is>
+          <t>Andy Remillard Per diem for week of 10/13/2025 - 10/19/2025</t>
+        </is>
+      </c>
+      <c r="G463" s="3" t="inlineStr">
+        <is>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="H463" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" s="2" t="n">
         <v>45947</v>
       </c>
-      <c r="B454" s="3" t="inlineStr">
+      <c r="B464" s="3" t="inlineStr">
         <is>
           <t>5108 · Meals &amp; entertainment (Direct)</t>
         </is>
       </c>
-      <c r="C454" s="4" t="n">
+      <c r="C464" s="4" t="n">
+        <v>350</v>
+      </c>
+      <c r="D464" s="3" t="inlineStr">
+        <is>
+          <t>General Journal</t>
+        </is>
+      </c>
+      <c r="E464" s="3" t="inlineStr">
+        <is>
+          <t>16777</t>
+        </is>
+      </c>
+      <c r="F464" s="3" t="inlineStr">
+        <is>
+          <t>Andy Remillard Per diem for week of 10/20/2025 - 10/26/2025</t>
+        </is>
+      </c>
+      <c r="G464" s="3" t="inlineStr">
+        <is>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="H464" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" s="2" t="n">
+        <v>45947</v>
+      </c>
+      <c r="B465" s="3" t="inlineStr">
+        <is>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
+        </is>
+      </c>
+      <c r="C465" s="4" t="n">
         <v>150</v>
       </c>
-      <c r="D454" s="3" t="inlineStr">
+      <c r="D465" s="3" t="inlineStr">
         <is>
           <t>General Journal</t>
         </is>
       </c>
-      <c r="E454" s="3" t="inlineStr">
+      <c r="E465" s="3" t="inlineStr">
         <is>
           <t>16777</t>
         </is>
       </c>
-      <c r="F454" s="3" t="inlineStr">
+      <c r="F465" s="3" t="inlineStr">
+        <is>
+          <t>Levi Winslow Per diem for week of 10/20/2025 - 10/26/2025</t>
+        </is>
+      </c>
+      <c r="G465" s="3" t="inlineStr">
+        <is>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="H465" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" s="2" t="n">
+        <v>45947</v>
+      </c>
+      <c r="B466" s="3" t="inlineStr">
+        <is>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
+        </is>
+      </c>
+      <c r="C466" s="4" t="n">
+        <v>350</v>
+      </c>
+      <c r="D466" s="3" t="inlineStr">
+        <is>
+          <t>General Journal</t>
+        </is>
+      </c>
+      <c r="E466" s="3" t="inlineStr">
+        <is>
+          <t>16777</t>
+        </is>
+      </c>
+      <c r="F466" s="3" t="inlineStr">
+        <is>
+          <t>Mike Cogswell Per diem for week of 10/20/2025 - 10/26/2025</t>
+        </is>
+      </c>
+      <c r="G466" s="3" t="inlineStr">
+        <is>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+        </is>
+      </c>
+      <c r="H466" s="5" t="n">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" s="2" t="n">
+        <v>45947</v>
+      </c>
+      <c r="B467" s="3" t="inlineStr">
+        <is>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
+        </is>
+      </c>
+      <c r="C467" s="4" t="n">
+        <v>150</v>
+      </c>
+      <c r="D467" s="3" t="inlineStr">
+        <is>
+          <t>General Journal</t>
+        </is>
+      </c>
+      <c r="E467" s="3" t="inlineStr">
+        <is>
+          <t>16777</t>
+        </is>
+      </c>
+      <c r="F467" s="3" t="inlineStr">
         <is>
           <t>Ryan Ordelt Per diem for week of 10/20/2025 - 10/26/2025</t>
         </is>
       </c>
-      <c r="G454" s="3" t="inlineStr">
+      <c r="G467" s="3" t="inlineStr">
         <is>
           <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
-      <c r="H454" s="5" t="n">
+      <c r="H467" s="5" t="n">
         <v>400</v>
       </c>
     </row>

--- a/quickbook_summary.xlsx
+++ b/quickbook_summary.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Invoice" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cost" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="cost account sum" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -541,7 +542,7 @@
         </is>
       </c>
       <c r="H2" s="4" t="n">
-        <v>200</v>
+        <v>500</v>
       </c>
     </row>
     <row r="3">
@@ -577,7 +578,7 @@
         </is>
       </c>
       <c r="H3" s="4" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4">
@@ -613,7 +614,7 @@
         </is>
       </c>
       <c r="H4" s="4" t="n">
-        <v>200</v>
+        <v>400</v>
       </c>
     </row>
     <row r="5">
@@ -649,7 +650,7 @@
         </is>
       </c>
       <c r="H5" s="4" t="n">
-        <v>200</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6">
@@ -721,7 +722,7 @@
         </is>
       </c>
       <c r="H7" s="4" t="n">
-        <v>200</v>
+        <v>600</v>
       </c>
     </row>
     <row r="8">
@@ -757,7 +758,7 @@
         </is>
       </c>
       <c r="H8" s="4" t="n">
-        <v>200</v>
+        <v>700</v>
       </c>
     </row>
     <row r="9">
@@ -793,7 +794,7 @@
         </is>
       </c>
       <c r="H9" s="4" t="n">
-        <v>300</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
@@ -829,7 +830,7 @@
         </is>
       </c>
       <c r="H10" s="4" t="n">
-        <v>300</v>
+        <v>500</v>
       </c>
     </row>
     <row r="11">
@@ -865,7 +866,7 @@
         </is>
       </c>
       <c r="H11" s="4" t="n">
-        <v>300</v>
+        <v>200</v>
       </c>
     </row>
     <row r="12">
@@ -901,7 +902,7 @@
         </is>
       </c>
       <c r="H12" s="4" t="n">
-        <v>300</v>
+        <v>400</v>
       </c>
     </row>
     <row r="13">
@@ -973,7 +974,7 @@
         </is>
       </c>
       <c r="H14" s="4" t="n">
-        <v>300</v>
+        <v>600</v>
       </c>
     </row>
     <row r="15">
@@ -1009,7 +1010,7 @@
         </is>
       </c>
       <c r="H15" s="4" t="n">
-        <v>300</v>
+        <v>700</v>
       </c>
     </row>
     <row r="16">
@@ -1189,7 +1190,7 @@
         </is>
       </c>
       <c r="H20" s="4" t="n">
-        <v>400</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21">
@@ -1225,7 +1226,7 @@
         </is>
       </c>
       <c r="H21" s="4" t="n">
-        <v>400</v>
+        <v>500</v>
       </c>
     </row>
     <row r="22">
@@ -1261,7 +1262,7 @@
         </is>
       </c>
       <c r="H22" s="4" t="n">
-        <v>400</v>
+        <v>200</v>
       </c>
     </row>
     <row r="23">
@@ -1297,7 +1298,7 @@
         </is>
       </c>
       <c r="H23" s="4" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="24">
@@ -1369,7 +1370,7 @@
         </is>
       </c>
       <c r="H25" s="4" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
     </row>
     <row r="26">
@@ -1405,7 +1406,7 @@
         </is>
       </c>
       <c r="H26" s="4" t="n">
-        <v>400</v>
+        <v>700</v>
       </c>
     </row>
     <row r="27">
@@ -1455,7 +1456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H674"/>
+  <dimension ref="A1:H673"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -13547,7 +13548,7 @@
         </is>
       </c>
       <c r="H339" s="4" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="340">
@@ -13583,7 +13584,7 @@
         </is>
       </c>
       <c r="H340" s="4" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="341">
@@ -13619,7 +13620,7 @@
         </is>
       </c>
       <c r="H341" s="4" t="n">
-        <v>400</v>
+        <v>300</v>
       </c>
     </row>
     <row r="342">
@@ -20528,34 +20529,34 @@
     </row>
     <row r="538">
       <c r="A538" s="2" t="n">
-        <v>45957</v>
+        <v>45958</v>
       </c>
       <c r="B538" s="3" t="inlineStr">
         <is>
-          <t>1100 · Trade Debtors</t>
+          <t>5115 · Rent - Equipment (direct)</t>
         </is>
       </c>
       <c r="C538" s="5" t="n">
-        <v>186293.56</v>
+        <v>2076</v>
       </c>
       <c r="D538" s="3" t="inlineStr">
         <is>
-          <t>Payment</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="E538" s="3" t="inlineStr">
         <is>
-          <t>7224263064</t>
+          <t>254635154-001</t>
         </is>
       </c>
       <c r="F538" s="3" t="inlineStr">
         <is>
-          <t>CIN25-002</t>
+          <t>FORKLIFT VARIABLE REACH 10000# 50'-62'</t>
         </is>
       </c>
       <c r="G538" s="3" t="inlineStr">
         <is>
-          <t>1504 · Undeposited Funds</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="H538" s="4" t="n">
@@ -20572,7 +20573,7 @@
         </is>
       </c>
       <c r="C539" s="5" t="n">
-        <v>2076</v>
+        <v>292.74</v>
       </c>
       <c r="D539" s="3" t="inlineStr">
         <is>
@@ -20586,7 +20587,7 @@
       </c>
       <c r="F539" s="3" t="inlineStr">
         <is>
-          <t>FORKLIFT VARIABLE REACH 10000# 50'-62'</t>
+          <t>Taxes &amp; Fees</t>
         </is>
       </c>
       <c r="G539" s="3" t="inlineStr">
@@ -20608,7 +20609,7 @@
         </is>
       </c>
       <c r="C540" s="5" t="n">
-        <v>292.74</v>
+        <v>540.5</v>
       </c>
       <c r="D540" s="3" t="inlineStr">
         <is>
@@ -20622,7 +20623,7 @@
       </c>
       <c r="F540" s="3" t="inlineStr">
         <is>
-          <t>Taxes &amp; Fees</t>
+          <t>Delivery &amp; Pick Up Charge</t>
         </is>
       </c>
       <c r="G540" s="3" t="inlineStr">
@@ -20636,15 +20637,15 @@
     </row>
     <row r="541">
       <c r="A541" s="2" t="n">
-        <v>45958</v>
+        <v>45959</v>
       </c>
       <c r="B541" s="3" t="inlineStr">
         <is>
-          <t>5115 · Rent - Equipment (direct)</t>
+          <t>5120 · Outside services (Direct)</t>
         </is>
       </c>
       <c r="C541" s="5" t="n">
-        <v>540.5</v>
+        <v>835</v>
       </c>
       <c r="D541" s="3" t="inlineStr">
         <is>
@@ -20653,12 +20654,12 @@
       </c>
       <c r="E541" s="3" t="inlineStr">
         <is>
-          <t>254635154-001</t>
+          <t>2204771</t>
         </is>
       </c>
       <c r="F541" s="3" t="inlineStr">
         <is>
-          <t>Delivery &amp; Pick Up Charge</t>
+          <t>Delivery Hauling</t>
         </is>
       </c>
       <c r="G541" s="3" t="inlineStr">
@@ -20680,7 +20681,7 @@
         </is>
       </c>
       <c r="C542" s="5" t="n">
-        <v>835</v>
+        <v>2500</v>
       </c>
       <c r="D542" s="3" t="inlineStr">
         <is>
@@ -20694,7 +20695,7 @@
       </c>
       <c r="F542" s="3" t="inlineStr">
         <is>
-          <t>Delivery Hauling</t>
+          <t>Hauling Rebillable</t>
         </is>
       </c>
       <c r="G542" s="3" t="inlineStr">
@@ -20716,7 +20717,7 @@
         </is>
       </c>
       <c r="C543" s="5" t="n">
-        <v>2500</v>
+        <v>208.75</v>
       </c>
       <c r="D543" s="3" t="inlineStr">
         <is>
@@ -20730,7 +20731,7 @@
       </c>
       <c r="F543" s="3" t="inlineStr">
         <is>
-          <t>Hauling Rebillable</t>
+          <t>Fuel Charge</t>
         </is>
       </c>
       <c r="G543" s="3" t="inlineStr">
@@ -20752,7 +20753,7 @@
         </is>
       </c>
       <c r="C544" s="5" t="n">
-        <v>208.75</v>
+        <v>65.13</v>
       </c>
       <c r="D544" s="3" t="inlineStr">
         <is>
@@ -20766,7 +20767,7 @@
       </c>
       <c r="F544" s="3" t="inlineStr">
         <is>
-          <t>Fuel Charge</t>
+          <t>Tax</t>
         </is>
       </c>
       <c r="G544" s="3" t="inlineStr">
@@ -20780,34 +20781,34 @@
     </row>
     <row r="545">
       <c r="A545" s="2" t="n">
-        <v>45959</v>
+        <v>45960</v>
       </c>
       <c r="B545" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C545" s="5" t="n">
-        <v>65.13</v>
+        <v>293.55</v>
       </c>
       <c r="D545" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>Invoice</t>
         </is>
       </c>
       <c r="E545" s="3" t="inlineStr">
         <is>
-          <t>2204771</t>
+          <t>CIN25-003</t>
         </is>
       </c>
       <c r="F545" s="3" t="inlineStr">
         <is>
-          <t>Tax</t>
+          <t>Badger Hydrovac With Operator - Overtime</t>
         </is>
       </c>
       <c r="G545" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>1100 · Trade Debtors</t>
         </is>
       </c>
       <c r="H545" s="4" t="n">
@@ -20928,11 +20929,11 @@
       </c>
       <c r="B549" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5120 · Outside services (Direct)</t>
         </is>
       </c>
       <c r="C549" s="5" t="n">
-        <v>293.55</v>
+        <v>217.18</v>
       </c>
       <c r="D549" s="3" t="inlineStr">
         <is>
@@ -20946,7 +20947,7 @@
       </c>
       <c r="F549" s="3" t="inlineStr">
         <is>
-          <t>Badger Hydrovac With Operator - Overtime</t>
+          <t>Fluctuating Fuel Recovery</t>
         </is>
       </c>
       <c r="G549" s="3" t="inlineStr">
@@ -20968,7 +20969,7 @@
         </is>
       </c>
       <c r="C550" s="5" t="n">
-        <v>217.18</v>
+        <v>72.93000000000001</v>
       </c>
       <c r="D550" s="3" t="inlineStr">
         <is>
@@ -20982,7 +20983,7 @@
       </c>
       <c r="F550" s="3" t="inlineStr">
         <is>
-          <t>Fluctuating Fuel Recovery</t>
+          <t>Supply Water</t>
         </is>
       </c>
       <c r="G550" s="3" t="inlineStr">
@@ -21004,7 +21005,7 @@
         </is>
       </c>
       <c r="C551" s="5" t="n">
-        <v>72.93000000000001</v>
+        <v>30.29</v>
       </c>
       <c r="D551" s="3" t="inlineStr">
         <is>
@@ -21018,7 +21019,7 @@
       </c>
       <c r="F551" s="3" t="inlineStr">
         <is>
-          <t>Supply Water</t>
+          <t>Consumable Materials</t>
         </is>
       </c>
       <c r="G551" s="3" t="inlineStr">
@@ -21040,7 +21041,7 @@
         </is>
       </c>
       <c r="C552" s="5" t="n">
-        <v>30.29</v>
+        <v>2101.2</v>
       </c>
       <c r="D552" s="3" t="inlineStr">
         <is>
@@ -21054,7 +21055,7 @@
       </c>
       <c r="F552" s="3" t="inlineStr">
         <is>
-          <t>Consumable Materials</t>
+          <t>Badger Hydrovac With Operator</t>
         </is>
       </c>
       <c r="G552" s="3" t="inlineStr">
@@ -21076,7 +21077,7 @@
         </is>
       </c>
       <c r="C553" s="5" t="n">
-        <v>2101.2</v>
+        <v>157.08</v>
       </c>
       <c r="D553" s="3" t="inlineStr">
         <is>
@@ -21090,7 +21091,7 @@
       </c>
       <c r="F553" s="3" t="inlineStr">
         <is>
-          <t>Badger Hydrovac With Operator</t>
+          <t>Disposition</t>
         </is>
       </c>
       <c r="G553" s="3" t="inlineStr">
@@ -21112,7 +21113,7 @@
         </is>
       </c>
       <c r="C554" s="5" t="n">
-        <v>157.08</v>
+        <v>217.18</v>
       </c>
       <c r="D554" s="3" t="inlineStr">
         <is>
@@ -21126,7 +21127,7 @@
       </c>
       <c r="F554" s="3" t="inlineStr">
         <is>
-          <t>Disposition</t>
+          <t>Fluctuating Fuel Recovery</t>
         </is>
       </c>
       <c r="G554" s="3" t="inlineStr">
@@ -21148,7 +21149,7 @@
         </is>
       </c>
       <c r="C555" s="5" t="n">
-        <v>217.18</v>
+        <v>72.93000000000001</v>
       </c>
       <c r="D555" s="3" t="inlineStr">
         <is>
@@ -21162,7 +21163,7 @@
       </c>
       <c r="F555" s="3" t="inlineStr">
         <is>
-          <t>Fluctuating Fuel Recovery</t>
+          <t>Supply Water</t>
         </is>
       </c>
       <c r="G555" s="3" t="inlineStr">
@@ -21184,7 +21185,7 @@
         </is>
       </c>
       <c r="C556" s="5" t="n">
-        <v>72.93000000000001</v>
+        <v>30.29</v>
       </c>
       <c r="D556" s="3" t="inlineStr">
         <is>
@@ -21198,7 +21199,7 @@
       </c>
       <c r="F556" s="3" t="inlineStr">
         <is>
-          <t>Supply Water</t>
+          <t>Consumable Materials</t>
         </is>
       </c>
       <c r="G556" s="3" t="inlineStr">
@@ -21220,7 +21221,7 @@
         </is>
       </c>
       <c r="C557" s="5" t="n">
-        <v>30.29</v>
+        <v>2101.2</v>
       </c>
       <c r="D557" s="3" t="inlineStr">
         <is>
@@ -21234,7 +21235,7 @@
       </c>
       <c r="F557" s="3" t="inlineStr">
         <is>
-          <t>Consumable Materials</t>
+          <t>Badger Hydrovac With Operator</t>
         </is>
       </c>
       <c r="G557" s="3" t="inlineStr">
@@ -21256,7 +21257,7 @@
         </is>
       </c>
       <c r="C558" s="5" t="n">
-        <v>2101.2</v>
+        <v>157.08</v>
       </c>
       <c r="D558" s="3" t="inlineStr">
         <is>
@@ -21270,7 +21271,7 @@
       </c>
       <c r="F558" s="3" t="inlineStr">
         <is>
-          <t>Badger Hydrovac With Operator</t>
+          <t>Disposition</t>
         </is>
       </c>
       <c r="G558" s="3" t="inlineStr">
@@ -21292,7 +21293,7 @@
         </is>
       </c>
       <c r="C559" s="5" t="n">
-        <v>157.08</v>
+        <v>217.18</v>
       </c>
       <c r="D559" s="3" t="inlineStr">
         <is>
@@ -21306,7 +21307,7 @@
       </c>
       <c r="F559" s="3" t="inlineStr">
         <is>
-          <t>Disposition</t>
+          <t>Fluctuating Fuel Recovery</t>
         </is>
       </c>
       <c r="G559" s="3" t="inlineStr">
@@ -21328,7 +21329,7 @@
         </is>
       </c>
       <c r="C560" s="5" t="n">
-        <v>217.18</v>
+        <v>218.79</v>
       </c>
       <c r="D560" s="3" t="inlineStr">
         <is>
@@ -21342,7 +21343,7 @@
       </c>
       <c r="F560" s="3" t="inlineStr">
         <is>
-          <t>Fluctuating Fuel Recovery</t>
+          <t>Supply Water</t>
         </is>
       </c>
       <c r="G560" s="3" t="inlineStr">
@@ -21364,7 +21365,7 @@
         </is>
       </c>
       <c r="C561" s="5" t="n">
-        <v>218.79</v>
+        <v>90.87</v>
       </c>
       <c r="D561" s="3" t="inlineStr">
         <is>
@@ -21378,7 +21379,7 @@
       </c>
       <c r="F561" s="3" t="inlineStr">
         <is>
-          <t>Supply Water</t>
+          <t>Consumable Materials</t>
         </is>
       </c>
       <c r="G561" s="3" t="inlineStr">
@@ -21400,7 +21401,7 @@
         </is>
       </c>
       <c r="C562" s="5" t="n">
-        <v>90.87</v>
+        <v>6303.6</v>
       </c>
       <c r="D562" s="3" t="inlineStr">
         <is>
@@ -21414,7 +21415,7 @@
       </c>
       <c r="F562" s="3" t="inlineStr">
         <is>
-          <t>Consumable Materials</t>
+          <t>Badger Hydrovac With Operator</t>
         </is>
       </c>
       <c r="G562" s="3" t="inlineStr">
@@ -21436,7 +21437,7 @@
         </is>
       </c>
       <c r="C563" s="5" t="n">
-        <v>6303.6</v>
+        <v>471.24</v>
       </c>
       <c r="D563" s="3" t="inlineStr">
         <is>
@@ -21450,7 +21451,7 @@
       </c>
       <c r="F563" s="3" t="inlineStr">
         <is>
-          <t>Badger Hydrovac With Operator</t>
+          <t>Disposition</t>
         </is>
       </c>
       <c r="G563" s="3" t="inlineStr">
@@ -21472,7 +21473,7 @@
         </is>
       </c>
       <c r="C564" s="5" t="n">
-        <v>471.24</v>
+        <v>440.33</v>
       </c>
       <c r="D564" s="3" t="inlineStr">
         <is>
@@ -21486,7 +21487,7 @@
       </c>
       <c r="F564" s="3" t="inlineStr">
         <is>
-          <t>Disposition</t>
+          <t>Badger Hydrovac With Operator - Overtime</t>
         </is>
       </c>
       <c r="G564" s="3" t="inlineStr">
@@ -21508,7 +21509,7 @@
         </is>
       </c>
       <c r="C565" s="5" t="n">
-        <v>440.33</v>
+        <v>398.35</v>
       </c>
       <c r="D565" s="3" t="inlineStr">
         <is>
@@ -21522,7 +21523,7 @@
       </c>
       <c r="F565" s="3" t="inlineStr">
         <is>
-          <t>Badger Hydrovac With Operator - Overtime</t>
+          <t>Fluctuating Fuel Recovery</t>
         </is>
       </c>
       <c r="G565" s="3" t="inlineStr">
@@ -21544,7 +21545,7 @@
         </is>
       </c>
       <c r="C566" s="5" t="n">
-        <v>398.35</v>
+        <v>193.17</v>
       </c>
       <c r="D566" s="3" t="inlineStr">
         <is>
@@ -21580,7 +21581,7 @@
         </is>
       </c>
       <c r="C567" s="5" t="n">
-        <v>193.17</v>
+        <v>72.93000000000001</v>
       </c>
       <c r="D567" s="3" t="inlineStr">
         <is>
@@ -21594,7 +21595,7 @@
       </c>
       <c r="F567" s="3" t="inlineStr">
         <is>
-          <t>Fluctuating Fuel Recovery</t>
+          <t>Supply Water</t>
         </is>
       </c>
       <c r="G567" s="3" t="inlineStr">
@@ -21616,7 +21617,7 @@
         </is>
       </c>
       <c r="C568" s="5" t="n">
-        <v>72.93000000000001</v>
+        <v>30.29</v>
       </c>
       <c r="D568" s="3" t="inlineStr">
         <is>
@@ -21630,7 +21631,7 @@
       </c>
       <c r="F568" s="3" t="inlineStr">
         <is>
-          <t>Supply Water</t>
+          <t>Consumable Materials</t>
         </is>
       </c>
       <c r="G568" s="3" t="inlineStr">
@@ -21652,7 +21653,7 @@
         </is>
       </c>
       <c r="C569" s="5" t="n">
-        <v>30.29</v>
+        <v>2101.2</v>
       </c>
       <c r="D569" s="3" t="inlineStr">
         <is>
@@ -21666,7 +21667,7 @@
       </c>
       <c r="F569" s="3" t="inlineStr">
         <is>
-          <t>Consumable Materials</t>
+          <t>Badger Hydrovac With Operator</t>
         </is>
       </c>
       <c r="G569" s="3" t="inlineStr">
@@ -21688,7 +21689,7 @@
         </is>
       </c>
       <c r="C570" s="5" t="n">
-        <v>2101.2</v>
+        <v>157.08</v>
       </c>
       <c r="D570" s="3" t="inlineStr">
         <is>
@@ -21702,7 +21703,7 @@
       </c>
       <c r="F570" s="3" t="inlineStr">
         <is>
-          <t>Badger Hydrovac With Operator</t>
+          <t>Disposition</t>
         </is>
       </c>
       <c r="G570" s="3" t="inlineStr">
@@ -21724,7 +21725,7 @@
         </is>
       </c>
       <c r="C571" s="5" t="n">
-        <v>157.08</v>
+        <v>205.18</v>
       </c>
       <c r="D571" s="3" t="inlineStr">
         <is>
@@ -21738,7 +21739,7 @@
       </c>
       <c r="F571" s="3" t="inlineStr">
         <is>
-          <t>Disposition</t>
+          <t>Fluctuating Fuel Recovery</t>
         </is>
       </c>
       <c r="G571" s="3" t="inlineStr">
@@ -21760,7 +21761,7 @@
         </is>
       </c>
       <c r="C572" s="5" t="n">
-        <v>205.18</v>
+        <v>72.93000000000001</v>
       </c>
       <c r="D572" s="3" t="inlineStr">
         <is>
@@ -21774,7 +21775,7 @@
       </c>
       <c r="F572" s="3" t="inlineStr">
         <is>
-          <t>Fluctuating Fuel Recovery</t>
+          <t>Supply Water</t>
         </is>
       </c>
       <c r="G572" s="3" t="inlineStr">
@@ -21796,7 +21797,7 @@
         </is>
       </c>
       <c r="C573" s="5" t="n">
-        <v>72.93000000000001</v>
+        <v>30.29</v>
       </c>
       <c r="D573" s="3" t="inlineStr">
         <is>
@@ -21810,7 +21811,7 @@
       </c>
       <c r="F573" s="3" t="inlineStr">
         <is>
-          <t>Supply Water</t>
+          <t>Consumable Materials</t>
         </is>
       </c>
       <c r="G573" s="3" t="inlineStr">
@@ -21832,7 +21833,7 @@
         </is>
       </c>
       <c r="C574" s="5" t="n">
-        <v>30.29</v>
+        <v>2101.2</v>
       </c>
       <c r="D574" s="3" t="inlineStr">
         <is>
@@ -21846,7 +21847,7 @@
       </c>
       <c r="F574" s="3" t="inlineStr">
         <is>
-          <t>Consumable Materials</t>
+          <t>Badger Hydrovac With Operator</t>
         </is>
       </c>
       <c r="G574" s="3" t="inlineStr">
@@ -21868,7 +21869,7 @@
         </is>
       </c>
       <c r="C575" s="5" t="n">
-        <v>2101.2</v>
+        <v>157.08</v>
       </c>
       <c r="D575" s="3" t="inlineStr">
         <is>
@@ -21882,7 +21883,7 @@
       </c>
       <c r="F575" s="3" t="inlineStr">
         <is>
-          <t>Badger Hydrovac With Operator</t>
+          <t>Disposition</t>
         </is>
       </c>
       <c r="G575" s="3" t="inlineStr">
@@ -21904,7 +21905,7 @@
         </is>
       </c>
       <c r="C576" s="5" t="n">
-        <v>157.08</v>
+        <v>146.78</v>
       </c>
       <c r="D576" s="3" t="inlineStr">
         <is>
@@ -21918,7 +21919,7 @@
       </c>
       <c r="F576" s="3" t="inlineStr">
         <is>
-          <t>Disposition</t>
+          <t>Badger Hydrovac With Operator</t>
         </is>
       </c>
       <c r="G576" s="3" t="inlineStr">
@@ -21940,7 +21941,7 @@
         </is>
       </c>
       <c r="C577" s="5" t="n">
-        <v>146.78</v>
+        <v>157.08</v>
       </c>
       <c r="D577" s="3" t="inlineStr">
         <is>
@@ -21954,7 +21955,7 @@
       </c>
       <c r="F577" s="3" t="inlineStr">
         <is>
-          <t>Badger Hydrovac With Operator</t>
+          <t>Disposition</t>
         </is>
       </c>
       <c r="G577" s="3" t="inlineStr">
@@ -21976,7 +21977,7 @@
         </is>
       </c>
       <c r="C578" s="5" t="n">
-        <v>157.08</v>
+        <v>160.94</v>
       </c>
       <c r="D578" s="3" t="inlineStr">
         <is>
@@ -21990,7 +21991,7 @@
       </c>
       <c r="F578" s="3" t="inlineStr">
         <is>
-          <t>Disposition</t>
+          <t>Fluctuating Fuel Recovery</t>
         </is>
       </c>
       <c r="G578" s="3" t="inlineStr">
@@ -22012,7 +22013,7 @@
         </is>
       </c>
       <c r="C579" s="5" t="n">
-        <v>160.94</v>
+        <v>72.93000000000001</v>
       </c>
       <c r="D579" s="3" t="inlineStr">
         <is>
@@ -22026,7 +22027,7 @@
       </c>
       <c r="F579" s="3" t="inlineStr">
         <is>
-          <t>Fluctuating Fuel Recovery</t>
+          <t>Supply Water</t>
         </is>
       </c>
       <c r="G579" s="3" t="inlineStr">
@@ -22048,7 +22049,7 @@
         </is>
       </c>
       <c r="C580" s="5" t="n">
-        <v>72.93000000000001</v>
+        <v>30.29</v>
       </c>
       <c r="D580" s="3" t="inlineStr">
         <is>
@@ -22062,7 +22063,7 @@
       </c>
       <c r="F580" s="3" t="inlineStr">
         <is>
-          <t>Supply Water</t>
+          <t>Consumable Materials</t>
         </is>
       </c>
       <c r="G580" s="3" t="inlineStr">
@@ -22084,7 +22085,7 @@
         </is>
       </c>
       <c r="C581" s="5" t="n">
-        <v>30.29</v>
+        <v>1707.23</v>
       </c>
       <c r="D581" s="3" t="inlineStr">
         <is>
@@ -22098,7 +22099,7 @@
       </c>
       <c r="F581" s="3" t="inlineStr">
         <is>
-          <t>Consumable Materials</t>
+          <t>Badger Hydrovac With Operator</t>
         </is>
       </c>
       <c r="G581" s="3" t="inlineStr">
@@ -22120,7 +22121,7 @@
         </is>
       </c>
       <c r="C582" s="5" t="n">
-        <v>1707.23</v>
+        <v>217.18</v>
       </c>
       <c r="D582" s="3" t="inlineStr">
         <is>
@@ -22134,7 +22135,7 @@
       </c>
       <c r="F582" s="3" t="inlineStr">
         <is>
-          <t>Badger Hydrovac With Operator</t>
+          <t>Fluctuating Fuel Recovery</t>
         </is>
       </c>
       <c r="G582" s="3" t="inlineStr">
@@ -22156,7 +22157,7 @@
         </is>
       </c>
       <c r="C583" s="5" t="n">
-        <v>217.18</v>
+        <v>72.93000000000001</v>
       </c>
       <c r="D583" s="3" t="inlineStr">
         <is>
@@ -22170,7 +22171,7 @@
       </c>
       <c r="F583" s="3" t="inlineStr">
         <is>
-          <t>Fluctuating Fuel Recovery</t>
+          <t>Supply Water</t>
         </is>
       </c>
       <c r="G583" s="3" t="inlineStr">
@@ -22192,7 +22193,7 @@
         </is>
       </c>
       <c r="C584" s="5" t="n">
-        <v>72.93000000000001</v>
+        <v>30.29</v>
       </c>
       <c r="D584" s="3" t="inlineStr">
         <is>
@@ -22206,7 +22207,7 @@
       </c>
       <c r="F584" s="3" t="inlineStr">
         <is>
-          <t>Supply Water</t>
+          <t>Consumable Materials</t>
         </is>
       </c>
       <c r="G584" s="3" t="inlineStr">
@@ -22228,7 +22229,7 @@
         </is>
       </c>
       <c r="C585" s="5" t="n">
-        <v>30.29</v>
+        <v>2101.2</v>
       </c>
       <c r="D585" s="3" t="inlineStr">
         <is>
@@ -22242,7 +22243,7 @@
       </c>
       <c r="F585" s="3" t="inlineStr">
         <is>
-          <t>Consumable Materials</t>
+          <t>Badger Hydrovac With Operator</t>
         </is>
       </c>
       <c r="G585" s="3" t="inlineStr">
@@ -22264,7 +22265,7 @@
         </is>
       </c>
       <c r="C586" s="5" t="n">
-        <v>2101.2</v>
+        <v>157.08</v>
       </c>
       <c r="D586" s="3" t="inlineStr">
         <is>
@@ -22278,7 +22279,7 @@
       </c>
       <c r="F586" s="3" t="inlineStr">
         <is>
-          <t>Badger Hydrovac With Operator</t>
+          <t>Disposition</t>
         </is>
       </c>
       <c r="G586" s="3" t="inlineStr">
@@ -22300,7 +22301,7 @@
         </is>
       </c>
       <c r="C587" s="5" t="n">
-        <v>157.08</v>
+        <v>201.2</v>
       </c>
       <c r="D587" s="3" t="inlineStr">
         <is>
@@ -22314,7 +22315,7 @@
       </c>
       <c r="F587" s="3" t="inlineStr">
         <is>
-          <t>Disposition</t>
+          <t>Fluctuating Fuel Recovery</t>
         </is>
       </c>
       <c r="G587" s="3" t="inlineStr">
@@ -22336,7 +22337,7 @@
         </is>
       </c>
       <c r="C588" s="5" t="n">
-        <v>201.2</v>
+        <v>72.93000000000001</v>
       </c>
       <c r="D588" s="3" t="inlineStr">
         <is>
@@ -22350,7 +22351,7 @@
       </c>
       <c r="F588" s="3" t="inlineStr">
         <is>
-          <t>Fluctuating Fuel Recovery</t>
+          <t>Supply Water</t>
         </is>
       </c>
       <c r="G588" s="3" t="inlineStr">
@@ -22372,7 +22373,7 @@
         </is>
       </c>
       <c r="C589" s="5" t="n">
-        <v>72.93000000000001</v>
+        <v>30.29</v>
       </c>
       <c r="D589" s="3" t="inlineStr">
         <is>
@@ -22386,7 +22387,7 @@
       </c>
       <c r="F589" s="3" t="inlineStr">
         <is>
-          <t>Supply Water</t>
+          <t>Consumable Materials</t>
         </is>
       </c>
       <c r="G589" s="3" t="inlineStr">
@@ -22408,7 +22409,7 @@
         </is>
       </c>
       <c r="C590" s="5" t="n">
-        <v>30.29</v>
+        <v>2101.2</v>
       </c>
       <c r="D590" s="3" t="inlineStr">
         <is>
@@ -22422,7 +22423,7 @@
       </c>
       <c r="F590" s="3" t="inlineStr">
         <is>
-          <t>Consumable Materials</t>
+          <t>Badger Hydrovac With Operator</t>
         </is>
       </c>
       <c r="G590" s="3" t="inlineStr">
@@ -22444,7 +22445,7 @@
         </is>
       </c>
       <c r="C591" s="5" t="n">
-        <v>2101.2</v>
+        <v>157.08</v>
       </c>
       <c r="D591" s="3" t="inlineStr">
         <is>
@@ -22458,7 +22459,7 @@
       </c>
       <c r="F591" s="3" t="inlineStr">
         <is>
-          <t>Badger Hydrovac With Operator</t>
+          <t>Disposition</t>
         </is>
       </c>
       <c r="G591" s="3" t="inlineStr">
@@ -22480,7 +22481,7 @@
         </is>
       </c>
       <c r="C592" s="5" t="n">
-        <v>157.08</v>
+        <v>217.18</v>
       </c>
       <c r="D592" s="3" t="inlineStr">
         <is>
@@ -22494,7 +22495,7 @@
       </c>
       <c r="F592" s="3" t="inlineStr">
         <is>
-          <t>Disposition</t>
+          <t>Fluctuating Fuel Recovery</t>
         </is>
       </c>
       <c r="G592" s="3" t="inlineStr">
@@ -22516,7 +22517,7 @@
         </is>
       </c>
       <c r="C593" s="5" t="n">
-        <v>217.18</v>
+        <v>72.93000000000001</v>
       </c>
       <c r="D593" s="3" t="inlineStr">
         <is>
@@ -22530,7 +22531,7 @@
       </c>
       <c r="F593" s="3" t="inlineStr">
         <is>
-          <t>Fluctuating Fuel Recovery</t>
+          <t>Supply Water</t>
         </is>
       </c>
       <c r="G593" s="3" t="inlineStr">
@@ -22552,7 +22553,7 @@
         </is>
       </c>
       <c r="C594" s="5" t="n">
-        <v>72.93000000000001</v>
+        <v>30.29</v>
       </c>
       <c r="D594" s="3" t="inlineStr">
         <is>
@@ -22566,7 +22567,7 @@
       </c>
       <c r="F594" s="3" t="inlineStr">
         <is>
-          <t>Supply Water</t>
+          <t>Consumable Materials</t>
         </is>
       </c>
       <c r="G594" s="3" t="inlineStr">
@@ -22588,7 +22589,7 @@
         </is>
       </c>
       <c r="C595" s="5" t="n">
-        <v>30.29</v>
+        <v>2101.2</v>
       </c>
       <c r="D595" s="3" t="inlineStr">
         <is>
@@ -22602,7 +22603,7 @@
       </c>
       <c r="F595" s="3" t="inlineStr">
         <is>
-          <t>Consumable Materials</t>
+          <t>Badger Hydrovac With Operator</t>
         </is>
       </c>
       <c r="G595" s="3" t="inlineStr">
@@ -22624,7 +22625,7 @@
         </is>
       </c>
       <c r="C596" s="5" t="n">
-        <v>2101.2</v>
+        <v>157.08</v>
       </c>
       <c r="D596" s="3" t="inlineStr">
         <is>
@@ -22638,7 +22639,7 @@
       </c>
       <c r="F596" s="3" t="inlineStr">
         <is>
-          <t>Badger Hydrovac With Operator</t>
+          <t>Disposition</t>
         </is>
       </c>
       <c r="G596" s="3" t="inlineStr">
@@ -22660,7 +22661,7 @@
         </is>
       </c>
       <c r="C597" s="5" t="n">
-        <v>157.08</v>
+        <v>364.86</v>
       </c>
       <c r="D597" s="3" t="inlineStr">
         <is>
@@ -22674,7 +22675,7 @@
       </c>
       <c r="F597" s="3" t="inlineStr">
         <is>
-          <t>Disposition</t>
+          <t>Fluctuating Fuel Recovery</t>
         </is>
       </c>
       <c r="G597" s="3" t="inlineStr">
@@ -22696,7 +22697,7 @@
         </is>
       </c>
       <c r="C598" s="5" t="n">
-        <v>364.86</v>
+        <v>145.86</v>
       </c>
       <c r="D598" s="3" t="inlineStr">
         <is>
@@ -22710,7 +22711,7 @@
       </c>
       <c r="F598" s="3" t="inlineStr">
         <is>
-          <t>Fluctuating Fuel Recovery</t>
+          <t>Supply Water</t>
         </is>
       </c>
       <c r="G598" s="3" t="inlineStr">
@@ -22732,7 +22733,7 @@
         </is>
       </c>
       <c r="C599" s="5" t="n">
-        <v>145.86</v>
+        <v>60.58</v>
       </c>
       <c r="D599" s="3" t="inlineStr">
         <is>
@@ -22746,7 +22747,7 @@
       </c>
       <c r="F599" s="3" t="inlineStr">
         <is>
-          <t>Supply Water</t>
+          <t>Consumable Materials</t>
         </is>
       </c>
       <c r="G599" s="3" t="inlineStr">
@@ -22768,7 +22769,7 @@
         </is>
       </c>
       <c r="C600" s="5" t="n">
-        <v>60.58</v>
+        <v>3939.75</v>
       </c>
       <c r="D600" s="3" t="inlineStr">
         <is>
@@ -22782,7 +22783,7 @@
       </c>
       <c r="F600" s="3" t="inlineStr">
         <is>
-          <t>Consumable Materials</t>
+          <t>Badger Hydrovac With Operator</t>
         </is>
       </c>
       <c r="G600" s="3" t="inlineStr">
@@ -22804,7 +22805,7 @@
         </is>
       </c>
       <c r="C601" s="5" t="n">
-        <v>3939.75</v>
+        <v>314.16</v>
       </c>
       <c r="D601" s="3" t="inlineStr">
         <is>
@@ -22818,7 +22819,7 @@
       </c>
       <c r="F601" s="3" t="inlineStr">
         <is>
-          <t>Badger Hydrovac With Operator</t>
+          <t>Disposition</t>
         </is>
       </c>
       <c r="G601" s="3" t="inlineStr">
@@ -22840,7 +22841,7 @@
         </is>
       </c>
       <c r="C602" s="5" t="n">
-        <v>314.16</v>
+        <v>418.89</v>
       </c>
       <c r="D602" s="3" t="inlineStr">
         <is>
@@ -22854,7 +22855,7 @@
       </c>
       <c r="F602" s="3" t="inlineStr">
         <is>
-          <t>Disposition</t>
+          <t>Fluctuating Fuel Recovery</t>
         </is>
       </c>
       <c r="G602" s="3" t="inlineStr">
@@ -22876,7 +22877,7 @@
         </is>
       </c>
       <c r="C603" s="5" t="n">
-        <v>418.89</v>
+        <v>145.86</v>
       </c>
       <c r="D603" s="3" t="inlineStr">
         <is>
@@ -22890,7 +22891,7 @@
       </c>
       <c r="F603" s="3" t="inlineStr">
         <is>
-          <t>Fluctuating Fuel Recovery</t>
+          <t>Supply Water</t>
         </is>
       </c>
       <c r="G603" s="3" t="inlineStr">
@@ -22912,7 +22913,7 @@
         </is>
       </c>
       <c r="C604" s="5" t="n">
-        <v>145.86</v>
+        <v>60.58</v>
       </c>
       <c r="D604" s="3" t="inlineStr">
         <is>
@@ -22926,7 +22927,7 @@
       </c>
       <c r="F604" s="3" t="inlineStr">
         <is>
-          <t>Supply Water</t>
+          <t>Consumable Materials</t>
         </is>
       </c>
       <c r="G604" s="3" t="inlineStr">
@@ -22948,7 +22949,7 @@
         </is>
       </c>
       <c r="C605" s="5" t="n">
-        <v>60.58</v>
+        <v>293.56</v>
       </c>
       <c r="D605" s="3" t="inlineStr">
         <is>
@@ -22962,7 +22963,7 @@
       </c>
       <c r="F605" s="3" t="inlineStr">
         <is>
-          <t>Consumable Materials</t>
+          <t>Badger Hydrovac With Operator Overtime</t>
         </is>
       </c>
       <c r="G605" s="3" t="inlineStr">
@@ -22984,7 +22985,7 @@
         </is>
       </c>
       <c r="C606" s="5" t="n">
-        <v>293.56</v>
+        <v>4202.4</v>
       </c>
       <c r="D606" s="3" t="inlineStr">
         <is>
@@ -22998,7 +22999,7 @@
       </c>
       <c r="F606" s="3" t="inlineStr">
         <is>
-          <t>Badger Hydrovac With Operator Overtime</t>
+          <t>Badger Hydrovac With Operator</t>
         </is>
       </c>
       <c r="G606" s="3" t="inlineStr">
@@ -23020,7 +23021,7 @@
         </is>
       </c>
       <c r="C607" s="5" t="n">
-        <v>4202.4</v>
+        <v>314.16</v>
       </c>
       <c r="D607" s="3" t="inlineStr">
         <is>
@@ -23034,7 +23035,7 @@
       </c>
       <c r="F607" s="3" t="inlineStr">
         <is>
-          <t>Badger Hydrovac With Operator</t>
+          <t>Disposition</t>
         </is>
       </c>
       <c r="G607" s="3" t="inlineStr">
@@ -23056,7 +23057,7 @@
         </is>
       </c>
       <c r="C608" s="5" t="n">
-        <v>314.16</v>
+        <v>447.33</v>
       </c>
       <c r="D608" s="3" t="inlineStr">
         <is>
@@ -23070,7 +23071,7 @@
       </c>
       <c r="F608" s="3" t="inlineStr">
         <is>
-          <t>Disposition</t>
+          <t>Fluctuating Fuel Recovery</t>
         </is>
       </c>
       <c r="G608" s="3" t="inlineStr">
@@ -23092,7 +23093,7 @@
         </is>
       </c>
       <c r="C609" s="5" t="n">
-        <v>447.33</v>
+        <v>145.86</v>
       </c>
       <c r="D609" s="3" t="inlineStr">
         <is>
@@ -23106,7 +23107,7 @@
       </c>
       <c r="F609" s="3" t="inlineStr">
         <is>
-          <t>Fluctuating Fuel Recovery</t>
+          <t>Supply Water</t>
         </is>
       </c>
       <c r="G609" s="3" t="inlineStr">
@@ -23128,7 +23129,7 @@
         </is>
       </c>
       <c r="C610" s="5" t="n">
-        <v>145.86</v>
+        <v>60.58</v>
       </c>
       <c r="D610" s="3" t="inlineStr">
         <is>
@@ -23142,7 +23143,7 @@
       </c>
       <c r="F610" s="3" t="inlineStr">
         <is>
-          <t>Supply Water</t>
+          <t>Consumable Materials</t>
         </is>
       </c>
       <c r="G610" s="3" t="inlineStr">
@@ -23164,7 +23165,7 @@
         </is>
       </c>
       <c r="C611" s="5" t="n">
-        <v>60.58</v>
+        <v>440.33</v>
       </c>
       <c r="D611" s="3" t="inlineStr">
         <is>
@@ -23178,7 +23179,7 @@
       </c>
       <c r="F611" s="3" t="inlineStr">
         <is>
-          <t>Consumable Materials</t>
+          <t>Badger Hydrovac With Operator Overtime</t>
         </is>
       </c>
       <c r="G611" s="3" t="inlineStr">
@@ -23200,7 +23201,7 @@
         </is>
       </c>
       <c r="C612" s="5" t="n">
-        <v>440.33</v>
+        <v>4202.4</v>
       </c>
       <c r="D612" s="3" t="inlineStr">
         <is>
@@ -23214,7 +23215,7 @@
       </c>
       <c r="F612" s="3" t="inlineStr">
         <is>
-          <t>Badger Hydrovac With Operator Overtime</t>
+          <t>Badger Hydrovac With Operator</t>
         </is>
       </c>
       <c r="G612" s="3" t="inlineStr">
@@ -23236,7 +23237,7 @@
         </is>
       </c>
       <c r="C613" s="5" t="n">
-        <v>4202.4</v>
+        <v>314.16</v>
       </c>
       <c r="D613" s="3" t="inlineStr">
         <is>
@@ -23250,7 +23251,7 @@
       </c>
       <c r="F613" s="3" t="inlineStr">
         <is>
-          <t>Badger Hydrovac With Operator</t>
+          <t>Disposition</t>
         </is>
       </c>
       <c r="G613" s="3" t="inlineStr">
@@ -23272,7 +23273,7 @@
         </is>
       </c>
       <c r="C614" s="5" t="n">
-        <v>314.16</v>
+        <v>87</v>
       </c>
       <c r="D614" s="3" t="inlineStr">
         <is>
@@ -23286,7 +23287,7 @@
       </c>
       <c r="F614" s="3" t="inlineStr">
         <is>
-          <t>Disposition</t>
+          <t>Remote Hose</t>
         </is>
       </c>
       <c r="G614" s="3" t="inlineStr">
@@ -23308,7 +23309,7 @@
         </is>
       </c>
       <c r="C615" s="5" t="n">
-        <v>87</v>
+        <v>952.09</v>
       </c>
       <c r="D615" s="3" t="inlineStr">
         <is>
@@ -23322,7 +23323,7 @@
       </c>
       <c r="F615" s="3" t="inlineStr">
         <is>
-          <t>Remote Hose</t>
+          <t>Fluctuating Fuel Recovery</t>
         </is>
       </c>
       <c r="G615" s="3" t="inlineStr">
@@ -23344,7 +23345,7 @@
         </is>
       </c>
       <c r="C616" s="5" t="n">
-        <v>952.09</v>
+        <v>291.72</v>
       </c>
       <c r="D616" s="3" t="inlineStr">
         <is>
@@ -23358,7 +23359,7 @@
       </c>
       <c r="F616" s="3" t="inlineStr">
         <is>
-          <t>Fluctuating Fuel Recovery</t>
+          <t>Supply Water</t>
         </is>
       </c>
       <c r="G616" s="3" t="inlineStr">
@@ -23380,7 +23381,7 @@
         </is>
       </c>
       <c r="C617" s="5" t="n">
-        <v>291.72</v>
+        <v>121.16</v>
       </c>
       <c r="D617" s="3" t="inlineStr">
         <is>
@@ -23394,7 +23395,7 @@
       </c>
       <c r="F617" s="3" t="inlineStr">
         <is>
-          <t>Supply Water</t>
+          <t>Consumable Materials</t>
         </is>
       </c>
       <c r="G617" s="3" t="inlineStr">
@@ -23416,7 +23417,7 @@
         </is>
       </c>
       <c r="C618" s="5" t="n">
-        <v>121.16</v>
+        <v>1467.76</v>
       </c>
       <c r="D618" s="3" t="inlineStr">
         <is>
@@ -23430,7 +23431,7 @@
       </c>
       <c r="F618" s="3" t="inlineStr">
         <is>
-          <t>Consumable Materials</t>
+          <t>Badger Hydrovac With Operator Overtime</t>
         </is>
       </c>
       <c r="G618" s="3" t="inlineStr">
@@ -23452,7 +23453,7 @@
         </is>
       </c>
       <c r="C619" s="5" t="n">
-        <v>1467.76</v>
+        <v>8404.799999999999</v>
       </c>
       <c r="D619" s="3" t="inlineStr">
         <is>
@@ -23466,7 +23467,7 @@
       </c>
       <c r="F619" s="3" t="inlineStr">
         <is>
-          <t>Badger Hydrovac With Operator Overtime</t>
+          <t>Badger Hydrovac With Operator</t>
         </is>
       </c>
       <c r="G619" s="3" t="inlineStr">
@@ -23488,7 +23489,7 @@
         </is>
       </c>
       <c r="C620" s="5" t="n">
-        <v>8404.799999999999</v>
+        <v>628.3200000000001</v>
       </c>
       <c r="D620" s="3" t="inlineStr">
         <is>
@@ -23502,7 +23503,7 @@
       </c>
       <c r="F620" s="3" t="inlineStr">
         <is>
-          <t>Badger Hydrovac With Operator</t>
+          <t>Disposition</t>
         </is>
       </c>
       <c r="G620" s="3" t="inlineStr">
@@ -23524,7 +23525,7 @@
         </is>
       </c>
       <c r="C621" s="5" t="n">
-        <v>628.3200000000001</v>
+        <v>261</v>
       </c>
       <c r="D621" s="3" t="inlineStr">
         <is>
@@ -23538,7 +23539,7 @@
       </c>
       <c r="F621" s="3" t="inlineStr">
         <is>
-          <t>Disposition</t>
+          <t>Remote Hose</t>
         </is>
       </c>
       <c r="G621" s="3" t="inlineStr">
@@ -23560,7 +23561,7 @@
         </is>
       </c>
       <c r="C622" s="5" t="n">
-        <v>261</v>
+        <v>402.33</v>
       </c>
       <c r="D622" s="3" t="inlineStr">
         <is>
@@ -23574,7 +23575,7 @@
       </c>
       <c r="F622" s="3" t="inlineStr">
         <is>
-          <t>Remote Hose</t>
+          <t>Fluctuating Fuel Recovery</t>
         </is>
       </c>
       <c r="G622" s="3" t="inlineStr">
@@ -23596,7 +23597,7 @@
         </is>
       </c>
       <c r="C623" s="5" t="n">
-        <v>402.33</v>
+        <v>145.86</v>
       </c>
       <c r="D623" s="3" t="inlineStr">
         <is>
@@ -23610,7 +23611,7 @@
       </c>
       <c r="F623" s="3" t="inlineStr">
         <is>
-          <t>Fluctuating Fuel Recovery</t>
+          <t>Supply Water</t>
         </is>
       </c>
       <c r="G623" s="3" t="inlineStr">
@@ -23632,7 +23633,7 @@
         </is>
       </c>
       <c r="C624" s="5" t="n">
-        <v>145.86</v>
+        <v>60.58</v>
       </c>
       <c r="D624" s="3" t="inlineStr">
         <is>
@@ -23646,7 +23647,7 @@
       </c>
       <c r="F624" s="3" t="inlineStr">
         <is>
-          <t>Supply Water</t>
+          <t>Consumable Materials</t>
         </is>
       </c>
       <c r="G624" s="3" t="inlineStr">
@@ -23667,8 +23668,8 @@
           <t>5120 · Outside services (Direct)</t>
         </is>
       </c>
-      <c r="C625" s="5" t="n">
-        <v>60.58</v>
+      <c r="C625" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="D625" s="3" t="inlineStr">
         <is>
@@ -23682,7 +23683,7 @@
       </c>
       <c r="F625" s="3" t="inlineStr">
         <is>
-          <t>Consumable Materials</t>
+          <t>Badger Hydrovac With Operator Overtime</t>
         </is>
       </c>
       <c r="G625" s="3" t="inlineStr">
@@ -23703,8 +23704,8 @@
           <t>5120 · Outside services (Direct)</t>
         </is>
       </c>
-      <c r="C626" s="3" t="n">
-        <v>0</v>
+      <c r="C626" s="5" t="n">
+        <v>4071.08</v>
       </c>
       <c r="D626" s="3" t="inlineStr">
         <is>
@@ -23718,7 +23719,7 @@
       </c>
       <c r="F626" s="3" t="inlineStr">
         <is>
-          <t>Badger Hydrovac With Operator Overtime</t>
+          <t>Badger Hydrovac With Operator</t>
         </is>
       </c>
       <c r="G626" s="3" t="inlineStr">
@@ -23740,7 +23741,7 @@
         </is>
       </c>
       <c r="C627" s="5" t="n">
-        <v>4071.08</v>
+        <v>314.16</v>
       </c>
       <c r="D627" s="3" t="inlineStr">
         <is>
@@ -23754,7 +23755,7 @@
       </c>
       <c r="F627" s="3" t="inlineStr">
         <is>
-          <t>Badger Hydrovac With Operator</t>
+          <t>Disposition</t>
         </is>
       </c>
       <c r="G627" s="3" t="inlineStr">
@@ -23776,7 +23777,7 @@
         </is>
       </c>
       <c r="C628" s="5" t="n">
-        <v>314.16</v>
+        <v>130.5</v>
       </c>
       <c r="D628" s="3" t="inlineStr">
         <is>
@@ -23790,7 +23791,7 @@
       </c>
       <c r="F628" s="3" t="inlineStr">
         <is>
-          <t>Disposition</t>
+          <t>Remote Hose</t>
         </is>
       </c>
       <c r="G628" s="3" t="inlineStr">
@@ -23812,7 +23813,7 @@
         </is>
       </c>
       <c r="C629" s="5" t="n">
-        <v>130.5</v>
+        <v>111.69</v>
       </c>
       <c r="D629" s="3" t="inlineStr">
         <is>
@@ -23826,7 +23827,7 @@
       </c>
       <c r="F629" s="3" t="inlineStr">
         <is>
-          <t>Remote Hose</t>
+          <t>Fluctuating Fuel Recovery</t>
         </is>
       </c>
       <c r="G629" s="3" t="inlineStr">
@@ -23848,7 +23849,7 @@
         </is>
       </c>
       <c r="C630" s="5" t="n">
-        <v>111.69</v>
+        <v>72.93000000000001</v>
       </c>
       <c r="D630" s="3" t="inlineStr">
         <is>
@@ -23862,7 +23863,7 @@
       </c>
       <c r="F630" s="3" t="inlineStr">
         <is>
-          <t>Fluctuating Fuel Recovery</t>
+          <t>Supply Water</t>
         </is>
       </c>
       <c r="G630" s="3" t="inlineStr">
@@ -23884,7 +23885,7 @@
         </is>
       </c>
       <c r="C631" s="5" t="n">
-        <v>72.93000000000001</v>
+        <v>30.29</v>
       </c>
       <c r="D631" s="3" t="inlineStr">
         <is>
@@ -23898,7 +23899,7 @@
       </c>
       <c r="F631" s="3" t="inlineStr">
         <is>
-          <t>Supply Water</t>
+          <t>Consumable Materials</t>
         </is>
       </c>
       <c r="G631" s="3" t="inlineStr">
@@ -23919,8 +23920,8 @@
           <t>5120 · Outside services (Direct)</t>
         </is>
       </c>
-      <c r="C632" s="5" t="n">
-        <v>30.29</v>
+      <c r="C632" s="3" t="n">
+        <v>0</v>
       </c>
       <c r="D632" s="3" t="inlineStr">
         <is>
@@ -23934,7 +23935,7 @@
       </c>
       <c r="F632" s="3" t="inlineStr">
         <is>
-          <t>Consumable Materials</t>
+          <t>Badger Hydrovac With Operator Overtime</t>
         </is>
       </c>
       <c r="G632" s="3" t="inlineStr">
@@ -23955,8 +23956,8 @@
           <t>5120 · Outside services (Direct)</t>
         </is>
       </c>
-      <c r="C633" s="3" t="n">
-        <v>0</v>
+      <c r="C633" s="5" t="n">
+        <v>1050.6</v>
       </c>
       <c r="D633" s="3" t="inlineStr">
         <is>
@@ -23970,7 +23971,7 @@
       </c>
       <c r="F633" s="3" t="inlineStr">
         <is>
-          <t>Badger Hydrovac With Operator Overtime</t>
+          <t>Badger Hydrovac With Operator</t>
         </is>
       </c>
       <c r="G633" s="3" t="inlineStr">
@@ -23992,7 +23993,7 @@
         </is>
       </c>
       <c r="C634" s="5" t="n">
-        <v>1050.6</v>
+        <v>157.08</v>
       </c>
       <c r="D634" s="3" t="inlineStr">
         <is>
@@ -24006,7 +24007,7 @@
       </c>
       <c r="F634" s="3" t="inlineStr">
         <is>
-          <t>Badger Hydrovac With Operator</t>
+          <t>Disposition</t>
         </is>
       </c>
       <c r="G634" s="3" t="inlineStr">
@@ -24020,34 +24021,34 @@
     </row>
     <row r="635">
       <c r="A635" s="2" t="n">
-        <v>45960</v>
+        <v>45961</v>
       </c>
       <c r="B635" s="3" t="inlineStr">
         <is>
-          <t>5120 · Outside services (Direct)</t>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
         </is>
       </c>
       <c r="C635" s="5" t="n">
-        <v>157.08</v>
+        <v>350</v>
       </c>
       <c r="D635" s="3" t="inlineStr">
         <is>
-          <t>Invoice</t>
+          <t>General Journal</t>
         </is>
       </c>
       <c r="E635" s="3" t="inlineStr">
         <is>
-          <t>CIN25-003</t>
+          <t>16783</t>
         </is>
       </c>
       <c r="F635" s="3" t="inlineStr">
         <is>
-          <t>Disposition</t>
+          <t>Andy Remillard Per diem for week of 11/03/2025 - 11/09/2025</t>
         </is>
       </c>
       <c r="G635" s="3" t="inlineStr">
         <is>
-          <t>1100 · Trade Debtors</t>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
       <c r="H635" s="4" t="n">
@@ -24064,7 +24065,7 @@
         </is>
       </c>
       <c r="C636" s="5" t="n">
-        <v>350</v>
+        <v>300</v>
       </c>
       <c r="D636" s="3" t="inlineStr">
         <is>
@@ -24078,7 +24079,7 @@
       </c>
       <c r="F636" s="3" t="inlineStr">
         <is>
-          <t>Andy Remillard Per diem for week of 11/03/2025 - 11/09/2025</t>
+          <t>Brian Krumbholz Per diem for week of 11/03/2025 - 11/09/2025</t>
         </is>
       </c>
       <c r="G636" s="3" t="inlineStr">
@@ -24100,7 +24101,7 @@
         </is>
       </c>
       <c r="C637" s="5" t="n">
-        <v>300</v>
+        <v>350</v>
       </c>
       <c r="D637" s="3" t="inlineStr">
         <is>
@@ -24114,7 +24115,7 @@
       </c>
       <c r="F637" s="3" t="inlineStr">
         <is>
-          <t>Brian Krumbholz Per diem for week of 11/03/2025 - 11/09/2025</t>
+          <t>Mike Cogswell Per diem for week of 11/03/2025 - 11/09/2025</t>
         </is>
       </c>
       <c r="G637" s="3" t="inlineStr">
@@ -24128,34 +24129,34 @@
     </row>
     <row r="638">
       <c r="A638" s="2" t="n">
-        <v>45961</v>
+        <v>45964</v>
       </c>
       <c r="B638" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>1504 · Undeposited Funds</t>
         </is>
       </c>
       <c r="C638" s="5" t="n">
-        <v>350</v>
+        <v>186293.56</v>
       </c>
       <c r="D638" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Deposit</t>
         </is>
       </c>
       <c r="E638" s="3" t="inlineStr">
         <is>
-          <t>16783</t>
+          <t>7224263064</t>
         </is>
       </c>
       <c r="F638" s="3" t="inlineStr">
         <is>
-          <t>Mike Cogswell Per diem for week of 11/03/2025 - 11/09/2025</t>
+          <t>CIN25-002</t>
         </is>
       </c>
       <c r="G638" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>1006.1 · (NEW) Calif B &amp; T Checking</t>
         </is>
       </c>
       <c r="H638" s="4" t="n">
@@ -24164,34 +24165,34 @@
     </row>
     <row r="639">
       <c r="A639" s="2" t="n">
-        <v>45964</v>
+        <v>45967</v>
       </c>
       <c r="B639" s="3" t="inlineStr">
         <is>
-          <t>1504 · Undeposited Funds</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C639" s="5" t="n">
-        <v>186293.56</v>
+        <v>492.3</v>
       </c>
       <c r="D639" s="3" t="inlineStr">
         <is>
-          <t>Deposit</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="E639" s="3" t="inlineStr">
         <is>
-          <t>7224263064</t>
+          <t>54967992</t>
         </is>
       </c>
       <c r="F639" s="3" t="inlineStr">
         <is>
-          <t>CIN25-002</t>
+          <t xml:space="preserve">	316 Stainless Steel Check Valve with Fluoroelastomer Piston with Rubber Spring-Loaded Piston, 1...</t>
         </is>
       </c>
       <c r="G639" s="3" t="inlineStr">
         <is>
-          <t>1006.1 · (NEW) Calif B &amp; T Checking</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="H639" s="4" t="n">
@@ -24208,7 +24209,7 @@
         </is>
       </c>
       <c r="C640" s="5" t="n">
-        <v>492.3</v>
+        <v>44.9</v>
       </c>
       <c r="D640" s="3" t="inlineStr">
         <is>
@@ -24222,7 +24223,7 @@
       </c>
       <c r="F640" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">	316 Stainless Steel Check Valve with Fluoroelastomer Piston with Rubber Spring-Loaded Piston, 1...</t>
+          <t xml:space="preserve">	UV-Rst Hard Clear FEP Tubing for Chemicals 7/16" ID, 1/2" OD, 10 ft. Length</t>
         </is>
       </c>
       <c r="G640" s="3" t="inlineStr">
@@ -24244,7 +24245,7 @@
         </is>
       </c>
       <c r="C641" s="5" t="n">
-        <v>44.9</v>
+        <v>38.39</v>
       </c>
       <c r="D641" s="3" t="inlineStr">
         <is>
@@ -24258,7 +24259,7 @@
       </c>
       <c r="F641" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">	UV-Rst Hard Clear FEP Tubing for Chemicals 7/16" ID, 1/2" OD, 10 ft. Length</t>
+          <t>Tax</t>
         </is>
       </c>
       <c r="G641" s="3" t="inlineStr">
@@ -24280,7 +24281,7 @@
         </is>
       </c>
       <c r="C642" s="5" t="n">
-        <v>38.39</v>
+        <v>11.29</v>
       </c>
       <c r="D642" s="3" t="inlineStr">
         <is>
@@ -24294,7 +24295,7 @@
       </c>
       <c r="F642" s="3" t="inlineStr">
         <is>
-          <t>Tax</t>
+          <t>Shippig</t>
         </is>
       </c>
       <c r="G642" s="3" t="inlineStr">
@@ -24316,7 +24317,7 @@
         </is>
       </c>
       <c r="C643" s="5" t="n">
-        <v>11.29</v>
+        <v>30.42</v>
       </c>
       <c r="D643" s="3" t="inlineStr">
         <is>
@@ -24325,12 +24326,12 @@
       </c>
       <c r="E643" s="3" t="inlineStr">
         <is>
-          <t>54967992</t>
+          <t>54957597</t>
         </is>
       </c>
       <c r="F643" s="3" t="inlineStr">
         <is>
-          <t>Shippig</t>
+          <t xml:space="preserve">	Tapping and Threading Lubricant, Ridgid Nu-Clear, 1 Gallon Jug</t>
         </is>
       </c>
       <c r="G643" s="3" t="inlineStr">
@@ -24352,7 +24353,7 @@
         </is>
       </c>
       <c r="C644" s="5" t="n">
-        <v>30.42</v>
+        <v>1.67</v>
       </c>
       <c r="D644" s="3" t="inlineStr">
         <is>
@@ -24366,7 +24367,7 @@
       </c>
       <c r="F644" s="3" t="inlineStr">
         <is>
-          <t xml:space="preserve">	Tapping and Threading Lubricant, Ridgid Nu-Clear, 1 Gallon Jug</t>
+          <t>Tax</t>
         </is>
       </c>
       <c r="G644" s="3" t="inlineStr">
@@ -24384,11 +24385,11 @@
       </c>
       <c r="B645" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5121 · Freight &amp; Shipping (Direct)</t>
         </is>
       </c>
       <c r="C645" s="5" t="n">
-        <v>1.67</v>
+        <v>16.02</v>
       </c>
       <c r="D645" s="3" t="inlineStr">
         <is>
@@ -24402,7 +24403,7 @@
       </c>
       <c r="F645" s="3" t="inlineStr">
         <is>
-          <t>Tax</t>
+          <t>Shipping &amp; Handling</t>
         </is>
       </c>
       <c r="G645" s="3" t="inlineStr">
@@ -24416,34 +24417,34 @@
     </row>
     <row r="646">
       <c r="A646" s="2" t="n">
-        <v>45967</v>
+        <v>45968</v>
       </c>
       <c r="B646" s="3" t="inlineStr">
         <is>
-          <t>5121 · Freight &amp; Shipping (Direct)</t>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
         </is>
       </c>
       <c r="C646" s="5" t="n">
-        <v>16.02</v>
+        <v>350</v>
       </c>
       <c r="D646" s="3" t="inlineStr">
         <is>
-          <t>Bill</t>
+          <t>General Journal</t>
         </is>
       </c>
       <c r="E646" s="3" t="inlineStr">
         <is>
-          <t>54957597</t>
+          <t>16784</t>
         </is>
       </c>
       <c r="F646" s="3" t="inlineStr">
         <is>
-          <t>Shipping &amp; Handling</t>
+          <t>Andy Remillard Per diem for week of 11/10/2025 - 11/16/2025</t>
         </is>
       </c>
       <c r="G646" s="3" t="inlineStr">
         <is>
-          <t>2000 · Accounts Payable</t>
+          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
         </is>
       </c>
       <c r="H646" s="4" t="n">
@@ -24460,7 +24461,7 @@
         </is>
       </c>
       <c r="C647" s="5" t="n">
-        <v>350</v>
+        <v>100</v>
       </c>
       <c r="D647" s="3" t="inlineStr">
         <is>
@@ -24474,7 +24475,7 @@
       </c>
       <c r="F647" s="3" t="inlineStr">
         <is>
-          <t>Andy Remillard Per diem for week of 11/10/2025 - 11/16/2025</t>
+          <t>Levi Winslow Per diem for week of 11/10/2025 - 11/16/2025</t>
         </is>
       </c>
       <c r="G647" s="3" t="inlineStr">
@@ -24496,7 +24497,7 @@
         </is>
       </c>
       <c r="C648" s="5" t="n">
-        <v>100</v>
+        <v>350</v>
       </c>
       <c r="D648" s="3" t="inlineStr">
         <is>
@@ -24510,7 +24511,7 @@
       </c>
       <c r="F648" s="3" t="inlineStr">
         <is>
-          <t>Levi Winslow Per diem for week of 11/10/2025 - 11/16/2025</t>
+          <t>Luke Giguere Per diem for week of 11/10/2025 - 11/16/2025</t>
         </is>
       </c>
       <c r="G648" s="3" t="inlineStr">
@@ -24546,7 +24547,7 @@
       </c>
       <c r="F649" s="3" t="inlineStr">
         <is>
-          <t>Luke Giguere Per diem for week of 11/10/2025 - 11/16/2025</t>
+          <t>Mike Cogswell Per diem for week of 11/10/2025 - 11/16/2025</t>
         </is>
       </c>
       <c r="G649" s="3" t="inlineStr">
@@ -24582,7 +24583,7 @@
       </c>
       <c r="F650" s="3" t="inlineStr">
         <is>
-          <t>Mike Cogswell Per diem for week of 11/10/2025 - 11/16/2025</t>
+          <t>Ryan Ordelt Per diem for week of 11/10/2025 - 11/16/2025</t>
         </is>
       </c>
       <c r="G650" s="3" t="inlineStr">
@@ -24600,30 +24601,30 @@
       </c>
       <c r="B651" s="3" t="inlineStr">
         <is>
-          <t>5108 · Meals &amp; entertainment (Direct)</t>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
         </is>
       </c>
       <c r="C651" s="5" t="n">
-        <v>350</v>
+        <v>31</v>
       </c>
       <c r="D651" s="3" t="inlineStr">
         <is>
-          <t>General Journal</t>
+          <t>Bill</t>
         </is>
       </c>
       <c r="E651" s="3" t="inlineStr">
         <is>
-          <t>16784</t>
+          <t>18585058</t>
         </is>
       </c>
       <c r="F651" s="3" t="inlineStr">
         <is>
-          <t>Ryan Ordelt Per diem for week of 11/10/2025 - 11/16/2025</t>
+          <t>NITRA pneumatic push-to-connect fitting</t>
         </is>
       </c>
       <c r="G651" s="3" t="inlineStr">
         <is>
-          <t>1006.2 · Calif B &amp; T Payroll Checking</t>
+          <t>2000 · Accounts Payable</t>
         </is>
       </c>
       <c r="H651" s="4" t="n">
@@ -24640,7 +24641,7 @@
         </is>
       </c>
       <c r="C652" s="5" t="n">
-        <v>31</v>
+        <v>2.42</v>
       </c>
       <c r="D652" s="3" t="inlineStr">
         <is>
@@ -24654,7 +24655,7 @@
       </c>
       <c r="F652" s="3" t="inlineStr">
         <is>
-          <t>NITRA pneumatic push-to-connect fitting</t>
+          <t>Tax</t>
         </is>
       </c>
       <c r="G652" s="3" t="inlineStr">
@@ -24668,7 +24669,7 @@
     </row>
     <row r="653">
       <c r="A653" s="2" t="n">
-        <v>45968</v>
+        <v>45971</v>
       </c>
       <c r="B653" s="3" t="inlineStr">
         <is>
@@ -24676,7 +24677,7 @@
         </is>
       </c>
       <c r="C653" s="5" t="n">
-        <v>2.42</v>
+        <v>451.08</v>
       </c>
       <c r="D653" s="3" t="inlineStr">
         <is>
@@ -24685,12 +24686,12 @@
       </c>
       <c r="E653" s="3" t="inlineStr">
         <is>
-          <t>18585058</t>
+          <t>93318089</t>
         </is>
       </c>
       <c r="F653" s="3" t="inlineStr">
         <is>
-          <t>Tax</t>
+          <t>|BOLTPAK 5" RING 150 1/8" NAS</t>
         </is>
       </c>
       <c r="G653" s="3" t="inlineStr">
@@ -24712,7 +24713,7 @@
         </is>
       </c>
       <c r="C654" s="5" t="n">
-        <v>451.08</v>
+        <v>46.74</v>
       </c>
       <c r="D654" s="3" t="inlineStr">
         <is>
@@ -24726,7 +24727,7 @@
       </c>
       <c r="F654" s="3" t="inlineStr">
         <is>
-          <t>|BOLTPAK 5" RING 150 1/8" NAS</t>
+          <t>|BOLTPAK 2" RING 150 1/8" NAS</t>
         </is>
       </c>
       <c r="G654" s="3" t="inlineStr">
@@ -24748,7 +24749,7 @@
         </is>
       </c>
       <c r="C655" s="5" t="n">
-        <v>46.74</v>
+        <v>1044.8</v>
       </c>
       <c r="D655" s="3" t="inlineStr">
         <is>
@@ -24762,7 +24763,7 @@
       </c>
       <c r="F655" s="3" t="inlineStr">
         <is>
-          <t>|BOLTPAK 2" RING 150 1/8" NAS</t>
+          <t>|GATE VLV LF BRS 1" THD 200 F</t>
         </is>
       </c>
       <c r="G655" s="3" t="inlineStr">
@@ -24784,7 +24785,7 @@
         </is>
       </c>
       <c r="C656" s="5" t="n">
-        <v>1044.8</v>
+        <v>18.37</v>
       </c>
       <c r="D656" s="3" t="inlineStr">
         <is>
@@ -24793,12 +24794,12 @@
       </c>
       <c r="E656" s="3" t="inlineStr">
         <is>
-          <t>93318089</t>
+          <t>9705721745</t>
         </is>
       </c>
       <c r="F656" s="3" t="inlineStr">
         <is>
-          <t>|GATE VLV LF BRS 1" THD 200 F</t>
+          <t>VACUUM GAUGE,TEST,2 IN</t>
         </is>
       </c>
       <c r="G656" s="3" t="inlineStr">
@@ -24820,7 +24821,7 @@
         </is>
       </c>
       <c r="C657" s="5" t="n">
-        <v>18.37</v>
+        <v>1.42</v>
       </c>
       <c r="D657" s="3" t="inlineStr">
         <is>
@@ -24834,7 +24835,7 @@
       </c>
       <c r="F657" s="3" t="inlineStr">
         <is>
-          <t>VACUUM GAUGE,TEST,2 IN</t>
+          <t>Tax</t>
         </is>
       </c>
       <c r="G657" s="3" t="inlineStr">
@@ -24856,7 +24857,7 @@
         </is>
       </c>
       <c r="C658" s="5" t="n">
-        <v>1.42</v>
+        <v>40.84</v>
       </c>
       <c r="D658" s="3" t="inlineStr">
         <is>
@@ -24865,12 +24866,12 @@
       </c>
       <c r="E658" s="3" t="inlineStr">
         <is>
-          <t>9705721745</t>
+          <t>0935786</t>
         </is>
       </c>
       <c r="F658" s="3" t="inlineStr">
         <is>
-          <t>Tax</t>
+          <t>2X20 FT PVC DWV S40 PE PIPE</t>
         </is>
       </c>
       <c r="G658" s="3" t="inlineStr">
@@ -24892,7 +24893,7 @@
         </is>
       </c>
       <c r="C659" s="5" t="n">
-        <v>40.84</v>
+        <v>80.65000000000001</v>
       </c>
       <c r="D659" s="3" t="inlineStr">
         <is>
@@ -24906,7 +24907,7 @@
       </c>
       <c r="F659" s="3" t="inlineStr">
         <is>
-          <t>2X20 FT PVC DWV S40 PE PIPE</t>
+          <t>3X20 FT PVC DWV S40 PE PIPE</t>
         </is>
       </c>
       <c r="G659" s="3" t="inlineStr">
@@ -24928,7 +24929,7 @@
         </is>
       </c>
       <c r="C660" s="5" t="n">
-        <v>80.65000000000001</v>
+        <v>109.54</v>
       </c>
       <c r="D660" s="3" t="inlineStr">
         <is>
@@ -24942,7 +24943,7 @@
       </c>
       <c r="F660" s="3" t="inlineStr">
         <is>
-          <t>3X20 FT PVC DWV S40 PE PIPE</t>
+          <t>LF 1-1/2 PXP COUP L/ST</t>
         </is>
       </c>
       <c r="G660" s="3" t="inlineStr">
@@ -24964,7 +24965,7 @@
         </is>
       </c>
       <c r="C661" s="5" t="n">
-        <v>109.54</v>
+        <v>206.66</v>
       </c>
       <c r="D661" s="3" t="inlineStr">
         <is>
@@ -24978,7 +24979,7 @@
       </c>
       <c r="F661" s="3" t="inlineStr">
         <is>
-          <t>LF 1-1/2 PXP COUP L/ST</t>
+          <t>6X20 FT PVC DWV S40 PE PIPE</t>
         </is>
       </c>
       <c r="G661" s="3" t="inlineStr">
@@ -25000,7 +25001,7 @@
         </is>
       </c>
       <c r="C662" s="5" t="n">
-        <v>206.66</v>
+        <v>287.8</v>
       </c>
       <c r="D662" s="3" t="inlineStr">
         <is>
@@ -25014,7 +25015,7 @@
       </c>
       <c r="F662" s="3" t="inlineStr">
         <is>
-          <t>6X20 FT PVC DWV S40 PE PIPE</t>
+          <t>6 PVC S40 SXS 90 ELL</t>
         </is>
       </c>
       <c r="G662" s="3" t="inlineStr">
@@ -25036,7 +25037,7 @@
         </is>
       </c>
       <c r="C663" s="5" t="n">
-        <v>287.8</v>
+        <v>27.22</v>
       </c>
       <c r="D663" s="3" t="inlineStr">
         <is>
@@ -25050,7 +25051,7 @@
       </c>
       <c r="F663" s="3" t="inlineStr">
         <is>
-          <t>6 PVC S40 SXS 90 ELL</t>
+          <t>6X4 PVC S40 SPXSLIP BUSH</t>
         </is>
       </c>
       <c r="G663" s="3" t="inlineStr">
@@ -25072,7 +25073,7 @@
         </is>
       </c>
       <c r="C664" s="5" t="n">
-        <v>27.22</v>
+        <v>64</v>
       </c>
       <c r="D664" s="3" t="inlineStr">
         <is>
@@ -25086,7 +25087,7 @@
       </c>
       <c r="F664" s="3" t="inlineStr">
         <is>
-          <t>6X4 PVC S40 SPXSLIP BUSH</t>
+          <t>6 PVC S40 SXM ADPT</t>
         </is>
       </c>
       <c r="G664" s="3" t="inlineStr">
@@ -25108,7 +25109,7 @@
         </is>
       </c>
       <c r="C665" s="5" t="n">
-        <v>64</v>
+        <v>90.42</v>
       </c>
       <c r="D665" s="3" t="inlineStr">
         <is>
@@ -25122,7 +25123,7 @@
       </c>
       <c r="F665" s="3" t="inlineStr">
         <is>
-          <t>6 PVC S40 SXM ADPT</t>
+          <t>6 PVC S40 SXSXS TEE</t>
         </is>
       </c>
       <c r="G665" s="3" t="inlineStr">
@@ -25144,7 +25145,7 @@
         </is>
       </c>
       <c r="C666" s="5" t="n">
-        <v>90.42</v>
+        <v>14.73</v>
       </c>
       <c r="D666" s="3" t="inlineStr">
         <is>
@@ -25158,7 +25159,7 @@
       </c>
       <c r="F666" s="3" t="inlineStr">
         <is>
-          <t>6 PVC S40 SXSXS TEE</t>
+          <t>4 PVC S80 VAN STONE SOC FLG</t>
         </is>
       </c>
       <c r="G666" s="3" t="inlineStr">
@@ -25180,7 +25181,7 @@
         </is>
       </c>
       <c r="C667" s="5" t="n">
-        <v>14.73</v>
+        <v>46.36</v>
       </c>
       <c r="D667" s="3" t="inlineStr">
         <is>
@@ -25194,7 +25195,7 @@
       </c>
       <c r="F667" s="3" t="inlineStr">
         <is>
-          <t>4 PVC S80 VAN STONE SOC FLG</t>
+          <t>6 PVC S80 VAN STONE SOC FLG</t>
         </is>
       </c>
       <c r="G667" s="3" t="inlineStr">
@@ -25216,7 +25217,7 @@
         </is>
       </c>
       <c r="C668" s="5" t="n">
-        <v>46.36</v>
+        <v>48.84</v>
       </c>
       <c r="D668" s="3" t="inlineStr">
         <is>
@@ -25230,7 +25231,7 @@
       </c>
       <c r="F668" s="3" t="inlineStr">
         <is>
-          <t>6 PVC S80 VAN STONE SOC FLG</t>
+          <t>6 150# ZN NA 1/16 RNG NBG SET</t>
         </is>
       </c>
       <c r="G668" s="3" t="inlineStr">
@@ -25252,7 +25253,7 @@
         </is>
       </c>
       <c r="C669" s="5" t="n">
-        <v>48.84</v>
+        <v>79.33</v>
       </c>
       <c r="D669" s="3" t="inlineStr">
         <is>
@@ -25266,7 +25267,7 @@
       </c>
       <c r="F669" s="3" t="inlineStr">
         <is>
-          <t>6 150# ZN NA 1/16 RNG NBG SET</t>
+          <t>Tax</t>
         </is>
       </c>
       <c r="G669" s="3" t="inlineStr">
@@ -25284,11 +25285,11 @@
       </c>
       <c r="B670" s="3" t="inlineStr">
         <is>
-          <t>5111 · Parts &amp; material costs (Direct)</t>
+          <t>5121 · Freight &amp; Shipping (Direct)</t>
         </is>
       </c>
       <c r="C670" s="5" t="n">
-        <v>79.33</v>
+        <v>330.75</v>
       </c>
       <c r="D670" s="3" t="inlineStr">
         <is>
@@ -25297,12 +25298,12 @@
       </c>
       <c r="E670" s="3" t="inlineStr">
         <is>
-          <t>0935786</t>
+          <t>93318089</t>
         </is>
       </c>
       <c r="F670" s="3" t="inlineStr">
         <is>
-          <t>Tax</t>
+          <t>Shipping &amp; Handling</t>
         </is>
       </c>
       <c r="G670" s="3" t="inlineStr">
@@ -25316,15 +25317,15 @@
     </row>
     <row r="671">
       <c r="A671" s="2" t="n">
-        <v>45971</v>
+        <v>45972</v>
       </c>
       <c r="B671" s="3" t="inlineStr">
         <is>
-          <t>5121 · Freight &amp; Shipping (Direct)</t>
+          <t>5115 · Rent - Equipment (direct)</t>
         </is>
       </c>
       <c r="C671" s="5" t="n">
-        <v>330.75</v>
+        <v>2166</v>
       </c>
       <c r="D671" s="3" t="inlineStr">
         <is>
@@ -25333,12 +25334,12 @@
       </c>
       <c r="E671" s="3" t="inlineStr">
         <is>
-          <t>93318089</t>
+          <t>254738310-001</t>
         </is>
       </c>
       <c r="F671" s="3" t="inlineStr">
         <is>
-          <t>Shipping &amp; Handling</t>
+          <t>SKID STEER TRACK LOADER 1700-1999#</t>
         </is>
       </c>
       <c r="G671" s="3" t="inlineStr">
@@ -25360,7 +25361,7 @@
         </is>
       </c>
       <c r="C672" s="5" t="n">
-        <v>2166</v>
+        <v>540.5</v>
       </c>
       <c r="D672" s="3" t="inlineStr">
         <is>
@@ -25374,7 +25375,7 @@
       </c>
       <c r="F672" s="3" t="inlineStr">
         <is>
-          <t>SKID STEER TRACK LOADER 1700-1999#</t>
+          <t>Delivery &amp; Pickup</t>
         </is>
       </c>
       <c r="G672" s="3" t="inlineStr">
@@ -25396,7 +25397,7 @@
         </is>
       </c>
       <c r="C673" s="5" t="n">
-        <v>540.5</v>
+        <v>257.81</v>
       </c>
       <c r="D673" s="3" t="inlineStr">
         <is>
@@ -25410,7 +25411,7 @@
       </c>
       <c r="F673" s="3" t="inlineStr">
         <is>
-          <t>Delivery &amp; Pickup</t>
+          <t>Taxes &amp; Fees</t>
         </is>
       </c>
       <c r="G673" s="3" t="inlineStr">
@@ -25422,40 +25423,333 @@
         <v>400</v>
       </c>
     </row>
-    <row r="674">
-      <c r="A674" s="2" t="n">
-        <v>45972</v>
-      </c>
-      <c r="B674" s="3" t="inlineStr">
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="40" customWidth="1" min="1" max="1"/>
+    <col width="11" customWidth="1" min="2" max="2"/>
+    <col width="19" customWidth="1" min="3" max="3"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Account</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Category</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Amount</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>1100 · Trade Debtors</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>Others</t>
+        </is>
+      </c>
+      <c r="C2" s="5" t="n">
+        <v>186293.56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="inlineStr">
+        <is>
+          <t>1504 · Undeposited Funds</t>
+        </is>
+      </c>
+      <c r="B3" s="3" t="inlineStr">
+        <is>
+          <t>Others</t>
+        </is>
+      </c>
+      <c r="C3" s="5" t="n">
+        <v>186293.56</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>5004 · GTR  Cost of Sales - Parts</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>Parts</t>
+        </is>
+      </c>
+      <c r="C4" s="5" t="n">
+        <v>37227.57</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>5006 · Drilling Expense</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Outsource</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>330517.75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>5105 · Travel - Airfare (Direct)</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>3234.92</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>5106 · Travel - Hotel (Direct)</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="C7" s="5" t="n">
+        <v>45984.72</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="inlineStr">
+        <is>
+          <t>5107 · Travel - Other (Direct)</t>
+        </is>
+      </c>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>2166.67</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="inlineStr">
+        <is>
+          <t>5107.1 · Travel - Car Rental</t>
+        </is>
+      </c>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>312.87</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="inlineStr">
+        <is>
+          <t>5108 · Meals &amp; entertainment (Direct)</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="C10" s="5" t="n">
+        <v>23050</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>5111 · Parts &amp; material costs (Direct)</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>Parts</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>106278.84</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>5113 · Repairs &amp; maint (Direct)</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Equipment</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>818.03</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
         <is>
           <t>5115 · Rent - Equipment (direct)</t>
         </is>
       </c>
-      <c r="C674" s="5" t="n">
-        <v>257.81</v>
-      </c>
-      <c r="D674" s="3" t="inlineStr">
-        <is>
-          <t>Bill</t>
-        </is>
-      </c>
-      <c r="E674" s="3" t="inlineStr">
-        <is>
-          <t>254738310-001</t>
-        </is>
-      </c>
-      <c r="F674" s="3" t="inlineStr">
-        <is>
-          <t>Taxes &amp; Fees</t>
-        </is>
-      </c>
-      <c r="G674" s="3" t="inlineStr">
-        <is>
-          <t>2000 · Accounts Payable</t>
-        </is>
-      </c>
-      <c r="H674" s="4" t="n">
-        <v>400</v>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Outsource</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>47077.67</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="3" t="inlineStr">
+        <is>
+          <t>5120 · Outside services (Direct)</t>
+        </is>
+      </c>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>Outsource</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>149065.71</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="3" t="inlineStr">
+        <is>
+          <t>5121 · Freight &amp; Shipping (Direct)</t>
+        </is>
+      </c>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>Outsource</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>17391.28</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="3" t="inlineStr">
+        <is>
+          <t>5122 · Motor vehicle exp (Direct)</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="C16" s="5" t="n">
+        <v>580.9100000000001</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>5123 · Auto fuel (Direct)</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>Travel</t>
+        </is>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>1210.24</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>5128 · Health &amp; Safety Equip (Direct)</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Parts</t>
+        </is>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>295.4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>5129 · Misc expenses (Direct)</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Outsource</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>927.5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="3" t="inlineStr">
+        <is>
+          <t>6999 · Uncategorized Expenses</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Others</t>
+        </is>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>378.2</v>
       </c>
     </row>
   </sheetData>
